--- a/txt/users.xlsx
+++ b/txt/users.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,34 +17,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
+      <color theme="1"/>
       <sz val="10"/>
     </font>
     <font>
       <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <name val="Calibri"/>
+      <color indexed="64"/>
+      <sz val="7.5"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <color rgb="FF191929"/>
+      <sz val="7.5"/>
     </font>
     <font>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Arial"/>
-      <charset val="1"/>
-      <family val="0"/>
       <b val="1"/>
-      <color rgb="FF000000"/>
+      <color indexed="64"/>
       <sz val="11"/>
     </font>
     <font>
@@ -86,36 +88,32 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -127,6 +125,7 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -199,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -242,71 +241,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -314,7 +255,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -337,7 +278,7 @@
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -411,24 +352,13 @@
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -450,11 +380,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -469,3711 +397,2583 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:path path="circle"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K21065"/>
+  <dimension ref="A1:AA21065"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C31"/>
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" view="normal" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="12.109375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.109375" defaultRowHeight="12.75"/>
   <cols>
-    <col width="12" customWidth="1" style="4" min="1" max="3"/>
-    <col width="12" customWidth="1" style="5" min="2" max="2"/>
-    <col width="12" customWidth="1" style="5" min="3" max="3"/>
-    <col width="12" customWidth="1" style="4" min="4" max="4"/>
-    <col width="12" customWidth="1" style="4" min="5" max="26"/>
-    <col width="12" customWidth="1" style="5" min="6" max="6"/>
-    <col width="12" customWidth="1" style="5" min="7" max="7"/>
-    <col width="12" customWidth="1" style="5" min="8" max="8"/>
-    <col width="12" customWidth="1" style="5" min="9" max="9"/>
-    <col width="12" customWidth="1" style="5" min="10" max="10"/>
-    <col width="12" customWidth="1" style="5" min="11" max="11"/>
-    <col width="12" customWidth="1" style="5" min="12" max="12"/>
-    <col width="12" customWidth="1" style="5" min="13" max="13"/>
-    <col width="12" customWidth="1" style="5" min="14" max="14"/>
-    <col width="12" customWidth="1" style="5" min="15" max="15"/>
-    <col width="12" customWidth="1" style="5" min="16" max="16"/>
-    <col width="12" customWidth="1" style="5" min="17" max="17"/>
-    <col width="12" customWidth="1" style="5" min="18" max="18"/>
-    <col width="12" customWidth="1" style="5" min="19" max="19"/>
-    <col width="12" customWidth="1" style="5" min="20" max="20"/>
-    <col width="12" customWidth="1" style="5" min="21" max="21"/>
-    <col width="12" customWidth="1" style="5" min="22" max="22"/>
-    <col width="12" customWidth="1" style="5" min="23" max="23"/>
-    <col width="12" customWidth="1" style="5" min="24" max="24"/>
-    <col width="12" customWidth="1" style="5" min="25" max="25"/>
-    <col width="12" customWidth="1" style="5" min="26" max="26"/>
+    <col width="12" customWidth="1" style="1" min="1" max="26"/>
+    <col width="12" customWidth="1" style="1" min="2" max="2"/>
+    <col width="12" customWidth="1" style="1" min="3" max="3"/>
+    <col width="12" customWidth="1" style="1" min="4" max="4"/>
+    <col width="12" customWidth="1" style="1" min="5" max="5"/>
+    <col width="12" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12" customWidth="1" style="1" min="7" max="7"/>
+    <col width="12" customWidth="1" style="1" min="8" max="8"/>
+    <col width="12" customWidth="1" style="1" min="9" max="9"/>
+    <col width="12" customWidth="1" style="1" min="10" max="10"/>
+    <col width="12" customWidth="1" style="1" min="11" max="11"/>
+    <col width="12" customWidth="1" style="1" min="12" max="12"/>
+    <col width="12" customWidth="1" style="1" min="13" max="13"/>
+    <col width="12" customWidth="1" style="1" min="14" max="14"/>
+    <col width="12" customWidth="1" style="1" min="15" max="15"/>
+    <col width="12" customWidth="1" style="1" min="16" max="16"/>
+    <col width="12" customWidth="1" style="1" min="17" max="17"/>
+    <col width="12" customWidth="1" style="1" min="18" max="18"/>
+    <col width="12" customWidth="1" style="1" min="19" max="19"/>
+    <col width="12" customWidth="1" style="1" min="20" max="20"/>
+    <col width="12" customWidth="1" style="1" min="21" max="21"/>
+    <col width="12" customWidth="1" style="1" min="22" max="22"/>
+    <col width="12" customWidth="1" style="1" min="23" max="23"/>
+    <col width="12" customWidth="1" style="1" min="24" max="24"/>
+    <col width="12" customWidth="1" style="1" min="25" max="25"/>
+    <col width="12" customWidth="1" style="1" min="26" max="26"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" s="5">
-      <c r="A1" s="6" t="inlineStr">
+    <row r="1" ht="35" customHeight="1" s="1">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Квартира:</t>
         </is>
       </c>
-      <c r="B1" s="6" t="n">
-        <v>16</v>
+      <c r="B1" s="7" t="n">
+        <v>1</v>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+    </row>
+    <row r="2" ht="35" customHeight="1" s="1">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>Логин:</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>64785</v>
+      </c>
+    </row>
+    <row r="3" ht="35" customHeight="1" s="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>Пароль:</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Uy06U%0E</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" s="1">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>Квартира:</t>
         </is>
       </c>
-      <c r="D1" s="6" t="n">
-        <v>166</v>
+      <c r="B4" s="7" t="n">
+        <v>28</v>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+    </row>
+    <row r="5" ht="35" customHeight="1" s="1">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>Логин:</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="n">
+        <v>68183</v>
+      </c>
+    </row>
+    <row r="6" ht="35" customHeight="1" s="1">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>Пароль:</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>n6%s6#5I</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="35" customHeight="1" s="1">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Квартира:</t>
         </is>
       </c>
-      <c r="F1" s="6" t="n">
-        <v>142</v>
+      <c r="B7" s="7" t="n">
+        <v>35</v>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+    </row>
+    <row r="8" ht="35" customHeight="1" s="1">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>Логин:</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n">
+        <v>35657</v>
+      </c>
+    </row>
+    <row r="9" ht="35" customHeight="1" s="1">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>Пароль:</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>q7FQzDt-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="35" customHeight="1" s="1">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>Квартира:</t>
         </is>
       </c>
-      <c r="I1" s="6" t="n">
-        <v>152</v>
+      <c r="B10" s="7" t="n">
+        <v>37</v>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+    </row>
+    <row r="11" ht="35" customHeight="1" s="1">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>Логин:</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n">
+        <v>62198</v>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1" s="1">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>Пароль:</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>$fbSTh0l</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" s="1">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Квартира:</t>
         </is>
       </c>
-      <c r="K1" s="6" t="n">
-        <v>217</v>
+      <c r="B13" s="7" t="n">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" ht="35" customHeight="1" s="5">
-      <c r="A2" s="6" t="inlineStr">
+    <row r="14" ht="35" customHeight="1" s="1">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>Логин:</t>
         </is>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>11172</v>
+      <c r="B14" s="7" t="n">
+        <v>65659</v>
       </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>40129</v>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>53672</v>
-      </c>
-      <c r="H2" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>63499</v>
-      </c>
-      <c r="J2" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="K2" s="6" t="n">
-        <v>66628</v>
-      </c>
-    </row>
-    <row r="3" ht="35" customHeight="1" s="5">
-      <c r="A3" s="6" t="inlineStr">
+    </row>
+    <row r="15" ht="35" customHeight="1" s="1">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>Пароль:</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>S0OzPz8$</t>
+          <t>eA-!fr70</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>On$0V-8O</t>
-        </is>
-      </c>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>WkpH$Q9y</t>
-        </is>
-      </c>
-      <c r="H3" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="I3" s="6" t="inlineStr">
-        <is>
-          <t>xx1lS0j&amp;</t>
-        </is>
-      </c>
-      <c r="J3" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="K3" s="6" t="inlineStr">
-        <is>
-          <t>6#sLxJ-a</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="35" customHeight="1" s="5">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="n">
-        <v>211</v>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>172</v>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n">
-        <v>188</v>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="J4" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="K4" s="6" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" ht="35" customHeight="1" s="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>33253</v>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>43308</v>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n">
-        <v>53838</v>
-      </c>
-      <c r="H5" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>63842</v>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="K5" s="6" t="n">
-        <v>66720</v>
-      </c>
-    </row>
-    <row r="6" ht="35" customHeight="1" s="5">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>L5ZtEBU&amp;</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="D6" s="6" t="inlineStr">
-        <is>
-          <t>TB%XH1w&amp;</t>
-        </is>
-      </c>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
-        <is>
-          <t>$t%K8O38</t>
-        </is>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="I6" s="6" t="inlineStr">
-        <is>
-          <t>QsYK0pS%</t>
-        </is>
-      </c>
-      <c r="J6" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="K6" s="6" t="inlineStr">
-        <is>
-          <t>Opz2D2!&amp;</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="35" customHeight="1" s="5">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>168</v>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="n">
-        <v>192</v>
-      </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>225</v>
-      </c>
-      <c r="J7" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="K7" s="6" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" ht="35" customHeight="1" s="5">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="n">
-        <v>33489</v>
-      </c>
-      <c r="C8" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>43704</v>
-      </c>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>54089</v>
-      </c>
-      <c r="H8" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>63846</v>
-      </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="K8" s="6" t="n">
-        <v>69042</v>
-      </c>
-    </row>
-    <row r="9" ht="35" customHeight="1" s="5">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>k%rI?f0T</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>8VMBt?p&amp;</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="F9" s="6" t="inlineStr">
-        <is>
-          <t>c-fxP#4G</t>
-        </is>
-      </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t>E5Pb#syk</t>
-        </is>
-      </c>
-      <c r="J9" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="K9" s="6" t="inlineStr">
-        <is>
-          <t>-jH3jXGN</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="35" customHeight="1" s="5">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="n">
-        <v>174</v>
-      </c>
-      <c r="C10" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>161</v>
-      </c>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="n">
-        <v>189</v>
-      </c>
-      <c r="H10" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" ht="35" customHeight="1" s="5">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="B11" s="6" t="n">
-        <v>34124</v>
-      </c>
-      <c r="C11" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>43759</v>
-      </c>
-      <c r="E11" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="n">
-        <v>55462</v>
-      </c>
-      <c r="H11" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>64212</v>
-      </c>
-    </row>
-    <row r="12" ht="35" customHeight="1" s="5">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>d&amp;GRu101</t>
-        </is>
-      </c>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="D12" s="6" t="inlineStr">
-        <is>
-          <t>j6g&amp;773U</t>
-        </is>
-      </c>
-      <c r="E12" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="F12" s="6" t="inlineStr">
-        <is>
-          <t>yG#4g#SZ</t>
-        </is>
-      </c>
-      <c r="H12" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>5wm$kg69</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="35" customHeight="1" s="5">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="n">
-        <v>45</v>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>173</v>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="F13" s="6" t="n">
-        <v>54</v>
-      </c>
-      <c r="H13" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="I13" s="6" t="n">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" ht="35" customHeight="1" s="5">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="B14" s="6" t="n">
-        <v>34995</v>
-      </c>
-      <c r="C14" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>44091</v>
-      </c>
-      <c r="E14" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="F14" s="6" t="n">
-        <v>56287</v>
-      </c>
-      <c r="H14" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="I14" s="6" t="n">
-        <v>64587</v>
-      </c>
-    </row>
-    <row r="15" ht="35" customHeight="1" s="5">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="B15" s="6" t="inlineStr">
-        <is>
-          <t>7&amp;bW#0ra</t>
-        </is>
-      </c>
-      <c r="C15" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>QDs$-0Uz</t>
-        </is>
-      </c>
-      <c r="E15" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="F15" s="6" t="inlineStr">
-        <is>
-          <t>&amp;UiZ49ga</t>
-        </is>
-      </c>
-      <c r="H15" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="I15" s="6" t="inlineStr">
-        <is>
-          <t>rQ9ICO-p</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="35" customHeight="1" s="5">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="B16" s="6" t="n">
-        <v>72</v>
-      </c>
-      <c r="C16" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>102</v>
-      </c>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="35" customHeight="1" s="5">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="n">
-        <v>35643</v>
-      </c>
-      <c r="C17" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>44107</v>
-      </c>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="n">
-        <v>58987</v>
-      </c>
-      <c r="H17" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>64730</v>
-      </c>
-    </row>
-    <row r="18" ht="35" customHeight="1" s="5">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>v?CjEhA8</t>
-        </is>
-      </c>
-      <c r="C18" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="D18" s="6" t="inlineStr">
-        <is>
-          <t>IoD#8X-g</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="F18" s="6" t="inlineStr">
-        <is>
-          <t>A7ujd%0R</t>
-        </is>
-      </c>
-      <c r="H18" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="I18" s="6" t="inlineStr">
-        <is>
-          <t>e5I%Kfv4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="35" customHeight="1" s="5">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="n">
-        <v>227</v>
-      </c>
-      <c r="C19" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="n">
-        <v>134</v>
-      </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>79</v>
-      </c>
-      <c r="H19" s="6" t="inlineStr">
-        <is>
-          <t>Квартира:</t>
-        </is>
-      </c>
-      <c r="I19" s="6" t="n">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="20" ht="35" customHeight="1" s="5">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="n">
-        <v>37274</v>
-      </c>
-      <c r="C20" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>46499</v>
-      </c>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="F20" s="6" t="n">
-        <v>59869</v>
-      </c>
-      <c r="H20" s="6" t="inlineStr">
-        <is>
-          <t>Логин:</t>
-        </is>
-      </c>
-      <c r="I20" s="6" t="n">
-        <v>65901</v>
-      </c>
-    </row>
-    <row r="21" ht="35" customHeight="1" s="5">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>hfB0n%uK</t>
-        </is>
-      </c>
-      <c r="C21" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>z##864P!</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>L#508li2</t>
-        </is>
-      </c>
-      <c r="H21" s="6" t="inlineStr">
-        <is>
-          <t>Пароль:</t>
-        </is>
-      </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>0Db?s9A4</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="35" customHeight="1" s="5">
-      <c r="C22" s="4" t="inlineStr"/>
-    </row>
-    <row r="23" ht="35" customHeight="1" s="5">
-      <c r="C23" s="4" t="inlineStr"/>
-    </row>
-    <row r="24" ht="35" customHeight="1" s="5">
-      <c r="C24" s="4" t="inlineStr"/>
-    </row>
-    <row r="25" ht="35" customHeight="1" s="5">
-      <c r="C25" s="4" t="inlineStr"/>
-    </row>
-    <row r="26" ht="35" customHeight="1" s="5">
-      <c r="C26" s="4" t="inlineStr"/>
-    </row>
-    <row r="27" ht="35" customHeight="1" s="5">
-      <c r="C27" s="4" t="inlineStr"/>
-    </row>
-    <row r="28" ht="35" customHeight="1" s="5">
-      <c r="C28" s="4" t="inlineStr"/>
-    </row>
-    <row r="29" ht="35" customHeight="1" s="5">
-      <c r="C29" s="4" t="inlineStr"/>
-    </row>
-    <row r="30" ht="35" customHeight="1" s="5">
-      <c r="C30" s="4" t="inlineStr"/>
-    </row>
-    <row r="31" ht="35" customHeight="1" s="5">
-      <c r="C31" s="4" t="inlineStr"/>
-    </row>
-    <row r="32" ht="35" customHeight="1" s="5"/>
-    <row r="33" ht="35" customHeight="1" s="5"/>
-    <row r="34" ht="35" customHeight="1" s="5"/>
-    <row r="35" ht="35" customHeight="1" s="5"/>
-    <row r="36" ht="35" customHeight="1" s="5"/>
-    <row r="37" ht="35" customHeight="1" s="5"/>
-    <row r="38" ht="35" customHeight="1" s="5"/>
-    <row r="39" ht="35" customHeight="1" s="5"/>
-    <row r="40" ht="35" customHeight="1" s="5"/>
-    <row r="41" ht="35" customHeight="1" s="5"/>
-    <row r="42" ht="35" customHeight="1" s="5"/>
-    <row r="43" ht="35" customHeight="1" s="5"/>
-    <row r="44" ht="35" customHeight="1" s="5"/>
-    <row r="45" ht="35" customHeight="1" s="5"/>
-    <row r="46" ht="35" customHeight="1" s="5"/>
-    <row r="47" ht="35" customHeight="1" s="5"/>
-    <row r="48" ht="35" customHeight="1" s="5"/>
-    <row r="49" ht="35" customHeight="1" s="5"/>
-    <row r="50" ht="35" customHeight="1" s="5"/>
-    <row r="51" ht="35" customHeight="1" s="5"/>
-    <row r="52" ht="35" customHeight="1" s="5"/>
-    <row r="53" ht="35" customHeight="1" s="5"/>
-    <row r="54" ht="35" customHeight="1" s="5"/>
-    <row r="55" ht="35" customHeight="1" s="5"/>
-    <row r="56" ht="35" customHeight="1" s="5"/>
-    <row r="57" ht="35" customHeight="1" s="5"/>
-    <row r="58" ht="35" customHeight="1" s="5"/>
-    <row r="59" ht="35" customHeight="1" s="5"/>
-    <row r="60" ht="35" customHeight="1" s="5"/>
-    <row r="61" ht="35" customHeight="1" s="5"/>
-    <row r="62" ht="35" customHeight="1" s="5"/>
-    <row r="63" ht="35" customHeight="1" s="5"/>
-    <row r="64" ht="35" customHeight="1" s="5"/>
-    <row r="65" ht="35" customHeight="1" s="5"/>
-    <row r="66" ht="35" customHeight="1" s="5"/>
-    <row r="67" ht="35" customHeight="1" s="5"/>
-    <row r="68" ht="35" customHeight="1" s="5"/>
-    <row r="69" ht="35" customHeight="1" s="5"/>
-    <row r="70" ht="35" customHeight="1" s="5"/>
-    <row r="71" ht="35" customHeight="1" s="5"/>
-    <row r="72" ht="35" customHeight="1" s="5"/>
-    <row r="73" ht="35" customHeight="1" s="5"/>
-    <row r="74" ht="35" customHeight="1" s="5"/>
-    <row r="75" ht="35" customHeight="1" s="5"/>
-    <row r="76" ht="35" customHeight="1" s="5"/>
-    <row r="77" ht="35" customHeight="1" s="5"/>
-    <row r="78" ht="35" customHeight="1" s="5"/>
-    <row r="79" ht="35" customHeight="1" s="5"/>
-    <row r="80" ht="35" customHeight="1" s="5"/>
-    <row r="81" ht="35" customHeight="1" s="5"/>
-    <row r="82" ht="35" customHeight="1" s="5"/>
-    <row r="83" ht="35" customHeight="1" s="5"/>
-    <row r="84" ht="35" customHeight="1" s="5"/>
-    <row r="85" ht="35" customHeight="1" s="5"/>
-    <row r="86" ht="35" customHeight="1" s="5"/>
-    <row r="87" ht="35" customHeight="1" s="5"/>
-    <row r="88" ht="35" customHeight="1" s="5"/>
-    <row r="89" ht="35" customHeight="1" s="5"/>
-    <row r="90" ht="35" customHeight="1" s="5"/>
-    <row r="91" ht="35" customHeight="1" s="5"/>
-    <row r="92" ht="35" customHeight="1" s="5"/>
-    <row r="93" ht="35" customHeight="1" s="5"/>
-    <row r="94" ht="87.75" customHeight="1" s="5"/>
-    <row r="95" ht="87.75" customHeight="1" s="5"/>
-    <row r="96" ht="87.75" customHeight="1" s="5"/>
-    <row r="97" ht="87.75" customHeight="1" s="5"/>
-    <row r="98" ht="87.75" customHeight="1" s="5"/>
-    <row r="99" ht="87.75" customHeight="1" s="5"/>
-    <row r="100" ht="87.75" customHeight="1" s="5"/>
-    <row r="101" ht="87.75" customHeight="1" s="5"/>
-    <row r="102" ht="87.75" customHeight="1" s="5"/>
-    <row r="103" ht="87.75" customHeight="1" s="5"/>
-    <row r="104" ht="87.75" customHeight="1" s="5"/>
-    <row r="105" ht="87.75" customHeight="1" s="5"/>
-    <row r="106" ht="87.75" customHeight="1" s="5">
-      <c r="A106" s="7" t="n"/>
-      <c r="B106" s="7" t="n"/>
-    </row>
-    <row r="107" ht="87.75" customHeight="1" s="5">
-      <c r="A107" s="7" t="n"/>
-      <c r="B107" s="7" t="n"/>
-    </row>
-    <row r="108" ht="87.75" customHeight="1" s="5">
-      <c r="A108" s="7" t="n"/>
-      <c r="B108" s="7" t="n"/>
-    </row>
-    <row r="109" ht="87.75" customHeight="1" s="5">
-      <c r="A109" s="7" t="n"/>
-      <c r="B109" s="7" t="n"/>
-    </row>
-    <row r="110" ht="87.75" customHeight="1" s="5">
-      <c r="A110" s="7" t="n"/>
-      <c r="B110" s="7" t="n"/>
-    </row>
-    <row r="111" ht="87.75" customHeight="1" s="5">
-      <c r="A111" s="7" t="n"/>
-      <c r="B111" s="7" t="n"/>
-    </row>
-    <row r="112" ht="87.75" customHeight="1" s="5">
-      <c r="A112" s="7" t="n"/>
-      <c r="B112" s="7" t="n"/>
-    </row>
-    <row r="113" ht="87.75" customHeight="1" s="5">
-      <c r="A113" s="7" t="n"/>
-      <c r="B113" s="7" t="n"/>
-    </row>
-    <row r="114" ht="87.75" customHeight="1" s="5">
-      <c r="A114" s="7" t="n"/>
-      <c r="B114" s="7" t="n"/>
-    </row>
-    <row r="115" ht="87.75" customHeight="1" s="5">
-      <c r="A115" s="7" t="n"/>
-      <c r="B115" s="7" t="n"/>
-    </row>
-    <row r="116" ht="87.75" customHeight="1" s="5">
-      <c r="A116" s="7" t="n"/>
-      <c r="B116" s="7" t="n"/>
-    </row>
-    <row r="117" ht="87.75" customHeight="1" s="5">
-      <c r="A117" s="7" t="n"/>
-      <c r="B117" s="7" t="n"/>
-    </row>
-    <row r="118" ht="87.75" customHeight="1" s="5">
-      <c r="A118" s="7" t="n"/>
-      <c r="B118" s="7" t="n"/>
-    </row>
-    <row r="119" ht="87.75" customHeight="1" s="5">
-      <c r="A119" s="7" t="n"/>
-      <c r="B119" s="7" t="n"/>
-    </row>
-    <row r="120" ht="87.75" customHeight="1" s="5">
-      <c r="A120" s="7" t="n"/>
-      <c r="B120" s="7" t="n"/>
-    </row>
-    <row r="121" ht="87.75" customHeight="1" s="5">
-      <c r="A121" s="7" t="n"/>
-      <c r="B121" s="7" t="n"/>
-    </row>
-    <row r="122" ht="87.75" customHeight="1" s="5">
-      <c r="A122" s="7" t="n"/>
-      <c r="B122" s="7" t="n"/>
-    </row>
-    <row r="123" ht="87.75" customHeight="1" s="5">
-      <c r="A123" s="7" t="n"/>
-      <c r="B123" s="7" t="n"/>
-    </row>
-    <row r="124" ht="87.75" customHeight="1" s="5">
-      <c r="A124" s="7" t="n"/>
-      <c r="B124" s="7" t="n"/>
-    </row>
-    <row r="125" ht="87.75" customHeight="1" s="5">
-      <c r="A125" s="7" t="n"/>
-      <c r="B125" s="7" t="n"/>
-    </row>
-    <row r="126" ht="87.75" customHeight="1" s="5">
-      <c r="A126" s="7" t="n"/>
-      <c r="B126" s="7" t="n"/>
-    </row>
-    <row r="127" ht="87.75" customHeight="1" s="5">
-      <c r="A127" s="7" t="n"/>
-      <c r="B127" s="7" t="n"/>
-    </row>
-    <row r="128" ht="87.75" customHeight="1" s="5">
-      <c r="A128" s="7" t="n"/>
-      <c r="B128" s="7" t="n"/>
-    </row>
-    <row r="129" ht="87.75" customHeight="1" s="5">
-      <c r="A129" s="7" t="n"/>
-      <c r="B129" s="7" t="n"/>
-    </row>
-    <row r="130" ht="87.75" customHeight="1" s="5">
-      <c r="A130" s="7" t="n"/>
-      <c r="B130" s="7" t="n"/>
-    </row>
-    <row r="131" ht="87.75" customHeight="1" s="5">
-      <c r="A131" s="7" t="n"/>
-      <c r="B131" s="7" t="n"/>
-    </row>
-    <row r="132" ht="87.75" customHeight="1" s="5">
-      <c r="A132" s="7" t="n"/>
-      <c r="B132" s="7" t="n"/>
-    </row>
-    <row r="133" ht="87.75" customHeight="1" s="5">
-      <c r="A133" s="7" t="n"/>
-      <c r="B133" s="7" t="n"/>
-    </row>
-    <row r="134" ht="87.75" customHeight="1" s="5">
-      <c r="A134" s="7" t="n"/>
-      <c r="B134" s="7" t="n"/>
-    </row>
-    <row r="135" ht="87.75" customHeight="1" s="5">
-      <c r="A135" s="7" t="n"/>
-      <c r="B135" s="7" t="n"/>
-    </row>
-    <row r="136" ht="87.75" customHeight="1" s="5">
-      <c r="A136" s="7" t="n"/>
-      <c r="B136" s="7" t="n"/>
-    </row>
-    <row r="137" ht="87.75" customHeight="1" s="5">
-      <c r="A137" s="7" t="n"/>
-      <c r="B137" s="7" t="n"/>
-    </row>
-    <row r="138" ht="87.75" customHeight="1" s="5">
-      <c r="A138" s="7" t="n"/>
-      <c r="B138" s="7" t="n"/>
-    </row>
-    <row r="139" ht="87.75" customHeight="1" s="5">
-      <c r="A139" s="7" t="n"/>
-      <c r="B139" s="7" t="n"/>
-    </row>
-    <row r="140" ht="87.75" customHeight="1" s="5">
-      <c r="A140" s="7" t="n"/>
-      <c r="B140" s="7" t="n"/>
-    </row>
-    <row r="141" ht="87.75" customHeight="1" s="5">
-      <c r="A141" s="7" t="n"/>
-      <c r="B141" s="7" t="n"/>
-    </row>
-    <row r="142" ht="87.75" customHeight="1" s="5">
-      <c r="A142" s="7" t="n"/>
-      <c r="B142" s="7" t="n"/>
-    </row>
-    <row r="143" ht="87.75" customHeight="1" s="5">
-      <c r="A143" s="7" t="n"/>
-      <c r="B143" s="7" t="n"/>
-    </row>
-    <row r="144" ht="87.75" customHeight="1" s="5">
-      <c r="A144" s="7" t="n"/>
-      <c r="B144" s="7" t="n"/>
-    </row>
-    <row r="145" ht="87.75" customHeight="1" s="5">
-      <c r="A145" s="7" t="n"/>
-      <c r="B145" s="7" t="n"/>
-    </row>
-    <row r="146" ht="87.75" customHeight="1" s="5">
-      <c r="A146" s="7" t="n"/>
-      <c r="B146" s="7" t="n"/>
-    </row>
-    <row r="147" ht="87.75" customHeight="1" s="5">
-      <c r="A147" s="7" t="n"/>
-      <c r="B147" s="7" t="n"/>
-    </row>
-    <row r="148" ht="87.75" customHeight="1" s="5">
-      <c r="A148" s="7" t="n"/>
-      <c r="B148" s="7" t="n"/>
-    </row>
-    <row r="149" ht="87.75" customHeight="1" s="5">
-      <c r="A149" s="7" t="n"/>
-      <c r="B149" s="7" t="n"/>
-    </row>
-    <row r="150" ht="87.75" customHeight="1" s="5">
-      <c r="A150" s="7" t="n"/>
-      <c r="B150" s="7" t="n"/>
-    </row>
-    <row r="151" ht="87.75" customHeight="1" s="5">
-      <c r="A151" s="7" t="n"/>
-      <c r="B151" s="7" t="n"/>
-    </row>
-    <row r="152" ht="87.75" customHeight="1" s="5">
-      <c r="A152" s="7" t="n"/>
-      <c r="B152" s="7" t="n"/>
-    </row>
-    <row r="153" ht="87.75" customHeight="1" s="5">
-      <c r="A153" s="7" t="n"/>
-      <c r="B153" s="7" t="n"/>
-    </row>
-    <row r="154" ht="87.75" customHeight="1" s="5">
-      <c r="A154" s="7" t="n"/>
-      <c r="B154" s="7" t="n"/>
-    </row>
-    <row r="155" ht="87.75" customHeight="1" s="5">
-      <c r="A155" s="7" t="n"/>
-      <c r="B155" s="7" t="n"/>
-    </row>
-    <row r="156" ht="87.75" customHeight="1" s="5">
-      <c r="A156" s="7" t="n"/>
-      <c r="B156" s="7" t="n"/>
-    </row>
-    <row r="157" ht="87.75" customHeight="1" s="5">
-      <c r="A157" s="7" t="n"/>
-      <c r="B157" s="7" t="n"/>
-    </row>
-    <row r="158" ht="87.75" customHeight="1" s="5">
-      <c r="A158" s="7" t="n"/>
-      <c r="B158" s="7" t="n"/>
-    </row>
-    <row r="159" ht="87.75" customHeight="1" s="5">
-      <c r="A159" s="7" t="n"/>
-      <c r="B159" s="7" t="n"/>
-    </row>
-    <row r="160" ht="87.75" customHeight="1" s="5">
-      <c r="A160" s="7" t="n"/>
-      <c r="B160" s="7" t="n"/>
-    </row>
-    <row r="161" ht="87.75" customHeight="1" s="5">
-      <c r="A161" s="7" t="n"/>
-      <c r="B161" s="7" t="n"/>
-    </row>
-    <row r="162" ht="87.75" customHeight="1" s="5">
-      <c r="A162" s="7" t="n"/>
-      <c r="B162" s="7" t="n"/>
-    </row>
-    <row r="163" ht="87.75" customHeight="1" s="5">
-      <c r="A163" s="7" t="n"/>
-      <c r="B163" s="7" t="n"/>
-    </row>
-    <row r="164" ht="87.75" customHeight="1" s="5">
-      <c r="A164" s="7" t="n"/>
-      <c r="B164" s="7" t="n"/>
-    </row>
-    <row r="165" ht="87.75" customHeight="1" s="5">
-      <c r="A165" s="7" t="n"/>
-      <c r="B165" s="7" t="n"/>
-    </row>
-    <row r="166" ht="87.75" customHeight="1" s="5">
-      <c r="A166" s="7" t="n"/>
-      <c r="B166" s="7" t="n"/>
-    </row>
-    <row r="167" ht="87.75" customHeight="1" s="5">
-      <c r="A167" s="7" t="n"/>
-      <c r="B167" s="7" t="n"/>
-    </row>
-    <row r="168" ht="87.75" customHeight="1" s="5">
-      <c r="A168" s="7" t="n"/>
-      <c r="B168" s="7" t="n"/>
-    </row>
-    <row r="169" ht="87.75" customHeight="1" s="5">
-      <c r="A169" s="7" t="n"/>
-      <c r="B169" s="7" t="n"/>
-    </row>
-    <row r="170" ht="87.75" customHeight="1" s="5">
-      <c r="A170" s="7" t="n"/>
-      <c r="B170" s="7" t="n"/>
-    </row>
-    <row r="171" ht="87.75" customHeight="1" s="5">
-      <c r="A171" s="7" t="n"/>
-      <c r="B171" s="7" t="n"/>
-    </row>
-    <row r="172" ht="87.75" customHeight="1" s="5">
-      <c r="A172" s="7" t="n"/>
-      <c r="B172" s="7" t="n"/>
-    </row>
-    <row r="173" ht="87.75" customHeight="1" s="5">
-      <c r="A173" s="7" t="n"/>
-      <c r="B173" s="7" t="n"/>
-    </row>
-    <row r="174" ht="87.75" customHeight="1" s="5">
-      <c r="A174" s="7" t="n"/>
-      <c r="B174" s="7" t="n"/>
-    </row>
-    <row r="175" ht="87.75" customHeight="1" s="5">
-      <c r="A175" s="7" t="n"/>
-      <c r="B175" s="7" t="n"/>
-    </row>
-    <row r="176" ht="87.75" customHeight="1" s="5">
-      <c r="A176" s="7" t="n"/>
-      <c r="B176" s="7" t="n"/>
-    </row>
-    <row r="177" ht="87.75" customHeight="1" s="5">
-      <c r="A177" s="7" t="n"/>
-      <c r="B177" s="7" t="n"/>
-    </row>
-    <row r="178" ht="87.75" customHeight="1" s="5">
-      <c r="A178" s="7" t="n"/>
-      <c r="B178" s="7" t="n"/>
-    </row>
-    <row r="179" ht="87.75" customHeight="1" s="5">
-      <c r="A179" s="7" t="n"/>
-      <c r="B179" s="7" t="n"/>
-    </row>
-    <row r="180" ht="87.75" customHeight="1" s="5">
-      <c r="A180" s="7" t="n"/>
-      <c r="B180" s="7" t="n"/>
-    </row>
-    <row r="181" ht="87.75" customHeight="1" s="5">
-      <c r="A181" s="7" t="n"/>
-      <c r="B181" s="7" t="n"/>
-    </row>
-    <row r="182" ht="87.75" customHeight="1" s="5">
-      <c r="A182" s="7" t="n"/>
-      <c r="B182" s="7" t="n"/>
-    </row>
-    <row r="183" ht="87.75" customHeight="1" s="5">
-      <c r="A183" s="7" t="n"/>
-      <c r="B183" s="7" t="n"/>
-    </row>
-    <row r="184" ht="87.75" customHeight="1" s="5">
-      <c r="A184" s="7" t="n"/>
-      <c r="B184" s="7" t="n"/>
-    </row>
-    <row r="185" ht="87.75" customHeight="1" s="5">
-      <c r="A185" s="7" t="n"/>
-      <c r="B185" s="7" t="n"/>
-    </row>
-    <row r="186" ht="87.75" customHeight="1" s="5">
-      <c r="A186" s="7" t="n"/>
-      <c r="B186" s="7" t="n"/>
-    </row>
-    <row r="187" ht="87.75" customHeight="1" s="5">
-      <c r="A187" s="7" t="n"/>
-      <c r="B187" s="7" t="n"/>
-    </row>
-    <row r="188" ht="87.75" customHeight="1" s="5">
-      <c r="A188" s="7" t="n"/>
-      <c r="B188" s="7" t="n"/>
-    </row>
-    <row r="189" ht="87.75" customHeight="1" s="5">
-      <c r="A189" s="7" t="n"/>
-      <c r="B189" s="7" t="n"/>
-    </row>
-    <row r="190" ht="87.75" customHeight="1" s="5">
-      <c r="A190" s="7" t="n"/>
-      <c r="B190" s="7" t="n"/>
-    </row>
-    <row r="191" ht="87.75" customHeight="1" s="5">
-      <c r="A191" s="7" t="n"/>
-      <c r="B191" s="7" t="n"/>
-    </row>
-    <row r="192" ht="87.75" customHeight="1" s="5">
-      <c r="A192" s="7" t="n"/>
-      <c r="B192" s="7" t="n"/>
-    </row>
-    <row r="193" ht="87.75" customHeight="1" s="5">
-      <c r="A193" s="7" t="n"/>
-      <c r="B193" s="7" t="n"/>
-    </row>
-    <row r="194" ht="87.75" customHeight="1" s="5">
-      <c r="A194" s="7" t="n"/>
-      <c r="B194" s="7" t="n"/>
-    </row>
-    <row r="195" ht="87.75" customHeight="1" s="5">
-      <c r="A195" s="7" t="n"/>
-      <c r="B195" s="7" t="n"/>
-    </row>
-    <row r="196" ht="87.75" customHeight="1" s="5">
-      <c r="A196" s="7" t="n"/>
-      <c r="B196" s="7" t="n"/>
-    </row>
-    <row r="197" ht="87.75" customHeight="1" s="5">
-      <c r="A197" s="7" t="n"/>
-      <c r="B197" s="7" t="n"/>
-    </row>
-    <row r="198" ht="87.75" customHeight="1" s="5">
-      <c r="A198" s="7" t="n"/>
-      <c r="B198" s="7" t="n"/>
-    </row>
-    <row r="199" ht="87.75" customHeight="1" s="5">
-      <c r="A199" s="7" t="n"/>
-      <c r="B199" s="7" t="n"/>
-    </row>
-    <row r="200" ht="87.75" customHeight="1" s="5">
-      <c r="A200" s="7" t="n"/>
-      <c r="B200" s="7" t="n"/>
-    </row>
-    <row r="201" ht="87.75" customHeight="1" s="5">
-      <c r="A201" s="7" t="n"/>
-      <c r="B201" s="7" t="n"/>
-    </row>
-    <row r="202" ht="87.75" customHeight="1" s="5">
-      <c r="A202" s="7" t="n"/>
-      <c r="B202" s="7" t="n"/>
-    </row>
-    <row r="203" ht="87.75" customHeight="1" s="5">
-      <c r="A203" s="7" t="n"/>
-      <c r="B203" s="7" t="n"/>
-    </row>
-    <row r="204" ht="87.75" customHeight="1" s="5">
-      <c r="A204" s="7" t="n"/>
-      <c r="B204" s="7" t="n"/>
-    </row>
-    <row r="205" ht="87.75" customHeight="1" s="5">
-      <c r="A205" s="7" t="n"/>
-      <c r="B205" s="7" t="n"/>
-    </row>
-    <row r="206" ht="87.75" customHeight="1" s="5">
-      <c r="A206" s="7" t="n"/>
-      <c r="B206" s="7" t="n"/>
-    </row>
-    <row r="207" ht="87.75" customHeight="1" s="5">
-      <c r="A207" s="7" t="n"/>
-      <c r="B207" s="7" t="n"/>
-    </row>
-    <row r="208" ht="87.75" customHeight="1" s="5">
-      <c r="A208" s="7" t="n"/>
-      <c r="B208" s="7" t="n"/>
-    </row>
-    <row r="209" ht="87.75" customHeight="1" s="5">
-      <c r="A209" s="7" t="n"/>
-      <c r="B209" s="7" t="n"/>
-    </row>
-    <row r="210" ht="87.75" customHeight="1" s="5">
-      <c r="A210" s="7" t="n"/>
-      <c r="B210" s="7" t="n"/>
-    </row>
-    <row r="211" ht="87.75" customHeight="1" s="5">
-      <c r="A211" s="7" t="n"/>
-      <c r="B211" s="7" t="n"/>
-    </row>
-    <row r="212" ht="87.75" customHeight="1" s="5">
-      <c r="A212" s="7" t="n"/>
-      <c r="B212" s="7" t="n"/>
-    </row>
-    <row r="213" ht="87.75" customHeight="1" s="5">
-      <c r="A213" s="7" t="n"/>
-      <c r="B213" s="7" t="n"/>
-    </row>
-    <row r="214" ht="87.75" customHeight="1" s="5">
-      <c r="A214" s="7" t="n"/>
-      <c r="B214" s="7" t="n"/>
-    </row>
-    <row r="215" ht="87.75" customHeight="1" s="5">
-      <c r="A215" s="7" t="n"/>
-      <c r="B215" s="7" t="n"/>
-    </row>
-    <row r="216" ht="87.75" customHeight="1" s="5">
-      <c r="A216" s="7" t="n"/>
-      <c r="B216" s="7" t="n"/>
-    </row>
-    <row r="217" ht="87.75" customHeight="1" s="5">
-      <c r="A217" s="7" t="n"/>
-      <c r="B217" s="7" t="n"/>
-    </row>
-    <row r="218" ht="87.75" customHeight="1" s="5">
-      <c r="A218" s="7" t="n"/>
-      <c r="B218" s="7" t="n"/>
-    </row>
-    <row r="219" ht="87.75" customHeight="1" s="5">
-      <c r="A219" s="7" t="n"/>
-      <c r="B219" s="7" t="n"/>
-    </row>
-    <row r="220" ht="87.75" customHeight="1" s="5">
-      <c r="A220" s="7" t="n"/>
-      <c r="B220" s="7" t="n"/>
-    </row>
-    <row r="221" ht="87.75" customHeight="1" s="5">
-      <c r="A221" s="7" t="n"/>
-      <c r="B221" s="7" t="n"/>
-    </row>
-    <row r="222" ht="87.75" customHeight="1" s="5">
-      <c r="A222" s="7" t="n"/>
-      <c r="B222" s="7" t="n"/>
-    </row>
-    <row r="223" ht="87.75" customHeight="1" s="5">
-      <c r="A223" s="7" t="n"/>
-      <c r="B223" s="7" t="n"/>
-    </row>
-    <row r="224" ht="87.75" customHeight="1" s="5">
-      <c r="A224" s="7" t="n"/>
-      <c r="B224" s="7" t="n"/>
-    </row>
-    <row r="225" ht="87.75" customHeight="1" s="5">
-      <c r="A225" s="7" t="n"/>
-      <c r="B225" s="7" t="n"/>
-    </row>
-    <row r="226" ht="87.75" customHeight="1" s="5">
-      <c r="A226" s="7" t="n"/>
-      <c r="B226" s="7" t="n"/>
-    </row>
-    <row r="227" ht="87.75" customHeight="1" s="5">
-      <c r="A227" s="7" t="n"/>
-      <c r="B227" s="7" t="n"/>
-    </row>
-    <row r="228" ht="87.75" customHeight="1" s="5">
-      <c r="A228" s="7" t="n"/>
-      <c r="B228" s="7" t="n"/>
-    </row>
-    <row r="229" ht="87.75" customHeight="1" s="5">
-      <c r="A229" s="7" t="n"/>
-      <c r="B229" s="7" t="n"/>
-    </row>
-    <row r="230" ht="87.75" customHeight="1" s="5">
-      <c r="A230" s="7" t="n"/>
-      <c r="B230" s="7" t="n"/>
-    </row>
-    <row r="231" ht="87.75" customHeight="1" s="5">
-      <c r="A231" s="7" t="n"/>
-      <c r="B231" s="7" t="n"/>
-    </row>
-    <row r="232" ht="87.75" customHeight="1" s="5">
-      <c r="A232" s="7" t="n"/>
-      <c r="B232" s="7" t="n"/>
-    </row>
-    <row r="233" ht="87.75" customHeight="1" s="5">
-      <c r="A233" s="7" t="n"/>
-      <c r="B233" s="7" t="n"/>
-    </row>
-    <row r="234" ht="87.75" customHeight="1" s="5">
-      <c r="A234" s="7" t="n"/>
-      <c r="B234" s="7" t="n"/>
-    </row>
-    <row r="235" ht="87.75" customHeight="1" s="5">
-      <c r="A235" s="7" t="n"/>
-      <c r="B235" s="7" t="n"/>
-    </row>
-    <row r="236" ht="87.75" customHeight="1" s="5">
-      <c r="A236" s="7" t="n"/>
-      <c r="B236" s="7" t="n"/>
-    </row>
-    <row r="237" ht="87.75" customHeight="1" s="5">
-      <c r="A237" s="7" t="n"/>
-      <c r="B237" s="7" t="n"/>
-    </row>
-    <row r="238" ht="87.75" customHeight="1" s="5">
-      <c r="A238" s="7" t="n"/>
-      <c r="B238" s="7" t="n"/>
-    </row>
-    <row r="239" ht="87.75" customHeight="1" s="5">
-      <c r="A239" s="7" t="n"/>
-      <c r="B239" s="7" t="n"/>
-    </row>
-    <row r="240" ht="87.75" customHeight="1" s="5">
-      <c r="A240" s="7" t="n"/>
-      <c r="B240" s="7" t="n"/>
-    </row>
-    <row r="241" ht="87.75" customHeight="1" s="5">
-      <c r="A241" s="7" t="n"/>
-      <c r="B241" s="7" t="n"/>
-    </row>
-    <row r="242" ht="87.75" customHeight="1" s="5">
-      <c r="A242" s="7" t="n"/>
-      <c r="B242" s="7" t="n"/>
-    </row>
-    <row r="243" ht="87.75" customHeight="1" s="5">
-      <c r="A243" s="7" t="n"/>
-      <c r="B243" s="7" t="n"/>
-    </row>
-    <row r="244" ht="87.75" customHeight="1" s="5">
-      <c r="A244" s="7" t="n"/>
-      <c r="B244" s="7" t="n"/>
-    </row>
-    <row r="245" ht="87.75" customHeight="1" s="5">
-      <c r="A245" s="7" t="n"/>
-      <c r="B245" s="7" t="n"/>
-    </row>
-    <row r="246" ht="87.75" customHeight="1" s="5">
-      <c r="A246" s="7" t="n"/>
-      <c r="B246" s="7" t="n"/>
-    </row>
-    <row r="247" ht="87.75" customHeight="1" s="5">
-      <c r="A247" s="7" t="n"/>
-      <c r="B247" s="7" t="n"/>
-    </row>
-    <row r="248" ht="87.75" customHeight="1" s="5">
-      <c r="A248" s="7" t="n"/>
-      <c r="B248" s="7" t="n"/>
-    </row>
-    <row r="249" ht="87.75" customHeight="1" s="5">
-      <c r="A249" s="7" t="n"/>
-      <c r="B249" s="7" t="n"/>
-    </row>
-    <row r="250" ht="87.75" customHeight="1" s="5">
-      <c r="A250" s="7" t="n"/>
-      <c r="B250" s="7" t="n"/>
-    </row>
-    <row r="251" ht="87.75" customHeight="1" s="5">
-      <c r="A251" s="7" t="n"/>
-      <c r="B251" s="7" t="n"/>
-    </row>
-    <row r="252" ht="87.75" customHeight="1" s="5">
-      <c r="A252" s="7" t="n"/>
-      <c r="B252" s="7" t="n"/>
-    </row>
-    <row r="253" ht="87.75" customHeight="1" s="5">
-      <c r="A253" s="7" t="n"/>
-      <c r="B253" s="7" t="n"/>
-    </row>
-    <row r="254" ht="87.75" customHeight="1" s="5">
-      <c r="A254" s="7" t="n"/>
-      <c r="B254" s="7" t="n"/>
-    </row>
-    <row r="255" ht="87.75" customHeight="1" s="5">
-      <c r="A255" s="7" t="n"/>
-      <c r="B255" s="7" t="n"/>
-    </row>
-    <row r="256" ht="87.75" customHeight="1" s="5">
-      <c r="A256" s="7" t="n"/>
-      <c r="B256" s="7" t="n"/>
-    </row>
-    <row r="257" ht="87.75" customHeight="1" s="5">
-      <c r="A257" s="7" t="n"/>
-      <c r="B257" s="7" t="n"/>
-    </row>
-    <row r="258" ht="87.75" customHeight="1" s="5">
-      <c r="A258" s="7" t="n"/>
-      <c r="B258" s="7" t="n"/>
-    </row>
-    <row r="259" ht="87.75" customHeight="1" s="5">
-      <c r="A259" s="7" t="n"/>
-      <c r="B259" s="7" t="n"/>
-    </row>
-    <row r="260" ht="87.75" customHeight="1" s="5">
-      <c r="A260" s="7" t="n"/>
-      <c r="B260" s="7" t="n"/>
-    </row>
-    <row r="261" ht="87.75" customHeight="1" s="5">
-      <c r="A261" s="7" t="n"/>
-      <c r="B261" s="7" t="n"/>
-    </row>
-    <row r="262" ht="87.75" customHeight="1" s="5">
-      <c r="A262" s="7" t="n"/>
-      <c r="B262" s="7" t="n"/>
-    </row>
-    <row r="263" ht="87.75" customHeight="1" s="5">
-      <c r="A263" s="7" t="n"/>
-      <c r="B263" s="7" t="n"/>
-    </row>
-    <row r="264" ht="87.75" customHeight="1" s="5">
-      <c r="A264" s="7" t="n"/>
-      <c r="B264" s="7" t="n"/>
-    </row>
-    <row r="265" ht="87.75" customHeight="1" s="5">
-      <c r="A265" s="7" t="n"/>
-      <c r="B265" s="7" t="n"/>
-    </row>
-    <row r="266" ht="87.75" customHeight="1" s="5">
-      <c r="A266" s="7" t="n"/>
-      <c r="B266" s="7" t="n"/>
-    </row>
-    <row r="267" ht="87.75" customHeight="1" s="5">
-      <c r="A267" s="7" t="n"/>
-      <c r="B267" s="7" t="n"/>
-    </row>
-    <row r="268" ht="87.75" customHeight="1" s="5">
-      <c r="A268" s="7" t="n"/>
-      <c r="B268" s="7" t="n"/>
-    </row>
-    <row r="269" ht="87.75" customHeight="1" s="5">
-      <c r="A269" s="7" t="n"/>
-      <c r="B269" s="7" t="n"/>
-    </row>
-    <row r="270" ht="87.75" customHeight="1" s="5">
-      <c r="A270" s="7" t="n"/>
-      <c r="B270" s="7" t="n"/>
-    </row>
-    <row r="271" ht="87.75" customHeight="1" s="5">
-      <c r="A271" s="7" t="n"/>
-      <c r="B271" s="7" t="n"/>
-    </row>
-    <row r="272" ht="87.75" customHeight="1" s="5">
-      <c r="A272" s="7" t="n"/>
-      <c r="B272" s="7" t="n"/>
-    </row>
-    <row r="273" ht="87.75" customHeight="1" s="5">
-      <c r="A273" s="7" t="n"/>
-      <c r="B273" s="7" t="n"/>
-    </row>
-    <row r="274" ht="87.75" customHeight="1" s="5">
-      <c r="A274" s="7" t="n"/>
-      <c r="B274" s="7" t="n"/>
-    </row>
-    <row r="275" ht="87.75" customHeight="1" s="5">
-      <c r="A275" s="7" t="n"/>
-      <c r="B275" s="7" t="n"/>
-    </row>
-    <row r="276" ht="87.75" customHeight="1" s="5">
-      <c r="A276" s="7" t="n"/>
-      <c r="B276" s="7" t="n"/>
-    </row>
-    <row r="277" ht="87.75" customHeight="1" s="5">
-      <c r="A277" s="7" t="n"/>
-      <c r="B277" s="7" t="n"/>
-    </row>
-    <row r="278" ht="87.75" customHeight="1" s="5">
-      <c r="A278" s="7" t="n"/>
-      <c r="B278" s="7" t="n"/>
-    </row>
-    <row r="279" ht="87.75" customHeight="1" s="5">
-      <c r="A279" s="7" t="n"/>
-      <c r="B279" s="7" t="n"/>
-    </row>
-    <row r="280" ht="87.75" customHeight="1" s="5">
-      <c r="A280" s="7" t="n"/>
-      <c r="B280" s="7" t="n"/>
-    </row>
-    <row r="281" ht="87.75" customHeight="1" s="5">
-      <c r="A281" s="7" t="n"/>
-      <c r="B281" s="7" t="n"/>
-    </row>
-    <row r="282" ht="87.75" customHeight="1" s="5">
-      <c r="A282" s="7" t="n"/>
-      <c r="B282" s="7" t="n"/>
-    </row>
-    <row r="283" ht="87.75" customHeight="1" s="5">
-      <c r="A283" s="7" t="n"/>
-      <c r="B283" s="7" t="n"/>
-    </row>
-    <row r="284" ht="87.75" customHeight="1" s="5">
-      <c r="A284" s="7" t="n"/>
-      <c r="B284" s="7" t="n"/>
-    </row>
-    <row r="285" ht="87.75" customHeight="1" s="5">
-      <c r="A285" s="7" t="n"/>
-      <c r="B285" s="7" t="n"/>
-    </row>
-    <row r="286" ht="87.75" customHeight="1" s="5">
-      <c r="A286" s="7" t="n"/>
-      <c r="B286" s="7" t="n"/>
-    </row>
-    <row r="287" ht="87.75" customHeight="1" s="5">
-      <c r="A287" s="7" t="n"/>
-      <c r="B287" s="7" t="n"/>
-    </row>
-    <row r="288" ht="87.75" customHeight="1" s="5">
-      <c r="A288" s="7" t="n"/>
-      <c r="B288" s="7" t="n"/>
-    </row>
-    <row r="289" ht="87.75" customHeight="1" s="5">
-      <c r="A289" s="7" t="n"/>
-      <c r="B289" s="7" t="n"/>
-    </row>
-    <row r="290" ht="87.75" customHeight="1" s="5">
-      <c r="A290" s="7" t="n"/>
-      <c r="B290" s="7" t="n"/>
-    </row>
-    <row r="291" ht="87.75" customHeight="1" s="5">
-      <c r="A291" s="7" t="n"/>
-      <c r="B291" s="7" t="n"/>
-    </row>
-    <row r="292" ht="87.75" customHeight="1" s="5">
-      <c r="A292" s="7" t="n"/>
-      <c r="B292" s="7" t="n"/>
-    </row>
-    <row r="293" ht="87.75" customHeight="1" s="5">
-      <c r="A293" s="7" t="n"/>
-      <c r="B293" s="7" t="n"/>
-    </row>
-    <row r="294" ht="87.75" customHeight="1" s="5">
-      <c r="A294" s="7" t="n"/>
-      <c r="B294" s="7" t="n"/>
-    </row>
-    <row r="295" ht="87.75" customHeight="1" s="5">
-      <c r="A295" s="7" t="n"/>
-      <c r="B295" s="7" t="n"/>
-    </row>
-    <row r="296" ht="87.75" customHeight="1" s="5">
-      <c r="A296" s="7" t="n"/>
-      <c r="B296" s="7" t="n"/>
-    </row>
-    <row r="297" ht="87.75" customHeight="1" s="5">
-      <c r="A297" s="7" t="n"/>
-      <c r="B297" s="7" t="n"/>
-    </row>
-    <row r="298" ht="87.75" customHeight="1" s="5">
-      <c r="A298" s="7" t="n"/>
-      <c r="B298" s="7" t="n"/>
-    </row>
-    <row r="299" ht="87.75" customHeight="1" s="5">
-      <c r="A299" s="7" t="n"/>
-      <c r="B299" s="7" t="n"/>
-    </row>
-    <row r="300" ht="87.75" customHeight="1" s="5">
-      <c r="A300" s="7" t="n"/>
-      <c r="B300" s="7" t="n"/>
-    </row>
-    <row r="301" ht="87.75" customHeight="1" s="5">
-      <c r="A301" s="7" t="n"/>
-      <c r="B301" s="7" t="n"/>
-    </row>
-    <row r="302" ht="87.75" customHeight="1" s="5">
-      <c r="A302" s="7" t="n"/>
-      <c r="B302" s="7" t="n"/>
-    </row>
-    <row r="303" ht="87.75" customHeight="1" s="5">
-      <c r="A303" s="7" t="n"/>
-      <c r="B303" s="7" t="n"/>
-    </row>
-    <row r="304" ht="87.75" customHeight="1" s="5">
-      <c r="A304" s="7" t="n"/>
-      <c r="B304" s="7" t="n"/>
-    </row>
-    <row r="305" ht="87.75" customHeight="1" s="5">
-      <c r="A305" s="7" t="n"/>
-      <c r="B305" s="7" t="n"/>
-    </row>
-    <row r="306" ht="87.75" customHeight="1" s="5">
-      <c r="A306" s="7" t="n"/>
-      <c r="B306" s="7" t="n"/>
-    </row>
-    <row r="307" ht="87.75" customHeight="1" s="5">
-      <c r="A307" s="7" t="n"/>
-      <c r="B307" s="7" t="n"/>
-    </row>
-    <row r="308" ht="87.75" customHeight="1" s="5">
-      <c r="A308" s="7" t="n"/>
-      <c r="B308" s="7" t="n"/>
-    </row>
-    <row r="309" ht="87.75" customHeight="1" s="5">
-      <c r="A309" s="7" t="n"/>
-      <c r="B309" s="7" t="n"/>
-    </row>
-    <row r="310" ht="87.75" customHeight="1" s="5">
-      <c r="A310" s="7" t="n"/>
-      <c r="B310" s="7" t="n"/>
-    </row>
-    <row r="311" ht="87.75" customHeight="1" s="5">
-      <c r="A311" s="7" t="n"/>
-      <c r="B311" s="7" t="n"/>
-    </row>
-    <row r="312" ht="87.75" customHeight="1" s="5">
-      <c r="A312" s="7" t="n"/>
-      <c r="B312" s="7" t="n"/>
-    </row>
-    <row r="313" ht="87.75" customHeight="1" s="5">
-      <c r="A313" s="7" t="n"/>
-      <c r="B313" s="7" t="n"/>
-    </row>
-    <row r="314" ht="87.75" customHeight="1" s="5">
-      <c r="A314" s="7" t="n"/>
-      <c r="B314" s="7" t="n"/>
-    </row>
-    <row r="315" ht="87.75" customHeight="1" s="5">
-      <c r="A315" s="7" t="n"/>
-      <c r="B315" s="7" t="n"/>
-    </row>
-    <row r="316" ht="87.75" customHeight="1" s="5">
-      <c r="A316" s="7" t="n"/>
-      <c r="B316" s="7" t="n"/>
-    </row>
-    <row r="317" ht="87.75" customHeight="1" s="5">
-      <c r="A317" s="7" t="n"/>
-      <c r="B317" s="7" t="n"/>
-    </row>
-    <row r="318" ht="87.75" customHeight="1" s="5">
-      <c r="A318" s="7" t="n"/>
-      <c r="B318" s="7" t="n"/>
-    </row>
-    <row r="319" ht="87.75" customHeight="1" s="5">
-      <c r="A319" s="7" t="n"/>
-      <c r="B319" s="7" t="n"/>
-    </row>
-    <row r="320" ht="87.75" customHeight="1" s="5">
-      <c r="A320" s="7" t="n"/>
-      <c r="B320" s="7" t="n"/>
-    </row>
-    <row r="321" ht="87.75" customHeight="1" s="5">
-      <c r="A321" s="7" t="n"/>
-      <c r="B321" s="7" t="n"/>
-    </row>
-    <row r="322" ht="87.75" customHeight="1" s="5">
-      <c r="A322" s="7" t="n"/>
-      <c r="B322" s="7" t="n"/>
-    </row>
-    <row r="323" ht="87.75" customHeight="1" s="5">
-      <c r="A323" s="7" t="n"/>
-      <c r="B323" s="7" t="n"/>
-    </row>
-    <row r="324" ht="87.75" customHeight="1" s="5">
-      <c r="A324" s="7" t="n"/>
-      <c r="B324" s="7" t="n"/>
-    </row>
-    <row r="325" ht="87.75" customHeight="1" s="5">
-      <c r="A325" s="7" t="n"/>
-      <c r="B325" s="7" t="n"/>
-    </row>
-    <row r="326" ht="87.75" customHeight="1" s="5">
-      <c r="A326" s="7" t="n"/>
-      <c r="B326" s="7" t="n"/>
-    </row>
-    <row r="327" ht="87.75" customHeight="1" s="5">
-      <c r="A327" s="7" t="n"/>
-      <c r="B327" s="7" t="n"/>
-    </row>
-    <row r="328" ht="87.75" customHeight="1" s="5">
-      <c r="A328" s="7" t="n"/>
-      <c r="B328" s="7" t="n"/>
-    </row>
-    <row r="329" ht="87.75" customHeight="1" s="5">
-      <c r="A329" s="7" t="n"/>
-      <c r="B329" s="7" t="n"/>
-    </row>
-    <row r="330" ht="87.75" customHeight="1" s="5">
-      <c r="A330" s="7" t="n"/>
-      <c r="B330" s="7" t="n"/>
-    </row>
-    <row r="331" ht="87.75" customHeight="1" s="5">
-      <c r="A331" s="7" t="n"/>
-      <c r="B331" s="7" t="n"/>
-    </row>
-    <row r="332" ht="87.75" customHeight="1" s="5">
-      <c r="A332" s="7" t="n"/>
-      <c r="B332" s="7" t="n"/>
-    </row>
-    <row r="333" ht="87.75" customHeight="1" s="5">
-      <c r="A333" s="7" t="n"/>
-      <c r="B333" s="7" t="n"/>
-    </row>
-    <row r="334" ht="87.75" customHeight="1" s="5">
-      <c r="A334" s="7" t="n"/>
-      <c r="B334" s="7" t="n"/>
-    </row>
-    <row r="335" ht="87.75" customHeight="1" s="5">
-      <c r="A335" s="7" t="n"/>
-      <c r="B335" s="7" t="n"/>
-    </row>
-    <row r="336" ht="87.75" customHeight="1" s="5">
-      <c r="A336" s="7" t="n"/>
-      <c r="B336" s="7" t="n"/>
-    </row>
-    <row r="337" ht="87.75" customHeight="1" s="5">
-      <c r="A337" s="7" t="n"/>
-      <c r="B337" s="7" t="n"/>
-    </row>
-    <row r="338" ht="87.75" customHeight="1" s="5">
-      <c r="A338" s="7" t="n"/>
-      <c r="B338" s="7" t="n"/>
-    </row>
-    <row r="339" ht="87.75" customHeight="1" s="5">
-      <c r="A339" s="7" t="n"/>
-      <c r="B339" s="7" t="n"/>
-    </row>
-    <row r="340" ht="87.75" customHeight="1" s="5">
-      <c r="A340" s="7" t="n"/>
-      <c r="B340" s="7" t="n"/>
-    </row>
-    <row r="341" ht="87.75" customHeight="1" s="5">
-      <c r="A341" s="7" t="n"/>
-      <c r="B341" s="7" t="n"/>
-    </row>
-    <row r="342" ht="87.75" customHeight="1" s="5">
-      <c r="A342" s="7" t="n"/>
-      <c r="B342" s="7" t="n"/>
-    </row>
-    <row r="343" ht="87.75" customHeight="1" s="5">
-      <c r="A343" s="7" t="n"/>
-      <c r="B343" s="7" t="n"/>
-    </row>
-    <row r="344" ht="87.75" customHeight="1" s="5">
-      <c r="A344" s="7" t="n"/>
-      <c r="B344" s="7" t="n"/>
-    </row>
-    <row r="345" ht="87.75" customHeight="1" s="5">
-      <c r="A345" s="7" t="n"/>
-      <c r="B345" s="7" t="n"/>
-    </row>
-    <row r="346" ht="87.75" customHeight="1" s="5">
-      <c r="A346" s="7" t="n"/>
-      <c r="B346" s="7" t="n"/>
-    </row>
-    <row r="347" ht="87.75" customHeight="1" s="5">
-      <c r="A347" s="7" t="n"/>
-      <c r="B347" s="7" t="n"/>
-    </row>
-    <row r="348" ht="87.75" customHeight="1" s="5">
-      <c r="A348" s="7" t="n"/>
-      <c r="B348" s="7" t="n"/>
-    </row>
-    <row r="349" ht="87.75" customHeight="1" s="5">
-      <c r="A349" s="7" t="n"/>
-      <c r="B349" s="7" t="n"/>
-    </row>
-    <row r="350" ht="87.75" customHeight="1" s="5">
-      <c r="A350" s="7" t="n"/>
-      <c r="B350" s="7" t="n"/>
-    </row>
-    <row r="351" ht="87.75" customHeight="1" s="5">
-      <c r="A351" s="7" t="n"/>
-      <c r="B351" s="7" t="n"/>
-    </row>
-    <row r="352" ht="87.75" customHeight="1" s="5">
-      <c r="A352" s="7" t="n"/>
-      <c r="B352" s="7" t="n"/>
-    </row>
-    <row r="353" ht="87.75" customHeight="1" s="5">
-      <c r="A353" s="7" t="n"/>
-      <c r="B353" s="7" t="n"/>
-    </row>
-    <row r="354" ht="87.75" customHeight="1" s="5">
-      <c r="A354" s="7" t="n"/>
-      <c r="B354" s="7" t="n"/>
-    </row>
-    <row r="355" ht="87.75" customHeight="1" s="5">
-      <c r="A355" s="7" t="n"/>
-      <c r="B355" s="7" t="n"/>
-    </row>
-    <row r="356" ht="87.75" customHeight="1" s="5">
-      <c r="A356" s="7" t="n"/>
-      <c r="B356" s="7" t="n"/>
-    </row>
-    <row r="357" ht="87.75" customHeight="1" s="5">
-      <c r="A357" s="7" t="n"/>
-      <c r="B357" s="7" t="n"/>
-    </row>
-    <row r="358" ht="87.75" customHeight="1" s="5">
-      <c r="A358" s="7" t="n"/>
-      <c r="B358" s="7" t="n"/>
-    </row>
-    <row r="359" ht="87.75" customHeight="1" s="5">
-      <c r="A359" s="7" t="n"/>
-      <c r="B359" s="7" t="n"/>
-    </row>
-    <row r="360" ht="87.75" customHeight="1" s="5">
-      <c r="A360" s="7" t="n"/>
-      <c r="B360" s="7" t="n"/>
-    </row>
-    <row r="361" ht="87.75" customHeight="1" s="5">
-      <c r="A361" s="7" t="n"/>
-      <c r="B361" s="7" t="n"/>
-    </row>
-    <row r="362" ht="87.75" customHeight="1" s="5">
-      <c r="A362" s="7" t="n"/>
-      <c r="B362" s="7" t="n"/>
-    </row>
-    <row r="363" ht="87.75" customHeight="1" s="5">
-      <c r="A363" s="7" t="n"/>
-      <c r="B363" s="7" t="n"/>
-    </row>
-    <row r="364" ht="87.75" customHeight="1" s="5">
-      <c r="A364" s="7" t="n"/>
-      <c r="B364" s="7" t="n"/>
-    </row>
-    <row r="365" ht="87.75" customHeight="1" s="5">
-      <c r="A365" s="7" t="n"/>
-      <c r="B365" s="7" t="n"/>
-    </row>
-    <row r="366" ht="87.75" customHeight="1" s="5">
-      <c r="A366" s="7" t="n"/>
-      <c r="B366" s="7" t="n"/>
-    </row>
-    <row r="367" ht="87.75" customHeight="1" s="5">
-      <c r="A367" s="7" t="n"/>
-      <c r="B367" s="7" t="n"/>
-    </row>
-    <row r="368" ht="87.75" customHeight="1" s="5">
-      <c r="A368" s="7" t="n"/>
-      <c r="B368" s="7" t="n"/>
-    </row>
-    <row r="369" ht="87.75" customHeight="1" s="5">
-      <c r="A369" s="7" t="n"/>
-      <c r="B369" s="7" t="n"/>
-    </row>
-    <row r="370" ht="87.75" customHeight="1" s="5">
-      <c r="A370" s="7" t="n"/>
-      <c r="B370" s="7" t="n"/>
-    </row>
-    <row r="371" ht="87.75" customHeight="1" s="5">
-      <c r="A371" s="7" t="n"/>
-      <c r="B371" s="7" t="n"/>
-    </row>
-    <row r="372" ht="87.75" customHeight="1" s="5">
-      <c r="A372" s="7" t="n"/>
-      <c r="B372" s="7" t="n"/>
-    </row>
-    <row r="373" ht="87.75" customHeight="1" s="5">
-      <c r="A373" s="7" t="n"/>
-      <c r="B373" s="7" t="n"/>
-    </row>
-    <row r="374" ht="87.75" customHeight="1" s="5">
-      <c r="A374" s="7" t="n"/>
-      <c r="B374" s="7" t="n"/>
-    </row>
-    <row r="375" ht="87.75" customHeight="1" s="5">
-      <c r="A375" s="7" t="n"/>
-      <c r="B375" s="7" t="n"/>
-    </row>
-    <row r="376" ht="87.75" customHeight="1" s="5">
-      <c r="A376" s="7" t="n"/>
-      <c r="B376" s="7" t="n"/>
-    </row>
-    <row r="377" ht="87.75" customHeight="1" s="5">
-      <c r="A377" s="7" t="n"/>
-      <c r="B377" s="7" t="n"/>
-    </row>
-    <row r="378" ht="87.75" customHeight="1" s="5">
-      <c r="A378" s="7" t="n"/>
-      <c r="B378" s="7" t="n"/>
-    </row>
-    <row r="379" ht="87.75" customHeight="1" s="5">
-      <c r="A379" s="7" t="n"/>
-      <c r="B379" s="7" t="n"/>
-    </row>
-    <row r="380" ht="87.75" customHeight="1" s="5">
-      <c r="A380" s="7" t="n"/>
-      <c r="B380" s="7" t="n"/>
-    </row>
-    <row r="381" ht="87.75" customHeight="1" s="5">
-      <c r="A381" s="7" t="n"/>
-      <c r="B381" s="7" t="n"/>
-    </row>
-    <row r="382" ht="87.75" customHeight="1" s="5">
-      <c r="A382" s="7" t="n"/>
-      <c r="B382" s="7" t="n"/>
-    </row>
-    <row r="383" ht="87.75" customHeight="1" s="5">
-      <c r="A383" s="7" t="n"/>
-      <c r="B383" s="7" t="n"/>
-    </row>
-    <row r="384" ht="87.75" customHeight="1" s="5">
-      <c r="A384" s="7" t="n"/>
-      <c r="B384" s="7" t="n"/>
-    </row>
-    <row r="385" ht="87.75" customHeight="1" s="5">
-      <c r="A385" s="7" t="n"/>
-      <c r="B385" s="7" t="n"/>
-    </row>
-    <row r="386" ht="87.75" customHeight="1" s="5">
-      <c r="A386" s="7" t="n"/>
-      <c r="B386" s="7" t="n"/>
-    </row>
-    <row r="387" ht="87.75" customHeight="1" s="5">
-      <c r="A387" s="7" t="n"/>
-      <c r="B387" s="7" t="n"/>
-    </row>
-    <row r="388" ht="87.75" customHeight="1" s="5">
-      <c r="A388" s="7" t="n"/>
-      <c r="B388" s="7" t="n"/>
-    </row>
-    <row r="389" ht="87.75" customHeight="1" s="5">
-      <c r="A389" s="7" t="n"/>
-      <c r="B389" s="7" t="n"/>
-    </row>
-    <row r="390" ht="87.75" customHeight="1" s="5">
-      <c r="A390" s="7" t="n"/>
-      <c r="B390" s="7" t="n"/>
-    </row>
-    <row r="391" ht="87.75" customHeight="1" s="5">
-      <c r="A391" s="7" t="n"/>
-      <c r="B391" s="7" t="n"/>
-    </row>
-    <row r="392" ht="87.75" customHeight="1" s="5">
-      <c r="A392" s="7" t="n"/>
-      <c r="B392" s="7" t="n"/>
-    </row>
-    <row r="393" ht="87.75" customHeight="1" s="5">
-      <c r="A393" s="7" t="n"/>
-      <c r="B393" s="7" t="n"/>
-    </row>
-    <row r="394" ht="87.75" customHeight="1" s="5">
-      <c r="A394" s="7" t="n"/>
-      <c r="B394" s="7" t="n"/>
-    </row>
-    <row r="395" ht="87.75" customHeight="1" s="5">
-      <c r="A395" s="7" t="n"/>
-      <c r="B395" s="7" t="n"/>
-    </row>
-    <row r="396" ht="87.75" customHeight="1" s="5">
-      <c r="A396" s="7" t="n"/>
-      <c r="B396" s="7" t="n"/>
-    </row>
-    <row r="397" ht="87.75" customHeight="1" s="5">
-      <c r="A397" s="7" t="n"/>
-      <c r="B397" s="7" t="n"/>
-    </row>
-    <row r="398" ht="87.75" customHeight="1" s="5">
-      <c r="A398" s="7" t="n"/>
-      <c r="B398" s="7" t="n"/>
-    </row>
-    <row r="399" ht="87.75" customHeight="1" s="5">
-      <c r="A399" s="7" t="n"/>
-      <c r="B399" s="7" t="n"/>
-    </row>
-    <row r="400" ht="87.75" customHeight="1" s="5">
-      <c r="A400" s="7" t="n"/>
-      <c r="B400" s="7" t="n"/>
-    </row>
-    <row r="401" ht="87.75" customHeight="1" s="5">
-      <c r="A401" s="7" t="n"/>
-      <c r="B401" s="7" t="n"/>
-    </row>
-    <row r="402" ht="87.75" customHeight="1" s="5">
-      <c r="A402" s="7" t="n"/>
-      <c r="B402" s="7" t="n"/>
-    </row>
-    <row r="403" ht="87.75" customHeight="1" s="5">
-      <c r="A403" s="7" t="n"/>
-      <c r="B403" s="7" t="n"/>
-    </row>
-    <row r="404" ht="87.75" customHeight="1" s="5">
-      <c r="A404" s="7" t="n"/>
-      <c r="B404" s="7" t="n"/>
-    </row>
-    <row r="405" ht="87.75" customHeight="1" s="5">
-      <c r="A405" s="7" t="n"/>
-      <c r="B405" s="7" t="n"/>
-    </row>
-    <row r="406" ht="87.75" customHeight="1" s="5">
-      <c r="A406" s="7" t="n"/>
-      <c r="B406" s="7" t="n"/>
-    </row>
-    <row r="407" ht="87.75" customHeight="1" s="5">
-      <c r="A407" s="7" t="n"/>
-      <c r="B407" s="7" t="n"/>
-    </row>
-    <row r="408" ht="87.75" customHeight="1" s="5">
-      <c r="A408" s="7" t="n"/>
-      <c r="B408" s="7" t="n"/>
-    </row>
-    <row r="409" ht="87.75" customHeight="1" s="5">
-      <c r="A409" s="7" t="n"/>
-      <c r="B409" s="7" t="n"/>
-    </row>
-    <row r="410" ht="87.75" customHeight="1" s="5">
-      <c r="A410" s="7" t="n"/>
-      <c r="B410" s="7" t="n"/>
-    </row>
-    <row r="411" ht="87.75" customHeight="1" s="5">
-      <c r="A411" s="7" t="n"/>
-      <c r="B411" s="7" t="n"/>
-    </row>
-    <row r="412" ht="87.75" customHeight="1" s="5">
-      <c r="A412" s="7" t="n"/>
-      <c r="B412" s="7" t="n"/>
-    </row>
-    <row r="413" ht="87.75" customHeight="1" s="5">
-      <c r="A413" s="7" t="n"/>
-      <c r="B413" s="7" t="n"/>
-    </row>
-    <row r="414" ht="87.75" customHeight="1" s="5">
-      <c r="A414" s="7" t="n"/>
-      <c r="B414" s="7" t="n"/>
-    </row>
-    <row r="415" ht="87.75" customHeight="1" s="5">
-      <c r="A415" s="7" t="n"/>
-      <c r="B415" s="7" t="n"/>
-    </row>
-    <row r="416" ht="87.75" customHeight="1" s="5">
-      <c r="A416" s="7" t="n"/>
-      <c r="B416" s="7" t="n"/>
-    </row>
-    <row r="417" ht="87.75" customHeight="1" s="5">
-      <c r="A417" s="7" t="n"/>
-      <c r="B417" s="7" t="n"/>
-    </row>
-    <row r="418" ht="87.75" customHeight="1" s="5">
-      <c r="A418" s="7" t="n"/>
-      <c r="B418" s="7" t="n"/>
-    </row>
-    <row r="419" ht="87.75" customHeight="1" s="5">
-      <c r="A419" s="7" t="n"/>
-      <c r="B419" s="7" t="n"/>
-    </row>
-    <row r="420" ht="87.75" customHeight="1" s="5">
-      <c r="A420" s="7" t="n"/>
-      <c r="B420" s="7" t="n"/>
-    </row>
-    <row r="421" ht="87.75" customHeight="1" s="5">
-      <c r="A421" s="7" t="n"/>
-      <c r="B421" s="7" t="n"/>
-    </row>
-    <row r="422" ht="87.75" customHeight="1" s="5">
-      <c r="A422" s="7" t="n"/>
-      <c r="B422" s="7" t="n"/>
-    </row>
-    <row r="423" ht="87.75" customHeight="1" s="5">
-      <c r="A423" s="7" t="n"/>
-      <c r="B423" s="7" t="n"/>
-    </row>
-    <row r="424" ht="87.75" customHeight="1" s="5">
-      <c r="A424" s="7" t="n"/>
-      <c r="B424" s="7" t="n"/>
-    </row>
-    <row r="425" ht="87.75" customHeight="1" s="5">
-      <c r="A425" s="7" t="n"/>
-      <c r="B425" s="7" t="n"/>
-    </row>
-    <row r="426" ht="87.75" customHeight="1" s="5">
-      <c r="A426" s="7" t="n"/>
-      <c r="B426" s="7" t="n"/>
-    </row>
-    <row r="427" ht="87.75" customHeight="1" s="5">
-      <c r="A427" s="7" t="n"/>
-      <c r="B427" s="7" t="n"/>
-    </row>
-    <row r="428" ht="87.75" customHeight="1" s="5">
-      <c r="A428" s="7" t="n"/>
-      <c r="B428" s="7" t="n"/>
-    </row>
-    <row r="429" ht="87.75" customHeight="1" s="5">
-      <c r="A429" s="7" t="n"/>
-      <c r="B429" s="7" t="n"/>
-    </row>
-    <row r="430" ht="87.75" customHeight="1" s="5">
-      <c r="A430" s="7" t="n"/>
-      <c r="B430" s="7" t="n"/>
-    </row>
-    <row r="431" ht="87.75" customHeight="1" s="5">
-      <c r="A431" s="7" t="n"/>
-      <c r="B431" s="7" t="n"/>
-    </row>
-    <row r="432" ht="87.75" customHeight="1" s="5">
-      <c r="A432" s="7" t="n"/>
-      <c r="B432" s="7" t="n"/>
-    </row>
-    <row r="433" ht="87.75" customHeight="1" s="5">
-      <c r="A433" s="7" t="n"/>
-      <c r="B433" s="7" t="n"/>
-    </row>
-    <row r="434" ht="87.75" customHeight="1" s="5">
-      <c r="A434" s="7" t="n"/>
-      <c r="B434" s="7" t="n"/>
-    </row>
-    <row r="435" ht="87.75" customHeight="1" s="5">
-      <c r="A435" s="7" t="n"/>
-      <c r="B435" s="7" t="n"/>
-    </row>
-    <row r="436" ht="87.75" customHeight="1" s="5">
-      <c r="A436" s="7" t="n"/>
-      <c r="B436" s="7" t="n"/>
-    </row>
-    <row r="437" ht="87.75" customHeight="1" s="5">
-      <c r="A437" s="7" t="n"/>
-      <c r="B437" s="7" t="n"/>
-    </row>
-    <row r="438" ht="87.75" customHeight="1" s="5">
-      <c r="A438" s="7" t="n"/>
-      <c r="B438" s="7" t="n"/>
-    </row>
-    <row r="439" ht="87.75" customHeight="1" s="5">
-      <c r="A439" s="7" t="n"/>
-      <c r="B439" s="7" t="n"/>
-    </row>
-    <row r="440" ht="87.75" customHeight="1" s="5">
-      <c r="A440" s="7" t="n"/>
-      <c r="B440" s="7" t="n"/>
-    </row>
-    <row r="441" ht="87.75" customHeight="1" s="5">
-      <c r="A441" s="7" t="n"/>
-      <c r="B441" s="7" t="n"/>
-    </row>
-    <row r="442" ht="87.75" customHeight="1" s="5">
-      <c r="A442" s="7" t="n"/>
-      <c r="B442" s="7" t="n"/>
-    </row>
-    <row r="443" ht="87.75" customHeight="1" s="5">
-      <c r="A443" s="7" t="n"/>
-      <c r="B443" s="7" t="n"/>
-    </row>
-    <row r="444" ht="87.75" customHeight="1" s="5">
-      <c r="A444" s="7" t="n"/>
-      <c r="B444" s="7" t="n"/>
-    </row>
-    <row r="445" ht="87.75" customHeight="1" s="5">
-      <c r="A445" s="7" t="n"/>
-      <c r="B445" s="7" t="n"/>
-    </row>
-    <row r="446" ht="87.75" customHeight="1" s="5">
-      <c r="A446" s="7" t="n"/>
-      <c r="B446" s="7" t="n"/>
-    </row>
-    <row r="447" ht="87.75" customHeight="1" s="5">
-      <c r="A447" s="7" t="n"/>
-      <c r="B447" s="7" t="n"/>
-    </row>
-    <row r="448" ht="87.75" customHeight="1" s="5">
-      <c r="A448" s="7" t="n"/>
-      <c r="B448" s="7" t="n"/>
-    </row>
-    <row r="449" ht="87.75" customHeight="1" s="5">
-      <c r="A449" s="7" t="n"/>
-      <c r="B449" s="7" t="n"/>
-    </row>
-    <row r="450" ht="87.75" customHeight="1" s="5">
-      <c r="A450" s="7" t="n"/>
-      <c r="B450" s="7" t="n"/>
-    </row>
-    <row r="451" ht="87.75" customHeight="1" s="5">
-      <c r="A451" s="7" t="n"/>
-      <c r="B451" s="7" t="n"/>
-    </row>
-    <row r="452" ht="87.75" customHeight="1" s="5">
-      <c r="A452" s="7" t="n"/>
-      <c r="B452" s="7" t="n"/>
-    </row>
-    <row r="453" ht="87.75" customHeight="1" s="5">
-      <c r="A453" s="7" t="n"/>
-      <c r="B453" s="7" t="n"/>
-    </row>
-    <row r="454" ht="87.75" customHeight="1" s="5">
-      <c r="A454" s="7" t="n"/>
-      <c r="B454" s="7" t="n"/>
-    </row>
-    <row r="455" ht="87.75" customHeight="1" s="5">
-      <c r="A455" s="7" t="n"/>
-      <c r="B455" s="7" t="n"/>
-    </row>
-    <row r="456" ht="87.75" customHeight="1" s="5">
-      <c r="A456" s="7" t="n"/>
-      <c r="B456" s="7" t="n"/>
-    </row>
-    <row r="457" ht="87.75" customHeight="1" s="5">
-      <c r="A457" s="7" t="n"/>
-      <c r="B457" s="7" t="n"/>
-    </row>
-    <row r="458" ht="87.75" customHeight="1" s="5">
-      <c r="A458" s="7" t="n"/>
-      <c r="B458" s="7" t="n"/>
-    </row>
-    <row r="459" ht="87.75" customHeight="1" s="5">
-      <c r="A459" s="7" t="n"/>
-      <c r="B459" s="7" t="n"/>
-    </row>
-    <row r="460" ht="87.75" customHeight="1" s="5">
-      <c r="A460" s="7" t="n"/>
-      <c r="B460" s="7" t="n"/>
-    </row>
-    <row r="461" ht="87.75" customHeight="1" s="5">
-      <c r="A461" s="7" t="n"/>
-      <c r="B461" s="7" t="n"/>
-    </row>
-    <row r="462" ht="87.75" customHeight="1" s="5">
-      <c r="A462" s="7" t="n"/>
-      <c r="B462" s="7" t="n"/>
-    </row>
-    <row r="463" ht="87.75" customHeight="1" s="5">
-      <c r="A463" s="7" t="n"/>
-      <c r="B463" s="7" t="n"/>
-    </row>
-    <row r="464" ht="87.75" customHeight="1" s="5">
-      <c r="A464" s="7" t="n"/>
-      <c r="B464" s="7" t="n"/>
-    </row>
-    <row r="465" ht="87.75" customHeight="1" s="5">
-      <c r="A465" s="7" t="n"/>
-      <c r="B465" s="7" t="n"/>
-    </row>
-    <row r="466" ht="87.75" customHeight="1" s="5">
-      <c r="A466" s="7" t="n"/>
-      <c r="B466" s="7" t="n"/>
-    </row>
-    <row r="467" ht="87.75" customHeight="1" s="5">
-      <c r="A467" s="7" t="n"/>
-      <c r="B467" s="7" t="n"/>
-    </row>
-    <row r="468" ht="87.75" customHeight="1" s="5">
-      <c r="A468" s="7" t="n"/>
-      <c r="B468" s="7" t="n"/>
-    </row>
-    <row r="469" ht="87.75" customHeight="1" s="5">
-      <c r="A469" s="7" t="n"/>
-      <c r="B469" s="7" t="n"/>
-    </row>
-    <row r="470" ht="87.75" customHeight="1" s="5">
-      <c r="A470" s="7" t="n"/>
-      <c r="B470" s="7" t="n"/>
-    </row>
-    <row r="471" ht="87.75" customHeight="1" s="5">
-      <c r="A471" s="7" t="n"/>
-      <c r="B471" s="7" t="n"/>
-    </row>
-    <row r="472" ht="87.75" customHeight="1" s="5">
-      <c r="A472" s="7" t="n"/>
-      <c r="B472" s="7" t="n"/>
-    </row>
-    <row r="473" ht="87.75" customHeight="1" s="5">
-      <c r="A473" s="7" t="n"/>
-      <c r="B473" s="7" t="n"/>
-    </row>
-    <row r="474" ht="87.75" customHeight="1" s="5">
-      <c r="A474" s="7" t="n"/>
-      <c r="B474" s="7" t="n"/>
-    </row>
-    <row r="475" ht="87.75" customHeight="1" s="5">
-      <c r="A475" s="7" t="n"/>
-      <c r="B475" s="7" t="n"/>
-    </row>
-    <row r="476" ht="87.75" customHeight="1" s="5">
-      <c r="A476" s="7" t="n"/>
-      <c r="B476" s="7" t="n"/>
-    </row>
-    <row r="477" ht="87.75" customHeight="1" s="5">
-      <c r="A477" s="7" t="n"/>
-      <c r="B477" s="7" t="n"/>
-    </row>
-    <row r="478" ht="87.75" customHeight="1" s="5">
-      <c r="A478" s="7" t="n"/>
-      <c r="B478" s="7" t="n"/>
-    </row>
-    <row r="479" ht="87.75" customHeight="1" s="5">
-      <c r="A479" s="7" t="n"/>
-      <c r="B479" s="7" t="n"/>
-    </row>
-    <row r="480" ht="87.75" customHeight="1" s="5">
-      <c r="A480" s="7" t="n"/>
-      <c r="B480" s="7" t="n"/>
-    </row>
-    <row r="481" ht="87.75" customHeight="1" s="5">
-      <c r="A481" s="7" t="n"/>
-      <c r="B481" s="7" t="n"/>
-    </row>
-    <row r="482" ht="87.75" customHeight="1" s="5">
-      <c r="A482" s="7" t="n"/>
-      <c r="B482" s="7" t="n"/>
-    </row>
-    <row r="483" ht="87.75" customHeight="1" s="5">
-      <c r="A483" s="7" t="n"/>
-      <c r="B483" s="7" t="n"/>
-    </row>
-    <row r="484" ht="87.75" customHeight="1" s="5">
-      <c r="A484" s="7" t="n"/>
-      <c r="B484" s="7" t="n"/>
-    </row>
-    <row r="485" ht="87.75" customHeight="1" s="5">
-      <c r="A485" s="7" t="n"/>
-      <c r="B485" s="7" t="n"/>
-    </row>
-    <row r="486" ht="87.75" customHeight="1" s="5">
-      <c r="A486" s="7" t="n"/>
-      <c r="B486" s="7" t="n"/>
-    </row>
-    <row r="487" ht="87.75" customHeight="1" s="5">
-      <c r="A487" s="7" t="n"/>
-      <c r="B487" s="7" t="n"/>
-    </row>
-    <row r="488" ht="87.75" customHeight="1" s="5">
-      <c r="A488" s="7" t="n"/>
-      <c r="B488" s="7" t="n"/>
-    </row>
-    <row r="489" ht="87.75" customHeight="1" s="5">
-      <c r="A489" s="7" t="n"/>
-      <c r="B489" s="7" t="n"/>
-    </row>
-    <row r="490" ht="87.75" customHeight="1" s="5">
-      <c r="A490" s="7" t="n"/>
-      <c r="B490" s="7" t="n"/>
-    </row>
-    <row r="491" ht="87.75" customHeight="1" s="5">
-      <c r="A491" s="7" t="n"/>
-      <c r="B491" s="7" t="n"/>
-    </row>
-    <row r="492" ht="87.75" customHeight="1" s="5">
-      <c r="A492" s="7" t="n"/>
-      <c r="B492" s="7" t="n"/>
-    </row>
-    <row r="493" ht="87.75" customHeight="1" s="5">
-      <c r="A493" s="7" t="n"/>
-      <c r="B493" s="7" t="n"/>
-    </row>
-    <row r="494" ht="87.75" customHeight="1" s="5">
-      <c r="A494" s="7" t="n"/>
-      <c r="B494" s="7" t="n"/>
-    </row>
-    <row r="495" ht="87.75" customHeight="1" s="5">
-      <c r="A495" s="7" t="n"/>
-      <c r="B495" s="7" t="n"/>
-    </row>
-    <row r="496" ht="87.75" customHeight="1" s="5">
-      <c r="A496" s="7" t="n"/>
-      <c r="B496" s="7" t="n"/>
-    </row>
-    <row r="497" ht="87.75" customHeight="1" s="5">
-      <c r="A497" s="7" t="n"/>
-      <c r="B497" s="7" t="n"/>
-    </row>
-    <row r="498" ht="87.75" customHeight="1" s="5">
-      <c r="A498" s="7" t="n"/>
-      <c r="B498" s="7" t="n"/>
-    </row>
-    <row r="499" ht="87.75" customHeight="1" s="5">
-      <c r="A499" s="7" t="n"/>
-      <c r="B499" s="7" t="n"/>
-    </row>
-    <row r="500" ht="87.75" customHeight="1" s="5">
-      <c r="A500" s="7" t="n"/>
-      <c r="B500" s="7" t="n"/>
-    </row>
-    <row r="501" ht="87.75" customHeight="1" s="5">
-      <c r="A501" s="7" t="n"/>
-      <c r="B501" s="7" t="n"/>
-    </row>
-    <row r="502" ht="87.75" customHeight="1" s="5">
-      <c r="A502" s="7" t="n"/>
-      <c r="B502" s="7" t="n"/>
-    </row>
-    <row r="503" ht="87.75" customHeight="1" s="5">
-      <c r="A503" s="7" t="n"/>
-      <c r="B503" s="7" t="n"/>
-    </row>
-    <row r="504" ht="87.75" customHeight="1" s="5">
-      <c r="A504" s="7" t="n"/>
-      <c r="B504" s="7" t="n"/>
-    </row>
-    <row r="505" ht="87.75" customHeight="1" s="5">
-      <c r="A505" s="7" t="n"/>
-      <c r="B505" s="7" t="n"/>
-    </row>
-    <row r="506" ht="87.75" customHeight="1" s="5">
-      <c r="A506" s="7" t="n"/>
-      <c r="B506" s="7" t="n"/>
-    </row>
-    <row r="507" ht="87.75" customHeight="1" s="5">
-      <c r="A507" s="7" t="n"/>
-      <c r="B507" s="7" t="n"/>
-    </row>
-    <row r="508" ht="87.75" customHeight="1" s="5">
-      <c r="A508" s="7" t="n"/>
-      <c r="B508" s="7" t="n"/>
-    </row>
-    <row r="509" ht="87.75" customHeight="1" s="5">
-      <c r="A509" s="7" t="n"/>
-      <c r="B509" s="7" t="n"/>
-    </row>
-    <row r="510" ht="87.75" customHeight="1" s="5">
-      <c r="A510" s="7" t="n"/>
-      <c r="B510" s="7" t="n"/>
-    </row>
-    <row r="511" ht="87.75" customHeight="1" s="5">
-      <c r="A511" s="7" t="n"/>
-      <c r="B511" s="7" t="n"/>
-    </row>
-    <row r="512" ht="87.75" customHeight="1" s="5">
-      <c r="A512" s="7" t="n"/>
-      <c r="B512" s="7" t="n"/>
-    </row>
-    <row r="513" ht="87.75" customHeight="1" s="5">
-      <c r="A513" s="7" t="n"/>
-      <c r="B513" s="7" t="n"/>
-    </row>
-    <row r="514" ht="87.75" customHeight="1" s="5">
-      <c r="A514" s="7" t="n"/>
-      <c r="B514" s="7" t="n"/>
-    </row>
-    <row r="515" ht="87.75" customHeight="1" s="5">
-      <c r="A515" s="7" t="n"/>
-      <c r="B515" s="7" t="n"/>
-    </row>
-    <row r="516" ht="87.75" customHeight="1" s="5">
-      <c r="A516" s="7" t="n"/>
-      <c r="B516" s="7" t="n"/>
-    </row>
-    <row r="517" ht="87.75" customHeight="1" s="5">
-      <c r="A517" s="7" t="n"/>
-      <c r="B517" s="7" t="n"/>
-    </row>
-    <row r="518" ht="87.75" customHeight="1" s="5">
-      <c r="A518" s="7" t="n"/>
-      <c r="B518" s="7" t="n"/>
-    </row>
-    <row r="519" ht="87.75" customHeight="1" s="5">
-      <c r="A519" s="7" t="n"/>
-      <c r="B519" s="7" t="n"/>
-    </row>
-    <row r="520" ht="87.75" customHeight="1" s="5">
-      <c r="A520" s="7" t="n"/>
-      <c r="B520" s="7" t="n"/>
-    </row>
-    <row r="521" ht="87.75" customHeight="1" s="5">
-      <c r="A521" s="7" t="n"/>
-      <c r="B521" s="7" t="n"/>
-    </row>
-    <row r="522" ht="87.75" customHeight="1" s="5">
-      <c r="A522" s="7" t="n"/>
-      <c r="B522" s="7" t="n"/>
-    </row>
-    <row r="523" ht="87.75" customHeight="1" s="5">
-      <c r="A523" s="7" t="n"/>
-      <c r="B523" s="7" t="n"/>
-    </row>
-    <row r="524" ht="87.75" customHeight="1" s="5">
-      <c r="A524" s="7" t="n"/>
-      <c r="B524" s="7" t="n"/>
-    </row>
-    <row r="525" ht="87.75" customHeight="1" s="5">
-      <c r="A525" s="7" t="n"/>
-      <c r="B525" s="7" t="n"/>
-    </row>
-    <row r="526" ht="87.75" customHeight="1" s="5">
-      <c r="A526" s="7" t="n"/>
-      <c r="B526" s="7" t="n"/>
-    </row>
-    <row r="527" ht="87.75" customHeight="1" s="5">
-      <c r="A527" s="7" t="n"/>
-      <c r="B527" s="7" t="n"/>
-    </row>
-    <row r="528" ht="87.75" customHeight="1" s="5">
-      <c r="A528" s="7" t="n"/>
-      <c r="B528" s="7" t="n"/>
-    </row>
-    <row r="529" ht="87.75" customHeight="1" s="5">
-      <c r="A529" s="7" t="n"/>
-      <c r="B529" s="7" t="n"/>
-    </row>
-    <row r="530" ht="87.75" customHeight="1" s="5">
-      <c r="A530" s="7" t="n"/>
-      <c r="B530" s="7" t="n"/>
-    </row>
-    <row r="531" ht="87.75" customHeight="1" s="5">
-      <c r="A531" s="7" t="n"/>
-      <c r="B531" s="7" t="n"/>
-    </row>
-    <row r="532" ht="87.75" customHeight="1" s="5">
-      <c r="A532" s="7" t="n"/>
-      <c r="B532" s="7" t="n"/>
-    </row>
-    <row r="533" ht="87.75" customHeight="1" s="5">
-      <c r="A533" s="7" t="n"/>
-      <c r="B533" s="7" t="n"/>
-    </row>
-    <row r="534" ht="87.75" customHeight="1" s="5">
-      <c r="A534" s="7" t="n"/>
-      <c r="B534" s="7" t="n"/>
-    </row>
-    <row r="535" ht="87.75" customHeight="1" s="5">
-      <c r="A535" s="7" t="n"/>
-      <c r="B535" s="7" t="n"/>
-    </row>
-    <row r="536" ht="87.75" customHeight="1" s="5">
-      <c r="A536" s="7" t="n"/>
-      <c r="B536" s="7" t="n"/>
-    </row>
-    <row r="537" ht="87.75" customHeight="1" s="5">
-      <c r="A537" s="7" t="n"/>
-      <c r="B537" s="7" t="n"/>
-    </row>
-    <row r="538" ht="87.75" customHeight="1" s="5">
-      <c r="A538" s="7" t="n"/>
-      <c r="B538" s="7" t="n"/>
-    </row>
-    <row r="539" ht="87.75" customHeight="1" s="5">
-      <c r="A539" s="7" t="n"/>
-      <c r="B539" s="7" t="n"/>
-    </row>
-    <row r="540" ht="87.75" customHeight="1" s="5">
-      <c r="A540" s="7" t="n"/>
-      <c r="B540" s="7" t="n"/>
-    </row>
-    <row r="541" ht="87.75" customHeight="1" s="5">
-      <c r="A541" s="7" t="n"/>
-      <c r="B541" s="7" t="n"/>
-    </row>
-    <row r="542" ht="87.75" customHeight="1" s="5">
-      <c r="A542" s="7" t="n"/>
-      <c r="B542" s="7" t="n"/>
-    </row>
-    <row r="543" ht="87.75" customHeight="1" s="5">
-      <c r="A543" s="7" t="n"/>
-      <c r="B543" s="7" t="n"/>
-    </row>
-    <row r="544" ht="87.75" customHeight="1" s="5">
-      <c r="A544" s="7" t="n"/>
-      <c r="B544" s="7" t="n"/>
-    </row>
-    <row r="545" ht="87.75" customHeight="1" s="5">
-      <c r="A545" s="7" t="n"/>
-      <c r="B545" s="7" t="n"/>
-    </row>
-    <row r="546" ht="87.75" customHeight="1" s="5">
-      <c r="A546" s="7" t="n"/>
-      <c r="B546" s="7" t="n"/>
-    </row>
-    <row r="547" ht="87.75" customHeight="1" s="5">
-      <c r="A547" s="7" t="n"/>
-      <c r="B547" s="7" t="n"/>
-    </row>
-    <row r="548" ht="87.75" customHeight="1" s="5">
-      <c r="A548" s="7" t="n"/>
-      <c r="B548" s="7" t="n"/>
-    </row>
-    <row r="549" ht="87.75" customHeight="1" s="5">
-      <c r="A549" s="7" t="n"/>
-      <c r="B549" s="7" t="n"/>
-    </row>
-    <row r="550" ht="87.75" customHeight="1" s="5">
-      <c r="A550" s="7" t="n"/>
-      <c r="B550" s="7" t="n"/>
-    </row>
-    <row r="551" ht="87.75" customHeight="1" s="5">
-      <c r="A551" s="7" t="n"/>
-      <c r="B551" s="7" t="n"/>
-    </row>
-    <row r="552" ht="87.75" customHeight="1" s="5">
-      <c r="A552" s="7" t="n"/>
-      <c r="B552" s="7" t="n"/>
-    </row>
-    <row r="553" ht="87.75" customHeight="1" s="5">
-      <c r="A553" s="7" t="n"/>
-      <c r="B553" s="7" t="n"/>
-    </row>
-    <row r="554" ht="87.75" customHeight="1" s="5">
-      <c r="A554" s="7" t="n"/>
-      <c r="B554" s="7" t="n"/>
-    </row>
-    <row r="555" ht="87.75" customHeight="1" s="5">
-      <c r="A555" s="7" t="n"/>
-      <c r="B555" s="7" t="n"/>
-    </row>
-    <row r="556" ht="87.75" customHeight="1" s="5">
-      <c r="A556" s="7" t="n"/>
-      <c r="B556" s="7" t="n"/>
-    </row>
-    <row r="557" ht="87.75" customHeight="1" s="5">
-      <c r="A557" s="7" t="n"/>
-      <c r="B557" s="7" t="n"/>
-    </row>
-    <row r="558" ht="87.75" customHeight="1" s="5">
-      <c r="A558" s="7" t="n"/>
-      <c r="B558" s="7" t="n"/>
-    </row>
-    <row r="559" ht="87.75" customHeight="1" s="5">
-      <c r="A559" s="7" t="n"/>
-      <c r="B559" s="7" t="n"/>
-    </row>
-    <row r="560" ht="87.75" customHeight="1" s="5">
-      <c r="A560" s="7" t="n"/>
-      <c r="B560" s="7" t="n"/>
-    </row>
-    <row r="561" ht="87.75" customHeight="1" s="5">
-      <c r="A561" s="7" t="n"/>
-      <c r="B561" s="7" t="n"/>
-    </row>
-    <row r="562" ht="87.75" customHeight="1" s="5">
-      <c r="A562" s="7" t="n"/>
-      <c r="B562" s="7" t="n"/>
-    </row>
-    <row r="563" ht="87.75" customHeight="1" s="5">
-      <c r="A563" s="7" t="n"/>
-      <c r="B563" s="7" t="n"/>
-    </row>
-    <row r="564" ht="87.75" customHeight="1" s="5">
-      <c r="A564" s="7" t="n"/>
-      <c r="B564" s="7" t="n"/>
-    </row>
-    <row r="565" ht="87.75" customHeight="1" s="5">
-      <c r="A565" s="7" t="n"/>
-      <c r="B565" s="7" t="n"/>
-    </row>
-    <row r="566" ht="87.75" customHeight="1" s="5">
-      <c r="A566" s="7" t="n"/>
-      <c r="B566" s="7" t="n"/>
-    </row>
-    <row r="567" ht="87.75" customHeight="1" s="5">
-      <c r="A567" s="7" t="n"/>
-      <c r="B567" s="7" t="n"/>
-    </row>
-    <row r="568" ht="87.75" customHeight="1" s="5">
-      <c r="A568" s="7" t="n"/>
-      <c r="B568" s="7" t="n"/>
-    </row>
-    <row r="569" ht="87.75" customHeight="1" s="5">
-      <c r="A569" s="7" t="n"/>
-      <c r="B569" s="7" t="n"/>
-    </row>
-    <row r="570" ht="87.75" customHeight="1" s="5">
-      <c r="A570" s="7" t="n"/>
-      <c r="B570" s="7" t="n"/>
-    </row>
-    <row r="571" ht="87.75" customHeight="1" s="5">
-      <c r="A571" s="7" t="n"/>
-      <c r="B571" s="7" t="n"/>
-    </row>
-    <row r="572" ht="87.75" customHeight="1" s="5">
-      <c r="A572" s="7" t="n"/>
-      <c r="B572" s="7" t="n"/>
-    </row>
-    <row r="573" ht="87.75" customHeight="1" s="5">
-      <c r="A573" s="7" t="n"/>
-      <c r="B573" s="7" t="n"/>
-    </row>
-    <row r="574" ht="87.75" customHeight="1" s="5">
-      <c r="A574" s="7" t="n"/>
-      <c r="B574" s="7" t="n"/>
-    </row>
-    <row r="575" ht="87.75" customHeight="1" s="5">
-      <c r="A575" s="7" t="n"/>
-      <c r="B575" s="7" t="n"/>
-    </row>
-    <row r="576" ht="87.75" customHeight="1" s="5">
-      <c r="A576" s="7" t="n"/>
-      <c r="B576" s="7" t="n"/>
-    </row>
-    <row r="577" ht="87.75" customHeight="1" s="5">
-      <c r="A577" s="7" t="n"/>
-      <c r="B577" s="7" t="n"/>
-    </row>
-    <row r="578" ht="87.75" customHeight="1" s="5">
-      <c r="A578" s="7" t="n"/>
-      <c r="B578" s="7" t="n"/>
-    </row>
-    <row r="579" ht="87.75" customHeight="1" s="5">
-      <c r="A579" s="7" t="n"/>
-      <c r="B579" s="7" t="n"/>
-    </row>
-    <row r="580" ht="87.75" customHeight="1" s="5">
-      <c r="A580" s="7" t="n"/>
-      <c r="B580" s="7" t="n"/>
-    </row>
-    <row r="581" ht="87.75" customHeight="1" s="5">
-      <c r="A581" s="7" t="n"/>
-      <c r="B581" s="7" t="n"/>
-    </row>
-    <row r="582" ht="87.75" customHeight="1" s="5">
-      <c r="A582" s="7" t="n"/>
-      <c r="B582" s="7" t="n"/>
-    </row>
-    <row r="583" ht="87.75" customHeight="1" s="5">
-      <c r="A583" s="7" t="n"/>
-      <c r="B583" s="7" t="n"/>
-    </row>
-    <row r="584" ht="87.75" customHeight="1" s="5">
-      <c r="A584" s="7" t="n"/>
-      <c r="B584" s="7" t="n"/>
-    </row>
-    <row r="585" ht="87.75" customHeight="1" s="5">
-      <c r="A585" s="7" t="n"/>
-      <c r="B585" s="7" t="n"/>
-    </row>
-    <row r="586" ht="87.75" customHeight="1" s="5">
-      <c r="A586" s="7" t="n"/>
-      <c r="B586" s="7" t="n"/>
-    </row>
-    <row r="587" ht="87.75" customHeight="1" s="5">
-      <c r="A587" s="7" t="n"/>
-      <c r="B587" s="7" t="n"/>
-    </row>
-    <row r="588" ht="87.75" customHeight="1" s="5">
-      <c r="A588" s="7" t="n"/>
-      <c r="B588" s="7" t="n"/>
-    </row>
-    <row r="589" ht="87.75" customHeight="1" s="5">
-      <c r="A589" s="7" t="n"/>
-      <c r="B589" s="7" t="n"/>
-    </row>
-    <row r="590" ht="87.75" customHeight="1" s="5">
-      <c r="A590" s="7" t="n"/>
-      <c r="B590" s="7" t="n"/>
-    </row>
-    <row r="591" ht="87.75" customHeight="1" s="5">
-      <c r="A591" s="7" t="n"/>
-      <c r="B591" s="7" t="n"/>
-    </row>
-    <row r="592" ht="87.75" customHeight="1" s="5">
-      <c r="A592" s="7" t="n"/>
-      <c r="B592" s="7" t="n"/>
-    </row>
-    <row r="593" ht="87.75" customHeight="1" s="5">
-      <c r="A593" s="7" t="n"/>
-      <c r="B593" s="7" t="n"/>
-    </row>
-    <row r="594" ht="87.75" customHeight="1" s="5">
-      <c r="A594" s="7" t="n"/>
-      <c r="B594" s="7" t="n"/>
-    </row>
-    <row r="595" ht="87.75" customHeight="1" s="5">
-      <c r="A595" s="7" t="n"/>
-      <c r="B595" s="7" t="n"/>
-    </row>
-    <row r="596" ht="87.75" customHeight="1" s="5">
-      <c r="A596" s="7" t="n"/>
-      <c r="B596" s="7" t="n"/>
-    </row>
-    <row r="597" ht="87.75" customHeight="1" s="5">
-      <c r="A597" s="7" t="n"/>
-      <c r="B597" s="7" t="n"/>
-    </row>
-    <row r="598" ht="87.75" customHeight="1" s="5">
-      <c r="A598" s="7" t="n"/>
-      <c r="B598" s="7" t="n"/>
-    </row>
-    <row r="599" ht="87.75" customHeight="1" s="5">
-      <c r="A599" s="7" t="n"/>
-      <c r="B599" s="7" t="n"/>
-    </row>
-    <row r="600" ht="87.75" customHeight="1" s="5">
-      <c r="A600" s="7" t="n"/>
-      <c r="B600" s="7" t="n"/>
-    </row>
-    <row r="601" ht="87.75" customHeight="1" s="5">
-      <c r="A601" s="7" t="n"/>
-      <c r="B601" s="7" t="n"/>
-    </row>
-    <row r="602" ht="87.75" customHeight="1" s="5">
-      <c r="A602" s="7" t="n"/>
-      <c r="B602" s="7" t="n"/>
-    </row>
-    <row r="603" ht="87.75" customHeight="1" s="5">
-      <c r="A603" s="7" t="n"/>
-      <c r="B603" s="7" t="n"/>
-    </row>
-    <row r="604" ht="87.75" customHeight="1" s="5">
-      <c r="A604" s="7" t="n"/>
-      <c r="B604" s="7" t="n"/>
-    </row>
-    <row r="605" ht="87.75" customHeight="1" s="5">
-      <c r="A605" s="7" t="n"/>
-      <c r="B605" s="7" t="n"/>
-    </row>
-    <row r="606" ht="87.75" customHeight="1" s="5">
-      <c r="A606" s="7" t="n"/>
-      <c r="B606" s="7" t="n"/>
-    </row>
-    <row r="607" ht="87.75" customHeight="1" s="5">
-      <c r="A607" s="7" t="n"/>
-      <c r="B607" s="7" t="n"/>
-    </row>
-    <row r="608" ht="87.75" customHeight="1" s="5">
-      <c r="A608" s="7" t="n"/>
-      <c r="B608" s="7" t="n"/>
-    </row>
-    <row r="609" ht="87.75" customHeight="1" s="5">
-      <c r="A609" s="7" t="n"/>
-      <c r="B609" s="7" t="n"/>
-    </row>
-    <row r="610" ht="87.75" customHeight="1" s="5">
-      <c r="A610" s="7" t="n"/>
-      <c r="B610" s="7" t="n"/>
-    </row>
-    <row r="611" ht="87.75" customHeight="1" s="5">
-      <c r="A611" s="7" t="n"/>
-      <c r="B611" s="7" t="n"/>
-    </row>
-    <row r="612" ht="87.75" customHeight="1" s="5">
-      <c r="A612" s="7" t="n"/>
-      <c r="B612" s="7" t="n"/>
-    </row>
-    <row r="613" ht="87.75" customHeight="1" s="5">
-      <c r="A613" s="7" t="n"/>
-      <c r="B613" s="7" t="n"/>
-    </row>
-    <row r="614" ht="87.75" customHeight="1" s="5">
-      <c r="A614" s="7" t="n"/>
-      <c r="B614" s="7" t="n"/>
-    </row>
-    <row r="615" ht="87.75" customHeight="1" s="5">
-      <c r="A615" s="7" t="n"/>
-      <c r="B615" s="7" t="n"/>
-    </row>
-    <row r="616" ht="87.75" customHeight="1" s="5">
-      <c r="A616" s="7" t="n"/>
-      <c r="B616" s="7" t="n"/>
-    </row>
-    <row r="617" ht="87.75" customHeight="1" s="5">
-      <c r="A617" s="7" t="n"/>
-      <c r="B617" s="7" t="n"/>
-    </row>
-    <row r="618" ht="87.75" customHeight="1" s="5">
-      <c r="A618" s="7" t="n"/>
-      <c r="B618" s="7" t="n"/>
-    </row>
-    <row r="619" ht="87.75" customHeight="1" s="5">
-      <c r="A619" s="7" t="n"/>
-      <c r="B619" s="7" t="n"/>
-    </row>
-    <row r="620" ht="87.75" customHeight="1" s="5">
-      <c r="A620" s="7" t="n"/>
-      <c r="B620" s="7" t="n"/>
-    </row>
-    <row r="621" ht="87.75" customHeight="1" s="5">
-      <c r="A621" s="7" t="n"/>
-      <c r="B621" s="7" t="n"/>
-    </row>
-    <row r="622" ht="87.75" customHeight="1" s="5">
-      <c r="A622" s="7" t="n"/>
-      <c r="B622" s="7" t="n"/>
-    </row>
-    <row r="623" ht="87.75" customHeight="1" s="5">
-      <c r="A623" s="7" t="n"/>
-      <c r="B623" s="7" t="n"/>
-    </row>
-    <row r="624" ht="87.75" customHeight="1" s="5">
-      <c r="A624" s="7" t="n"/>
-      <c r="B624" s="7" t="n"/>
-    </row>
-    <row r="625" ht="87.75" customHeight="1" s="5">
-      <c r="A625" s="7" t="n"/>
-      <c r="B625" s="7" t="n"/>
-    </row>
-    <row r="626" ht="87.75" customHeight="1" s="5">
-      <c r="A626" s="7" t="n"/>
-      <c r="B626" s="7" t="n"/>
-    </row>
-    <row r="627" ht="87.75" customHeight="1" s="5">
-      <c r="A627" s="7" t="n"/>
-      <c r="B627" s="7" t="n"/>
-    </row>
-    <row r="628" ht="87.75" customHeight="1" s="5">
-      <c r="A628" s="7" t="n"/>
-      <c r="B628" s="7" t="n"/>
-    </row>
-    <row r="629" ht="87.75" customHeight="1" s="5">
-      <c r="A629" s="7" t="n"/>
-      <c r="B629" s="7" t="n"/>
-    </row>
-    <row r="630" ht="87.75" customHeight="1" s="5">
-      <c r="A630" s="7" t="n"/>
-      <c r="B630" s="7" t="n"/>
-    </row>
-    <row r="631" ht="87.75" customHeight="1" s="5">
-      <c r="A631" s="7" t="n"/>
-      <c r="B631" s="7" t="n"/>
-    </row>
-    <row r="632" ht="87.75" customHeight="1" s="5">
-      <c r="A632" s="7" t="n"/>
-      <c r="B632" s="7" t="n"/>
-    </row>
-    <row r="633" ht="87.75" customHeight="1" s="5">
-      <c r="A633" s="7" t="n"/>
-      <c r="B633" s="7" t="n"/>
-    </row>
-    <row r="634" ht="87.75" customHeight="1" s="5">
-      <c r="A634" s="7" t="n"/>
-      <c r="B634" s="7" t="n"/>
-    </row>
-    <row r="635" ht="87.75" customHeight="1" s="5">
-      <c r="A635" s="7" t="n"/>
-      <c r="B635" s="7" t="n"/>
-    </row>
-    <row r="636" ht="87.75" customHeight="1" s="5">
-      <c r="A636" s="7" t="n"/>
-      <c r="B636" s="7" t="n"/>
-    </row>
-    <row r="637" ht="87.75" customHeight="1" s="5">
-      <c r="A637" s="7" t="n"/>
-      <c r="B637" s="7" t="n"/>
-    </row>
-    <row r="638" ht="87.75" customHeight="1" s="5">
-      <c r="A638" s="7" t="n"/>
-      <c r="B638" s="7" t="n"/>
-    </row>
-    <row r="639" ht="87.75" customHeight="1" s="5">
-      <c r="A639" s="7" t="n"/>
-      <c r="B639" s="7" t="n"/>
-    </row>
-    <row r="640" ht="87.75" customHeight="1" s="5">
-      <c r="A640" s="7" t="n"/>
-      <c r="B640" s="7" t="n"/>
-    </row>
-    <row r="641" ht="87.75" customHeight="1" s="5">
-      <c r="A641" s="7" t="n"/>
-      <c r="B641" s="7" t="n"/>
-    </row>
-    <row r="642" ht="87.75" customHeight="1" s="5">
-      <c r="A642" s="7" t="n"/>
-      <c r="B642" s="7" t="n"/>
-    </row>
-    <row r="643" ht="87.75" customHeight="1" s="5">
-      <c r="A643" s="7" t="n"/>
-      <c r="B643" s="7" t="n"/>
-    </row>
-    <row r="644" ht="87.75" customHeight="1" s="5">
-      <c r="A644" s="7" t="n"/>
-      <c r="B644" s="7" t="n"/>
-    </row>
-    <row r="645" ht="87.75" customHeight="1" s="5">
-      <c r="A645" s="7" t="n"/>
-      <c r="B645" s="7" t="n"/>
-    </row>
-    <row r="646" ht="87.75" customHeight="1" s="5">
-      <c r="A646" s="7" t="n"/>
-      <c r="B646" s="7" t="n"/>
-    </row>
-    <row r="647" ht="87.75" customHeight="1" s="5">
-      <c r="A647" s="7" t="n"/>
-      <c r="B647" s="7" t="n"/>
-    </row>
-    <row r="648" ht="87.75" customHeight="1" s="5">
-      <c r="A648" s="7" t="n"/>
-      <c r="B648" s="7" t="n"/>
-    </row>
-    <row r="649" ht="87.75" customHeight="1" s="5">
-      <c r="A649" s="7" t="n"/>
-      <c r="B649" s="7" t="n"/>
-    </row>
-    <row r="650" ht="87.75" customHeight="1" s="5">
-      <c r="A650" s="7" t="n"/>
-      <c r="B650" s="7" t="n"/>
-    </row>
-    <row r="651" ht="87.75" customHeight="1" s="5">
-      <c r="A651" s="7" t="n"/>
-      <c r="B651" s="7" t="n"/>
-    </row>
-    <row r="652" ht="87.75" customHeight="1" s="5">
-      <c r="A652" s="7" t="n"/>
-      <c r="B652" s="7" t="n"/>
-    </row>
-    <row r="653" ht="87.75" customHeight="1" s="5">
-      <c r="A653" s="7" t="n"/>
-      <c r="B653" s="7" t="n"/>
-    </row>
-    <row r="654" ht="87.75" customHeight="1" s="5">
-      <c r="A654" s="7" t="n"/>
-      <c r="B654" s="7" t="n"/>
-    </row>
-    <row r="655" ht="87.75" customHeight="1" s="5">
-      <c r="A655" s="7" t="n"/>
-      <c r="B655" s="7" t="n"/>
-    </row>
-    <row r="656" ht="87.75" customHeight="1" s="5">
-      <c r="A656" s="7" t="n"/>
-      <c r="B656" s="7" t="n"/>
-    </row>
-    <row r="657" ht="87.75" customHeight="1" s="5">
-      <c r="A657" s="7" t="n"/>
-      <c r="B657" s="7" t="n"/>
-    </row>
-    <row r="658" ht="87.75" customHeight="1" s="5">
-      <c r="A658" s="7" t="n"/>
-      <c r="B658" s="7" t="n"/>
-    </row>
-    <row r="659" ht="87.75" customHeight="1" s="5">
-      <c r="A659" s="7" t="n"/>
-      <c r="B659" s="7" t="n"/>
-    </row>
-    <row r="660" ht="87.75" customHeight="1" s="5">
-      <c r="A660" s="7" t="n"/>
-      <c r="B660" s="7" t="n"/>
-    </row>
-    <row r="661" ht="87.75" customHeight="1" s="5">
-      <c r="A661" s="7" t="n"/>
-      <c r="B661" s="7" t="n"/>
-    </row>
-    <row r="662" ht="87.75" customHeight="1" s="5">
-      <c r="A662" s="7" t="n"/>
-      <c r="B662" s="7" t="n"/>
-    </row>
-    <row r="663" ht="87.75" customHeight="1" s="5">
-      <c r="A663" s="7" t="n"/>
-      <c r="B663" s="7" t="n"/>
-    </row>
-    <row r="664" ht="87.75" customHeight="1" s="5">
-      <c r="A664" s="7" t="n"/>
-      <c r="B664" s="7" t="n"/>
-    </row>
-    <row r="665" ht="87.75" customHeight="1" s="5">
-      <c r="A665" s="7" t="n"/>
-      <c r="B665" s="7" t="n"/>
-    </row>
-    <row r="666" ht="87.75" customHeight="1" s="5">
-      <c r="A666" s="7" t="n"/>
-      <c r="B666" s="7" t="n"/>
-    </row>
-    <row r="667" ht="87.75" customHeight="1" s="5">
-      <c r="A667" s="7" t="n"/>
-      <c r="B667" s="7" t="n"/>
-    </row>
-    <row r="668" ht="87.75" customHeight="1" s="5">
-      <c r="A668" s="7" t="n"/>
-      <c r="B668" s="7" t="n"/>
-    </row>
-    <row r="669" ht="87.75" customHeight="1" s="5">
-      <c r="A669" s="7" t="n"/>
-      <c r="B669" s="7" t="n"/>
-    </row>
-    <row r="670" ht="87.75" customHeight="1" s="5">
-      <c r="A670" s="7" t="n"/>
-      <c r="B670" s="7" t="n"/>
-    </row>
-    <row r="671" ht="87.75" customHeight="1" s="5">
-      <c r="A671" s="7" t="n"/>
-      <c r="B671" s="7" t="n"/>
-    </row>
-    <row r="672" ht="87.75" customHeight="1" s="5">
-      <c r="A672" s="7" t="n"/>
-      <c r="B672" s="7" t="n"/>
-    </row>
-    <row r="673" ht="87.75" customHeight="1" s="5">
-      <c r="A673" s="7" t="n"/>
-      <c r="B673" s="7" t="n"/>
-    </row>
-    <row r="674" ht="87.75" customHeight="1" s="5">
-      <c r="A674" s="7" t="n"/>
-      <c r="B674" s="7" t="n"/>
-    </row>
-    <row r="675" ht="87.75" customHeight="1" s="5">
-      <c r="A675" s="7" t="n"/>
-      <c r="B675" s="7" t="n"/>
-    </row>
-    <row r="676" ht="87.75" customHeight="1" s="5">
-      <c r="A676" s="7" t="n"/>
-      <c r="B676" s="7" t="n"/>
-    </row>
-    <row r="677" ht="87.75" customHeight="1" s="5">
-      <c r="A677" s="7" t="n"/>
-      <c r="B677" s="7" t="n"/>
-    </row>
-    <row r="678" ht="87.75" customHeight="1" s="5">
-      <c r="A678" s="7" t="n"/>
-      <c r="B678" s="7" t="n"/>
-    </row>
-    <row r="679" ht="87.75" customHeight="1" s="5">
-      <c r="A679" s="7" t="n"/>
-      <c r="B679" s="7" t="n"/>
-    </row>
-    <row r="680" ht="87.75" customHeight="1" s="5">
-      <c r="A680" s="7" t="n"/>
-      <c r="B680" s="7" t="n"/>
-    </row>
-    <row r="681" ht="87.75" customHeight="1" s="5">
-      <c r="A681" s="7" t="n"/>
-      <c r="B681" s="7" t="n"/>
-    </row>
-    <row r="682" ht="87.75" customHeight="1" s="5">
-      <c r="A682" s="7" t="n"/>
-      <c r="B682" s="7" t="n"/>
-    </row>
-    <row r="683" ht="87.75" customHeight="1" s="5">
-      <c r="A683" s="7" t="n"/>
-      <c r="B683" s="7" t="n"/>
-    </row>
-    <row r="684" ht="87.75" customHeight="1" s="5">
-      <c r="A684" s="7" t="n"/>
-      <c r="B684" s="7" t="n"/>
-    </row>
-    <row r="685" ht="87.75" customHeight="1" s="5">
-      <c r="A685" s="7" t="n"/>
-      <c r="B685" s="7" t="n"/>
-    </row>
-    <row r="686" ht="87.75" customHeight="1" s="5">
-      <c r="A686" s="7" t="n"/>
-      <c r="B686" s="7" t="n"/>
-    </row>
-    <row r="687" ht="87.75" customHeight="1" s="5">
-      <c r="A687" s="7" t="n"/>
-      <c r="B687" s="7" t="n"/>
-    </row>
-    <row r="688" ht="87.75" customHeight="1" s="5">
-      <c r="A688" s="7" t="n"/>
-      <c r="B688" s="7" t="n"/>
-    </row>
-    <row r="689" ht="87.75" customHeight="1" s="5">
-      <c r="A689" s="7" t="n"/>
-      <c r="B689" s="7" t="n"/>
-    </row>
-    <row r="690" ht="87.75" customHeight="1" s="5">
-      <c r="A690" s="7" t="n"/>
-      <c r="B690" s="7" t="n"/>
-    </row>
-    <row r="691" ht="87.75" customHeight="1" s="5">
-      <c r="A691" s="7" t="n"/>
-      <c r="B691" s="7" t="n"/>
-    </row>
-    <row r="692" ht="87.75" customHeight="1" s="5">
-      <c r="A692" s="7" t="n"/>
-      <c r="B692" s="7" t="n"/>
-    </row>
-    <row r="693" ht="87.75" customHeight="1" s="5">
-      <c r="A693" s="7" t="n"/>
-      <c r="B693" s="7" t="n"/>
-    </row>
-    <row r="694" ht="87.75" customHeight="1" s="5">
-      <c r="A694" s="7" t="n"/>
-      <c r="B694" s="7" t="n"/>
-    </row>
-    <row r="695" ht="87.75" customHeight="1" s="5">
-      <c r="A695" s="7" t="n"/>
-      <c r="B695" s="7" t="n"/>
-    </row>
-    <row r="696" ht="87.75" customHeight="1" s="5">
-      <c r="A696" s="7" t="n"/>
-      <c r="B696" s="7" t="n"/>
-    </row>
-    <row r="697" ht="87.75" customHeight="1" s="5">
-      <c r="A697" s="7" t="n"/>
-      <c r="B697" s="7" t="n"/>
-    </row>
-    <row r="698" ht="87.75" customHeight="1" s="5">
-      <c r="A698" s="7" t="n"/>
-      <c r="B698" s="7" t="n"/>
-    </row>
-    <row r="699" ht="87.75" customHeight="1" s="5">
-      <c r="A699" s="7" t="n"/>
-      <c r="B699" s="7" t="n"/>
-    </row>
-    <row r="700" ht="87.75" customHeight="1" s="5">
-      <c r="A700" s="7" t="n"/>
-      <c r="B700" s="7" t="n"/>
-    </row>
-    <row r="701" ht="87.75" customHeight="1" s="5">
-      <c r="A701" s="7" t="n"/>
-      <c r="B701" s="7" t="n"/>
-    </row>
-    <row r="702" ht="87.75" customHeight="1" s="5">
-      <c r="A702" s="7" t="n"/>
-      <c r="B702" s="7" t="n"/>
-    </row>
-    <row r="703" ht="87.75" customHeight="1" s="5">
-      <c r="A703" s="7" t="n"/>
-      <c r="B703" s="7" t="n"/>
-    </row>
-    <row r="704" ht="87.75" customHeight="1" s="5">
-      <c r="A704" s="7" t="n"/>
-      <c r="B704" s="7" t="n"/>
-    </row>
-    <row r="705" ht="87.75" customHeight="1" s="5">
-      <c r="A705" s="7" t="n"/>
-      <c r="B705" s="7" t="n"/>
-    </row>
-    <row r="706" ht="87.75" customHeight="1" s="5">
-      <c r="A706" s="7" t="n"/>
-      <c r="B706" s="7" t="n"/>
-    </row>
-    <row r="707" ht="87.75" customHeight="1" s="5">
-      <c r="A707" s="7" t="n"/>
-      <c r="B707" s="7" t="n"/>
-    </row>
-    <row r="708" ht="87.75" customHeight="1" s="5">
-      <c r="A708" s="7" t="n"/>
-      <c r="B708" s="7" t="n"/>
-    </row>
-    <row r="709" ht="87.75" customHeight="1" s="5">
-      <c r="A709" s="7" t="n"/>
-      <c r="B709" s="7" t="n"/>
-    </row>
-    <row r="710" ht="87.75" customHeight="1" s="5">
-      <c r="A710" s="7" t="n"/>
-      <c r="B710" s="7" t="n"/>
-    </row>
-    <row r="711" ht="87.75" customHeight="1" s="5">
-      <c r="A711" s="7" t="n"/>
-      <c r="B711" s="7" t="n"/>
-    </row>
-    <row r="712" ht="87.75" customHeight="1" s="5">
-      <c r="A712" s="7" t="n"/>
-      <c r="B712" s="7" t="n"/>
-    </row>
-    <row r="713" ht="87.75" customHeight="1" s="5">
-      <c r="A713" s="7" t="n"/>
-      <c r="B713" s="7" t="n"/>
-    </row>
-    <row r="714" ht="87.75" customHeight="1" s="5">
-      <c r="A714" s="7" t="n"/>
-      <c r="B714" s="7" t="n"/>
-    </row>
-    <row r="715" ht="87.75" customHeight="1" s="5">
-      <c r="A715" s="7" t="n"/>
-      <c r="B715" s="7" t="n"/>
-    </row>
-    <row r="716" ht="87.75" customHeight="1" s="5">
-      <c r="A716" s="7" t="n"/>
-      <c r="B716" s="7" t="n"/>
-    </row>
-    <row r="717" ht="87.75" customHeight="1" s="5">
-      <c r="A717" s="7" t="n"/>
-      <c r="B717" s="7" t="n"/>
-    </row>
-    <row r="718" ht="87.75" customHeight="1" s="5">
-      <c r="A718" s="7" t="n"/>
-      <c r="B718" s="7" t="n"/>
-    </row>
-    <row r="719" ht="87.75" customHeight="1" s="5">
-      <c r="A719" s="7" t="n"/>
-      <c r="B719" s="7" t="n"/>
-    </row>
-    <row r="720" ht="87.75" customHeight="1" s="5">
-      <c r="A720" s="7" t="n"/>
-      <c r="B720" s="7" t="n"/>
-    </row>
-    <row r="721" ht="87.75" customHeight="1" s="5">
-      <c r="A721" s="7" t="n"/>
-      <c r="B721" s="7" t="n"/>
-    </row>
-    <row r="722" ht="87.75" customHeight="1" s="5">
-      <c r="A722" s="7" t="n"/>
-      <c r="B722" s="7" t="n"/>
-    </row>
-    <row r="723" ht="87.75" customHeight="1" s="5">
-      <c r="A723" s="7" t="n"/>
-      <c r="B723" s="7" t="n"/>
-    </row>
-    <row r="724" ht="87.75" customHeight="1" s="5">
-      <c r="A724" s="7" t="n"/>
-      <c r="B724" s="7" t="n"/>
-    </row>
-    <row r="725" ht="87.75" customHeight="1" s="5">
-      <c r="A725" s="7" t="n"/>
-      <c r="B725" s="7" t="n"/>
-    </row>
-    <row r="726" ht="87.75" customHeight="1" s="5">
-      <c r="A726" s="7" t="n"/>
-      <c r="B726" s="7" t="n"/>
-    </row>
-    <row r="727" ht="87.75" customHeight="1" s="5">
-      <c r="A727" s="7" t="n"/>
-      <c r="B727" s="7" t="n"/>
-    </row>
-    <row r="728" ht="87.75" customHeight="1" s="5">
-      <c r="A728" s="7" t="n"/>
-      <c r="B728" s="7" t="n"/>
-    </row>
-    <row r="729" ht="87.75" customHeight="1" s="5">
-      <c r="A729" s="7" t="n"/>
-      <c r="B729" s="7" t="n"/>
-    </row>
-    <row r="730" ht="87.75" customHeight="1" s="5">
-      <c r="A730" s="7" t="n"/>
-      <c r="B730" s="7" t="n"/>
-    </row>
-    <row r="731" ht="87.75" customHeight="1" s="5">
-      <c r="A731" s="7" t="n"/>
-      <c r="B731" s="7" t="n"/>
-    </row>
-    <row r="732" ht="87.75" customHeight="1" s="5">
-      <c r="A732" s="7" t="n"/>
-      <c r="B732" s="7" t="n"/>
-    </row>
-    <row r="733" ht="87.75" customHeight="1" s="5">
-      <c r="A733" s="7" t="n"/>
-      <c r="B733" s="7" t="n"/>
-    </row>
-    <row r="734" ht="87.75" customHeight="1" s="5">
-      <c r="A734" s="7" t="n"/>
-      <c r="B734" s="7" t="n"/>
-    </row>
-    <row r="735" ht="87.75" customHeight="1" s="5">
-      <c r="A735" s="7" t="n"/>
-      <c r="B735" s="7" t="n"/>
-    </row>
-    <row r="736" ht="87.75" customHeight="1" s="5">
-      <c r="A736" s="7" t="n"/>
-      <c r="B736" s="7" t="n"/>
-    </row>
-    <row r="737" ht="87.75" customHeight="1" s="5">
-      <c r="A737" s="7" t="n"/>
-      <c r="B737" s="7" t="n"/>
-    </row>
-    <row r="738" ht="87.75" customHeight="1" s="5">
-      <c r="A738" s="7" t="n"/>
-      <c r="B738" s="7" t="n"/>
-    </row>
-    <row r="739" ht="87.75" customHeight="1" s="5">
-      <c r="A739" s="7" t="n"/>
-      <c r="B739" s="7" t="n"/>
-    </row>
-    <row r="740" ht="87.75" customHeight="1" s="5">
-      <c r="A740" s="7" t="n"/>
-      <c r="B740" s="7" t="n"/>
-    </row>
-    <row r="741" ht="87.75" customHeight="1" s="5">
-      <c r="A741" s="7" t="n"/>
-      <c r="B741" s="7" t="n"/>
-    </row>
-    <row r="742" ht="87.75" customHeight="1" s="5">
-      <c r="A742" s="7" t="n"/>
-      <c r="B742" s="7" t="n"/>
-    </row>
-    <row r="743" ht="87.75" customHeight="1" s="5">
-      <c r="A743" s="7" t="n"/>
-      <c r="B743" s="7" t="n"/>
-    </row>
-    <row r="744" ht="87.75" customHeight="1" s="5">
-      <c r="A744" s="7" t="n"/>
-      <c r="B744" s="7" t="n"/>
-    </row>
-    <row r="745" ht="87.75" customHeight="1" s="5">
-      <c r="A745" s="7" t="n"/>
-      <c r="B745" s="7" t="n"/>
-    </row>
-    <row r="746" ht="87.75" customHeight="1" s="5">
-      <c r="A746" s="7" t="n"/>
-      <c r="B746" s="7" t="n"/>
-    </row>
-    <row r="747" ht="87.75" customHeight="1" s="5">
-      <c r="A747" s="7" t="n"/>
-      <c r="B747" s="7" t="n"/>
-    </row>
-    <row r="748" ht="87.75" customHeight="1" s="5">
-      <c r="A748" s="7" t="n"/>
-      <c r="B748" s="7" t="n"/>
-    </row>
-    <row r="749" ht="87.75" customHeight="1" s="5">
-      <c r="A749" s="7" t="n"/>
-      <c r="B749" s="7" t="n"/>
-    </row>
-    <row r="750" ht="87.75" customHeight="1" s="5">
-      <c r="A750" s="7" t="n"/>
-      <c r="B750" s="7" t="n"/>
-    </row>
-    <row r="751" ht="87.75" customHeight="1" s="5">
-      <c r="A751" s="7" t="n"/>
-      <c r="B751" s="7" t="n"/>
-    </row>
-    <row r="752" ht="87.75" customHeight="1" s="5">
-      <c r="A752" s="7" t="n"/>
-      <c r="B752" s="7" t="n"/>
-    </row>
-    <row r="753" ht="87.75" customHeight="1" s="5">
-      <c r="A753" s="7" t="n"/>
-      <c r="B753" s="7" t="n"/>
-    </row>
-    <row r="754" ht="87.75" customHeight="1" s="5">
-      <c r="A754" s="7" t="n"/>
-      <c r="B754" s="7" t="n"/>
-    </row>
-    <row r="755" ht="87.75" customHeight="1" s="5">
-      <c r="A755" s="7" t="n"/>
-      <c r="B755" s="7" t="n"/>
-    </row>
-    <row r="756" ht="87.75" customHeight="1" s="5">
-      <c r="A756" s="7" t="n"/>
-      <c r="B756" s="7" t="n"/>
-    </row>
-    <row r="757" ht="87.75" customHeight="1" s="5">
-      <c r="A757" s="7" t="n"/>
-      <c r="B757" s="7" t="n"/>
-    </row>
-    <row r="758" ht="87.75" customHeight="1" s="5">
-      <c r="A758" s="7" t="n"/>
-      <c r="B758" s="7" t="n"/>
-    </row>
-    <row r="759" ht="87.75" customHeight="1" s="5">
-      <c r="A759" s="7" t="n"/>
-      <c r="B759" s="7" t="n"/>
-    </row>
-    <row r="760" ht="87.75" customHeight="1" s="5">
-      <c r="A760" s="7" t="n"/>
-      <c r="B760" s="7" t="n"/>
-    </row>
-    <row r="761" ht="87.75" customHeight="1" s="5">
-      <c r="A761" s="7" t="n"/>
-      <c r="B761" s="7" t="n"/>
-    </row>
-    <row r="762" ht="87.75" customHeight="1" s="5">
-      <c r="A762" s="7" t="n"/>
-      <c r="B762" s="7" t="n"/>
-    </row>
-    <row r="763" ht="87.75" customHeight="1" s="5">
-      <c r="A763" s="7" t="n"/>
-      <c r="B763" s="7" t="n"/>
-    </row>
-    <row r="764" ht="87.75" customHeight="1" s="5">
-      <c r="A764" s="7" t="n"/>
-      <c r="B764" s="7" t="n"/>
-    </row>
-    <row r="765" ht="87.75" customHeight="1" s="5">
-      <c r="A765" s="7" t="n"/>
-      <c r="B765" s="7" t="n"/>
-    </row>
-    <row r="766" ht="87.75" customHeight="1" s="5">
-      <c r="A766" s="7" t="n"/>
-      <c r="B766" s="7" t="n"/>
-    </row>
-    <row r="767" ht="87.75" customHeight="1" s="5">
-      <c r="A767" s="7" t="n"/>
-      <c r="B767" s="7" t="n"/>
-    </row>
-    <row r="768" ht="87.75" customHeight="1" s="5">
-      <c r="A768" s="7" t="n"/>
-      <c r="B768" s="7" t="n"/>
-    </row>
-    <row r="769" ht="87.75" customHeight="1" s="5">
-      <c r="A769" s="7" t="n"/>
-      <c r="B769" s="7" t="n"/>
-    </row>
-    <row r="770" ht="87.75" customHeight="1" s="5">
-      <c r="A770" s="7" t="n"/>
-      <c r="B770" s="7" t="n"/>
-    </row>
-    <row r="771" ht="87.75" customHeight="1" s="5">
-      <c r="A771" s="7" t="n"/>
-      <c r="B771" s="7" t="n"/>
-    </row>
-    <row r="772" ht="87.75" customHeight="1" s="5">
-      <c r="A772" s="7" t="n"/>
-      <c r="B772" s="7" t="n"/>
-    </row>
-    <row r="773" ht="87.75" customHeight="1" s="5">
-      <c r="A773" s="7" t="n"/>
-      <c r="B773" s="7" t="n"/>
-    </row>
-    <row r="774" ht="87.75" customHeight="1" s="5">
-      <c r="A774" s="7" t="n"/>
-      <c r="B774" s="7" t="n"/>
-    </row>
-    <row r="775" ht="87.75" customHeight="1" s="5">
-      <c r="A775" s="7" t="n"/>
-      <c r="B775" s="7" t="n"/>
-    </row>
-    <row r="776" ht="87.75" customHeight="1" s="5">
-      <c r="A776" s="7" t="n"/>
-      <c r="B776" s="7" t="n"/>
-    </row>
-    <row r="777" ht="87.75" customHeight="1" s="5">
-      <c r="A777" s="7" t="n"/>
-      <c r="B777" s="7" t="n"/>
-    </row>
-    <row r="778" ht="87.75" customHeight="1" s="5">
-      <c r="A778" s="7" t="n"/>
-      <c r="B778" s="7" t="n"/>
-    </row>
-    <row r="779" ht="87.75" customHeight="1" s="5">
-      <c r="A779" s="7" t="n"/>
-      <c r="B779" s="7" t="n"/>
-    </row>
-    <row r="780" ht="87.75" customHeight="1" s="5">
-      <c r="A780" s="7" t="n"/>
-      <c r="B780" s="7" t="n"/>
+    </row>
+    <row r="16" ht="35" customHeight="1" s="1">
+      <c r="A16" s="5" t="n"/>
+      <c r="B16" s="5" t="n"/>
+    </row>
+    <row r="17" ht="35" customHeight="1" s="1">
+      <c r="A17" s="5" t="n"/>
+      <c r="B17" s="5" t="n"/>
+    </row>
+    <row r="18" ht="35" customHeight="1" s="1">
+      <c r="A18" s="5" t="n"/>
+      <c r="B18" s="5" t="n"/>
+    </row>
+    <row r="19" ht="35" customHeight="1" s="1">
+      <c r="A19" s="5" t="n"/>
+      <c r="B19" s="5" t="n"/>
+    </row>
+    <row r="20" ht="35" customHeight="1" s="1">
+      <c r="A20" s="5" t="n"/>
+      <c r="B20" s="5" t="n"/>
+    </row>
+    <row r="21" ht="35" customHeight="1" s="1">
+      <c r="A21" s="5" t="n"/>
+      <c r="B21" s="5" t="n"/>
+    </row>
+    <row r="22" ht="35" customHeight="1" s="1"/>
+    <row r="23" ht="35" customHeight="1" s="1"/>
+    <row r="24" ht="35" customHeight="1" s="1"/>
+    <row r="25" ht="35" customHeight="1" s="1"/>
+    <row r="26" ht="35" customHeight="1" s="1"/>
+    <row r="27" ht="35" customHeight="1" s="1"/>
+    <row r="28" ht="35" customHeight="1" s="1"/>
+    <row r="29" ht="35" customHeight="1" s="1"/>
+    <row r="30" ht="35" customHeight="1" s="1"/>
+    <row r="31" ht="35" customHeight="1" s="1"/>
+    <row r="32" ht="35" customHeight="1" s="1"/>
+    <row r="33" ht="35" customHeight="1" s="1"/>
+    <row r="34" ht="35" customHeight="1" s="1"/>
+    <row r="35" ht="35" customHeight="1" s="1"/>
+    <row r="36" ht="35" customHeight="1" s="1"/>
+    <row r="37" ht="35" customHeight="1" s="1"/>
+    <row r="38" ht="35" customHeight="1" s="1"/>
+    <row r="39" ht="35" customHeight="1" s="1"/>
+    <row r="40" ht="35" customHeight="1" s="1"/>
+    <row r="41" ht="35" customHeight="1" s="1"/>
+    <row r="42" ht="35" customHeight="1" s="1"/>
+    <row r="43" ht="35" customHeight="1" s="1"/>
+    <row r="44" ht="35" customHeight="1" s="1"/>
+    <row r="45" ht="35" customHeight="1" s="1"/>
+    <row r="46" ht="35" customHeight="1" s="1"/>
+    <row r="47" ht="35" customHeight="1" s="1"/>
+    <row r="48" ht="35" customHeight="1" s="1"/>
+    <row r="49" ht="35" customHeight="1" s="1"/>
+    <row r="50" ht="35" customHeight="1" s="1"/>
+    <row r="51" ht="35" customHeight="1" s="1"/>
+    <row r="52" ht="35" customHeight="1" s="1"/>
+    <row r="53" ht="35" customHeight="1" s="1"/>
+    <row r="54" ht="35" customHeight="1" s="1"/>
+    <row r="55" ht="35" customHeight="1" s="1"/>
+    <row r="56" ht="35" customHeight="1" s="1"/>
+    <row r="57" ht="35" customHeight="1" s="1"/>
+    <row r="58" ht="35" customHeight="1" s="1"/>
+    <row r="59" ht="35" customHeight="1" s="1"/>
+    <row r="60" ht="35" customHeight="1" s="1"/>
+    <row r="61" ht="35" customHeight="1" s="1"/>
+    <row r="62" ht="35" customHeight="1" s="1"/>
+    <row r="63" ht="35" customHeight="1" s="1"/>
+    <row r="64" ht="35" customHeight="1" s="1"/>
+    <row r="65" ht="35" customHeight="1" s="1"/>
+    <row r="66" ht="35" customHeight="1" s="1"/>
+    <row r="67" ht="35" customHeight="1" s="1"/>
+    <row r="68" ht="35" customHeight="1" s="1"/>
+    <row r="69" ht="35" customHeight="1" s="1"/>
+    <row r="70" ht="35" customHeight="1" s="1"/>
+    <row r="71" ht="35" customHeight="1" s="1"/>
+    <row r="72" ht="35" customHeight="1" s="1"/>
+    <row r="73" ht="35" customHeight="1" s="1"/>
+    <row r="74" ht="35" customHeight="1" s="1"/>
+    <row r="75" ht="35" customHeight="1" s="1"/>
+    <row r="76" ht="35" customHeight="1" s="1"/>
+    <row r="77" ht="35" customHeight="1" s="1"/>
+    <row r="78" ht="35" customHeight="1" s="1"/>
+    <row r="79" ht="35" customHeight="1" s="1"/>
+    <row r="80" ht="35" customHeight="1" s="1"/>
+    <row r="81" ht="35" customHeight="1" s="1"/>
+    <row r="82" ht="35" customHeight="1" s="1"/>
+    <row r="83" ht="35" customHeight="1" s="1"/>
+    <row r="84" ht="35" customHeight="1" s="1"/>
+    <row r="85" ht="35" customHeight="1" s="1"/>
+    <row r="86" ht="35" customHeight="1" s="1"/>
+    <row r="87" ht="35" customHeight="1" s="1"/>
+    <row r="88" ht="35" customHeight="1" s="1"/>
+    <row r="89" ht="35" customHeight="1" s="1"/>
+    <row r="90" ht="35" customHeight="1" s="1"/>
+    <row r="91" ht="35" customHeight="1" s="1"/>
+    <row r="92" ht="35" customHeight="1" s="1"/>
+    <row r="93" ht="35" customHeight="1" s="1"/>
+    <row r="94" ht="87.75" customHeight="1" s="1"/>
+    <row r="95" ht="87.75" customHeight="1" s="1"/>
+    <row r="96" ht="87.75" customHeight="1" s="1"/>
+    <row r="97" ht="87.75" customHeight="1" s="1"/>
+    <row r="98" ht="87.75" customHeight="1" s="1"/>
+    <row r="99" ht="87.75" customHeight="1" s="1"/>
+    <row r="100" ht="87.75" customHeight="1" s="1"/>
+    <row r="101" ht="87.75" customHeight="1" s="1"/>
+    <row r="102" ht="87.75" customHeight="1" s="1"/>
+    <row r="103" ht="87.75" customHeight="1" s="1"/>
+    <row r="104" ht="87.75" customHeight="1" s="1"/>
+    <row r="105" ht="87.75" customHeight="1" s="1"/>
+    <row r="106" ht="87.75" customHeight="1" s="1"/>
+    <row r="107" ht="87.75" customHeight="1" s="1"/>
+    <row r="108" ht="87.75" customHeight="1" s="1"/>
+    <row r="109" ht="87.75" customHeight="1" s="1"/>
+    <row r="110" ht="87.75" customHeight="1" s="1"/>
+    <row r="111" ht="87.75" customHeight="1" s="1"/>
+    <row r="112" ht="87.75" customHeight="1" s="1"/>
+    <row r="113" ht="87.75" customHeight="1" s="1"/>
+    <row r="114" ht="87.75" customHeight="1" s="1"/>
+    <row r="115" ht="87.75" customHeight="1" s="1"/>
+    <row r="116" ht="87.75" customHeight="1" s="1"/>
+    <row r="117" ht="87.75" customHeight="1" s="1"/>
+    <row r="118" ht="87.75" customHeight="1" s="1"/>
+    <row r="119" ht="87.75" customHeight="1" s="1"/>
+    <row r="120" ht="87.75" customHeight="1" s="1"/>
+    <row r="121" ht="87.75" customHeight="1" s="1"/>
+    <row r="122" ht="87.75" customHeight="1" s="1"/>
+    <row r="123" ht="87.75" customHeight="1" s="1"/>
+    <row r="124" ht="87.75" customHeight="1" s="1"/>
+    <row r="125" ht="87.75" customHeight="1" s="1"/>
+    <row r="126" ht="87.75" customHeight="1" s="1"/>
+    <row r="127" ht="87.75" customHeight="1" s="1"/>
+    <row r="128" ht="87.75" customHeight="1" s="1"/>
+    <row r="129" ht="87.75" customHeight="1" s="1"/>
+    <row r="130" ht="87.75" customHeight="1" s="1"/>
+    <row r="131" ht="87.75" customHeight="1" s="1"/>
+    <row r="132" ht="87.75" customHeight="1" s="1"/>
+    <row r="133" ht="87.75" customHeight="1" s="1"/>
+    <row r="134" ht="87.75" customHeight="1" s="1"/>
+    <row r="135" ht="87.75" customHeight="1" s="1"/>
+    <row r="136" ht="87.75" customHeight="1" s="1"/>
+    <row r="137" ht="87.75" customHeight="1" s="1"/>
+    <row r="138" ht="87.75" customHeight="1" s="1"/>
+    <row r="139" ht="87.75" customHeight="1" s="1"/>
+    <row r="140" ht="87.75" customHeight="1" s="1"/>
+    <row r="141" ht="87.75" customHeight="1" s="1"/>
+    <row r="142" ht="87.75" customHeight="1" s="1"/>
+    <row r="143" ht="87.75" customHeight="1" s="1"/>
+    <row r="144" ht="87.75" customHeight="1" s="1"/>
+    <row r="145" ht="87.75" customHeight="1" s="1"/>
+    <row r="146" ht="87.75" customHeight="1" s="1"/>
+    <row r="147" ht="87.75" customHeight="1" s="1"/>
+    <row r="148" ht="87.75" customHeight="1" s="1"/>
+    <row r="149" ht="87.75" customHeight="1" s="1"/>
+    <row r="150" ht="87.75" customHeight="1" s="1"/>
+    <row r="151" ht="87.75" customHeight="1" s="1"/>
+    <row r="152" ht="87.75" customHeight="1" s="1"/>
+    <row r="153" ht="87.75" customHeight="1" s="1"/>
+    <row r="154" ht="87.75" customHeight="1" s="1"/>
+    <row r="155" ht="87.75" customHeight="1" s="1"/>
+    <row r="156" ht="87.75" customHeight="1" s="1"/>
+    <row r="157" ht="87.75" customHeight="1" s="1"/>
+    <row r="158" ht="87.75" customHeight="1" s="1"/>
+    <row r="159" ht="87.75" customHeight="1" s="1"/>
+    <row r="160" ht="87.75" customHeight="1" s="1"/>
+    <row r="161" ht="87.75" customHeight="1" s="1"/>
+    <row r="162" ht="87.75" customHeight="1" s="1"/>
+    <row r="163" ht="87.75" customHeight="1" s="1"/>
+    <row r="164" ht="87.75" customHeight="1" s="1"/>
+    <row r="165" ht="87.75" customHeight="1" s="1"/>
+    <row r="166" ht="87.75" customHeight="1" s="1"/>
+    <row r="167" ht="87.75" customHeight="1" s="1"/>
+    <row r="168" ht="87.75" customHeight="1" s="1"/>
+    <row r="169" ht="87.75" customHeight="1" s="1"/>
+    <row r="170" ht="87.75" customHeight="1" s="1"/>
+    <row r="171" ht="87.75" customHeight="1" s="1"/>
+    <row r="172" ht="87.75" customHeight="1" s="1"/>
+    <row r="173" ht="87.75" customHeight="1" s="1"/>
+    <row r="174" ht="87.75" customHeight="1" s="1"/>
+    <row r="175" ht="87.75" customHeight="1" s="1"/>
+    <row r="176" ht="87.75" customHeight="1" s="1"/>
+    <row r="177" ht="87.75" customHeight="1" s="1"/>
+    <row r="178" ht="87.75" customHeight="1" s="1"/>
+    <row r="179" ht="87.75" customHeight="1" s="1"/>
+    <row r="180" ht="87.75" customHeight="1" s="1"/>
+    <row r="181" ht="87.75" customHeight="1" s="1"/>
+    <row r="182" ht="87.75" customHeight="1" s="1"/>
+    <row r="183" ht="87.75" customHeight="1" s="1"/>
+    <row r="184" ht="87.75" customHeight="1" s="1"/>
+    <row r="185" ht="87.75" customHeight="1" s="1"/>
+    <row r="186" ht="87.75" customHeight="1" s="1"/>
+    <row r="187" ht="87.75" customHeight="1" s="1"/>
+    <row r="188" ht="87.75" customHeight="1" s="1"/>
+    <row r="189" ht="87.75" customHeight="1" s="1"/>
+    <row r="190" ht="87.75" customHeight="1" s="1"/>
+    <row r="191" ht="87.75" customHeight="1" s="1"/>
+    <row r="192" ht="87.75" customHeight="1" s="1"/>
+    <row r="193" ht="87.75" customHeight="1" s="1"/>
+    <row r="194" ht="87.75" customHeight="1" s="1"/>
+    <row r="195" ht="87.75" customHeight="1" s="1"/>
+    <row r="196" ht="87.75" customHeight="1" s="1"/>
+    <row r="197" ht="87.75" customHeight="1" s="1"/>
+    <row r="198" ht="87.75" customHeight="1" s="1"/>
+    <row r="199" ht="87.75" customHeight="1" s="1"/>
+    <row r="200" ht="87.75" customHeight="1" s="1"/>
+    <row r="201" ht="87.75" customHeight="1" s="1"/>
+    <row r="202" ht="87.75" customHeight="1" s="1"/>
+    <row r="203" ht="87.75" customHeight="1" s="1"/>
+    <row r="204" ht="87.75" customHeight="1" s="1"/>
+    <row r="205" ht="87.75" customHeight="1" s="1"/>
+    <row r="206" ht="87.75" customHeight="1" s="1"/>
+    <row r="207" ht="87.75" customHeight="1" s="1"/>
+    <row r="208" ht="87.75" customHeight="1" s="1"/>
+    <row r="209" ht="87.75" customHeight="1" s="1"/>
+    <row r="210" ht="87.75" customHeight="1" s="1"/>
+    <row r="211" ht="87.75" customHeight="1" s="1"/>
+    <row r="212" ht="87.75" customHeight="1" s="1"/>
+    <row r="213" ht="87.75" customHeight="1" s="1"/>
+    <row r="214" ht="87.75" customHeight="1" s="1"/>
+    <row r="215" ht="87.75" customHeight="1" s="1"/>
+    <row r="216" ht="87.75" customHeight="1" s="1"/>
+    <row r="217" ht="87.75" customHeight="1" s="1"/>
+    <row r="218" ht="87.75" customHeight="1" s="1"/>
+    <row r="219" ht="87.75" customHeight="1" s="1"/>
+    <row r="220" ht="87.75" customHeight="1" s="1"/>
+    <row r="221" ht="87.75" customHeight="1" s="1"/>
+    <row r="222" ht="87.75" customHeight="1" s="1"/>
+    <row r="223" ht="87.75" customHeight="1" s="1"/>
+    <row r="224" ht="87.75" customHeight="1" s="1"/>
+    <row r="225" ht="87.75" customHeight="1" s="1"/>
+    <row r="226" ht="87.75" customHeight="1" s="1"/>
+    <row r="227" ht="87.75" customHeight="1" s="1"/>
+    <row r="228" ht="87.75" customHeight="1" s="1"/>
+    <row r="229" ht="87.75" customHeight="1" s="1"/>
+    <row r="230" ht="87.75" customHeight="1" s="1"/>
+    <row r="231" ht="87.75" customHeight="1" s="1"/>
+    <row r="232" ht="87.75" customHeight="1" s="1"/>
+    <row r="233" ht="87.75" customHeight="1" s="1"/>
+    <row r="234" ht="87.75" customHeight="1" s="1"/>
+    <row r="235" ht="87.75" customHeight="1" s="1"/>
+    <row r="236" ht="87.75" customHeight="1" s="1"/>
+    <row r="237" ht="87.75" customHeight="1" s="1"/>
+    <row r="238" ht="87.75" customHeight="1" s="1"/>
+    <row r="239" ht="87.75" customHeight="1" s="1"/>
+    <row r="240" ht="87.75" customHeight="1" s="1"/>
+    <row r="241" ht="87.75" customHeight="1" s="1"/>
+    <row r="242" ht="87.75" customHeight="1" s="1"/>
+    <row r="243" ht="87.75" customHeight="1" s="1"/>
+    <row r="244" ht="87.75" customHeight="1" s="1"/>
+    <row r="245" ht="87.75" customHeight="1" s="1"/>
+    <row r="246" ht="87.75" customHeight="1" s="1"/>
+    <row r="247" ht="87.75" customHeight="1" s="1"/>
+    <row r="248" ht="87.75" customHeight="1" s="1"/>
+    <row r="249" ht="87.75" customHeight="1" s="1"/>
+    <row r="250" ht="87.75" customHeight="1" s="1"/>
+    <row r="251" ht="87.75" customHeight="1" s="1"/>
+    <row r="252" ht="87.75" customHeight="1" s="1"/>
+    <row r="253" ht="87.75" customHeight="1" s="1">
+      <c r="A253" s="5" t="n"/>
+      <c r="B253" s="5" t="n"/>
+    </row>
+    <row r="254" ht="87.75" customHeight="1" s="1">
+      <c r="A254" s="5" t="n"/>
+      <c r="B254" s="5" t="n"/>
+    </row>
+    <row r="255" ht="87.75" customHeight="1" s="1">
+      <c r="A255" s="5" t="n"/>
+      <c r="B255" s="5" t="n"/>
+    </row>
+    <row r="256" ht="87.75" customHeight="1" s="1">
+      <c r="A256" s="5" t="n"/>
+      <c r="B256" s="5" t="n"/>
+    </row>
+    <row r="257" ht="87.75" customHeight="1" s="1">
+      <c r="A257" s="5" t="n"/>
+      <c r="B257" s="5" t="n"/>
+    </row>
+    <row r="258" ht="87.75" customHeight="1" s="1">
+      <c r="A258" s="5" t="n"/>
+      <c r="B258" s="5" t="n"/>
+    </row>
+    <row r="259" ht="87.75" customHeight="1" s="1">
+      <c r="A259" s="5" t="n"/>
+      <c r="B259" s="5" t="n"/>
+    </row>
+    <row r="260" ht="87.75" customHeight="1" s="1">
+      <c r="A260" s="5" t="n"/>
+      <c r="B260" s="5" t="n"/>
+    </row>
+    <row r="261" ht="87.75" customHeight="1" s="1">
+      <c r="A261" s="5" t="n"/>
+      <c r="B261" s="5" t="n"/>
+    </row>
+    <row r="262" ht="87.75" customHeight="1" s="1">
+      <c r="A262" s="5" t="n"/>
+      <c r="B262" s="5" t="n"/>
+    </row>
+    <row r="263" ht="87.75" customHeight="1" s="1">
+      <c r="A263" s="5" t="n"/>
+      <c r="B263" s="5" t="n"/>
+    </row>
+    <row r="264" ht="87.75" customHeight="1" s="1">
+      <c r="A264" s="5" t="n"/>
+      <c r="B264" s="5" t="n"/>
+    </row>
+    <row r="265" ht="87.75" customHeight="1" s="1">
+      <c r="A265" s="5" t="n"/>
+      <c r="B265" s="5" t="n"/>
+    </row>
+    <row r="266" ht="87.75" customHeight="1" s="1">
+      <c r="A266" s="5" t="n"/>
+      <c r="B266" s="5" t="n"/>
+    </row>
+    <row r="267" ht="87.75" customHeight="1" s="1">
+      <c r="A267" s="5" t="n"/>
+      <c r="B267" s="5" t="n"/>
+    </row>
+    <row r="268" ht="87.75" customHeight="1" s="1">
+      <c r="A268" s="5" t="n"/>
+      <c r="B268" s="5" t="n"/>
+    </row>
+    <row r="269" ht="87.75" customHeight="1" s="1">
+      <c r="A269" s="5" t="n"/>
+      <c r="B269" s="5" t="n"/>
+    </row>
+    <row r="270" ht="87.75" customHeight="1" s="1">
+      <c r="A270" s="5" t="n"/>
+      <c r="B270" s="5" t="n"/>
+    </row>
+    <row r="271" ht="87.75" customHeight="1" s="1">
+      <c r="A271" s="5" t="n"/>
+      <c r="B271" s="5" t="n"/>
+    </row>
+    <row r="272" ht="87.75" customHeight="1" s="1">
+      <c r="A272" s="5" t="n"/>
+      <c r="B272" s="5" t="n"/>
+    </row>
+    <row r="273" ht="87.75" customHeight="1" s="1">
+      <c r="A273" s="5" t="n"/>
+      <c r="B273" s="5" t="n"/>
+    </row>
+    <row r="274" ht="87.75" customHeight="1" s="1">
+      <c r="A274" s="5" t="n"/>
+      <c r="B274" s="5" t="n"/>
+    </row>
+    <row r="275" ht="87.75" customHeight="1" s="1">
+      <c r="A275" s="5" t="n"/>
+      <c r="B275" s="5" t="n"/>
+    </row>
+    <row r="276" ht="87.75" customHeight="1" s="1">
+      <c r="A276" s="5" t="n"/>
+      <c r="B276" s="5" t="n"/>
+    </row>
+    <row r="277" ht="87.75" customHeight="1" s="1">
+      <c r="A277" s="5" t="n"/>
+      <c r="B277" s="5" t="n"/>
+    </row>
+    <row r="278" ht="87.75" customHeight="1" s="1">
+      <c r="A278" s="5" t="n"/>
+      <c r="B278" s="5" t="n"/>
+    </row>
+    <row r="279" ht="87.75" customHeight="1" s="1">
+      <c r="A279" s="5" t="n"/>
+      <c r="B279" s="5" t="n"/>
+    </row>
+    <row r="280" ht="87.75" customHeight="1" s="1">
+      <c r="A280" s="5" t="n"/>
+      <c r="B280" s="5" t="n"/>
+    </row>
+    <row r="281" ht="87.75" customHeight="1" s="1">
+      <c r="A281" s="5" t="n"/>
+      <c r="B281" s="5" t="n"/>
+    </row>
+    <row r="282" ht="87.75" customHeight="1" s="1">
+      <c r="A282" s="5" t="n"/>
+      <c r="B282" s="5" t="n"/>
+    </row>
+    <row r="283" ht="87.75" customHeight="1" s="1">
+      <c r="A283" s="5" t="n"/>
+      <c r="B283" s="5" t="n"/>
+    </row>
+    <row r="284" ht="87.75" customHeight="1" s="1">
+      <c r="A284" s="5" t="n"/>
+      <c r="B284" s="5" t="n"/>
+    </row>
+    <row r="285" ht="87.75" customHeight="1" s="1">
+      <c r="A285" s="5" t="n"/>
+      <c r="B285" s="5" t="n"/>
+    </row>
+    <row r="286" ht="87.75" customHeight="1" s="1">
+      <c r="A286" s="5" t="n"/>
+      <c r="B286" s="5" t="n"/>
+    </row>
+    <row r="287" ht="87.75" customHeight="1" s="1">
+      <c r="A287" s="5" t="n"/>
+      <c r="B287" s="5" t="n"/>
+    </row>
+    <row r="288" ht="87.75" customHeight="1" s="1">
+      <c r="A288" s="5" t="n"/>
+      <c r="B288" s="5" t="n"/>
+    </row>
+    <row r="289" ht="87.75" customHeight="1" s="1">
+      <c r="A289" s="5" t="n"/>
+      <c r="B289" s="5" t="n"/>
+    </row>
+    <row r="290" ht="87.75" customHeight="1" s="1">
+      <c r="A290" s="5" t="n"/>
+      <c r="B290" s="5" t="n"/>
+    </row>
+    <row r="291" ht="87.75" customHeight="1" s="1">
+      <c r="A291" s="5" t="n"/>
+      <c r="B291" s="5" t="n"/>
+    </row>
+    <row r="292" ht="87.75" customHeight="1" s="1">
+      <c r="A292" s="5" t="n"/>
+      <c r="B292" s="5" t="n"/>
+    </row>
+    <row r="293" ht="87.75" customHeight="1" s="1">
+      <c r="A293" s="5" t="n"/>
+      <c r="B293" s="5" t="n"/>
+    </row>
+    <row r="294" ht="87.75" customHeight="1" s="1">
+      <c r="A294" s="5" t="n"/>
+      <c r="B294" s="5" t="n"/>
+    </row>
+    <row r="295" ht="87.75" customHeight="1" s="1">
+      <c r="A295" s="5" t="n"/>
+      <c r="B295" s="5" t="n"/>
+    </row>
+    <row r="296" ht="87.75" customHeight="1" s="1">
+      <c r="A296" s="5" t="n"/>
+      <c r="B296" s="5" t="n"/>
+    </row>
+    <row r="297" ht="87.75" customHeight="1" s="1">
+      <c r="A297" s="5" t="n"/>
+      <c r="B297" s="5" t="n"/>
+    </row>
+    <row r="298" ht="87.75" customHeight="1" s="1">
+      <c r="A298" s="5" t="n"/>
+      <c r="B298" s="5" t="n"/>
+    </row>
+    <row r="299" ht="87.75" customHeight="1" s="1">
+      <c r="A299" s="5" t="n"/>
+      <c r="B299" s="5" t="n"/>
+    </row>
+    <row r="300" ht="87.75" customHeight="1" s="1">
+      <c r="A300" s="5" t="n"/>
+      <c r="B300" s="5" t="n"/>
+    </row>
+    <row r="301" ht="87.75" customHeight="1" s="1">
+      <c r="A301" s="5" t="n"/>
+      <c r="B301" s="5" t="n"/>
+    </row>
+    <row r="302" ht="87.75" customHeight="1" s="1">
+      <c r="A302" s="5" t="n"/>
+      <c r="B302" s="5" t="n"/>
+    </row>
+    <row r="303" ht="87.75" customHeight="1" s="1">
+      <c r="A303" s="5" t="n"/>
+      <c r="B303" s="5" t="n"/>
+    </row>
+    <row r="304" ht="87.75" customHeight="1" s="1">
+      <c r="A304" s="5" t="n"/>
+      <c r="B304" s="5" t="n"/>
+    </row>
+    <row r="305" ht="87.75" customHeight="1" s="1">
+      <c r="A305" s="5" t="n"/>
+      <c r="B305" s="5" t="n"/>
+    </row>
+    <row r="306" ht="87.75" customHeight="1" s="1">
+      <c r="A306" s="5" t="n"/>
+      <c r="B306" s="5" t="n"/>
+    </row>
+    <row r="307" ht="87.75" customHeight="1" s="1">
+      <c r="A307" s="5" t="n"/>
+      <c r="B307" s="5" t="n"/>
+    </row>
+    <row r="308" ht="87.75" customHeight="1" s="1">
+      <c r="A308" s="5" t="n"/>
+      <c r="B308" s="5" t="n"/>
+    </row>
+    <row r="309" ht="87.75" customHeight="1" s="1">
+      <c r="A309" s="5" t="n"/>
+      <c r="B309" s="5" t="n"/>
+    </row>
+    <row r="310" ht="87.75" customHeight="1" s="1">
+      <c r="A310" s="5" t="n"/>
+      <c r="B310" s="5" t="n"/>
+    </row>
+    <row r="311" ht="87.75" customHeight="1" s="1">
+      <c r="A311" s="5" t="n"/>
+      <c r="B311" s="5" t="n"/>
+    </row>
+    <row r="312" ht="87.75" customHeight="1" s="1">
+      <c r="A312" s="5" t="n"/>
+      <c r="B312" s="5" t="n"/>
+    </row>
+    <row r="313" ht="87.75" customHeight="1" s="1">
+      <c r="A313" s="5" t="n"/>
+      <c r="B313" s="5" t="n"/>
+    </row>
+    <row r="314" ht="87.75" customHeight="1" s="1">
+      <c r="A314" s="5" t="n"/>
+      <c r="B314" s="5" t="n"/>
+    </row>
+    <row r="315" ht="87.75" customHeight="1" s="1">
+      <c r="A315" s="5" t="n"/>
+      <c r="B315" s="5" t="n"/>
+    </row>
+    <row r="316" ht="87.75" customHeight="1" s="1">
+      <c r="A316" s="5" t="n"/>
+      <c r="B316" s="5" t="n"/>
+    </row>
+    <row r="317" ht="87.75" customHeight="1" s="1">
+      <c r="A317" s="5" t="n"/>
+      <c r="B317" s="5" t="n"/>
+    </row>
+    <row r="318" ht="87.75" customHeight="1" s="1">
+      <c r="A318" s="5" t="n"/>
+      <c r="B318" s="5" t="n"/>
+    </row>
+    <row r="319" ht="87.75" customHeight="1" s="1">
+      <c r="A319" s="5" t="n"/>
+      <c r="B319" s="5" t="n"/>
+    </row>
+    <row r="320" ht="87.75" customHeight="1" s="1">
+      <c r="A320" s="5" t="n"/>
+      <c r="B320" s="5" t="n"/>
+    </row>
+    <row r="321" ht="87.75" customHeight="1" s="1">
+      <c r="A321" s="5" t="n"/>
+      <c r="B321" s="5" t="n"/>
+    </row>
+    <row r="322" ht="87.75" customHeight="1" s="1">
+      <c r="A322" s="5" t="n"/>
+      <c r="B322" s="5" t="n"/>
+    </row>
+    <row r="323" ht="87.75" customHeight="1" s="1">
+      <c r="A323" s="5" t="n"/>
+      <c r="B323" s="5" t="n"/>
+    </row>
+    <row r="324" ht="87.75" customHeight="1" s="1">
+      <c r="A324" s="5" t="n"/>
+      <c r="B324" s="5" t="n"/>
+    </row>
+    <row r="325" ht="87.75" customHeight="1" s="1">
+      <c r="A325" s="5" t="n"/>
+      <c r="B325" s="5" t="n"/>
+    </row>
+    <row r="326" ht="87.75" customHeight="1" s="1">
+      <c r="A326" s="5" t="n"/>
+      <c r="B326" s="5" t="n"/>
+    </row>
+    <row r="327" ht="87.75" customHeight="1" s="1">
+      <c r="A327" s="5" t="n"/>
+      <c r="B327" s="5" t="n"/>
+    </row>
+    <row r="328" ht="87.75" customHeight="1" s="1">
+      <c r="A328" s="5" t="n"/>
+      <c r="B328" s="5" t="n"/>
+    </row>
+    <row r="329" ht="87.75" customHeight="1" s="1">
+      <c r="A329" s="5" t="n"/>
+      <c r="B329" s="5" t="n"/>
+    </row>
+    <row r="330" ht="87.75" customHeight="1" s="1">
+      <c r="A330" s="5" t="n"/>
+      <c r="B330" s="5" t="n"/>
+    </row>
+    <row r="331" ht="87.75" customHeight="1" s="1">
+      <c r="A331" s="5" t="n"/>
+      <c r="B331" s="5" t="n"/>
+    </row>
+    <row r="332" ht="87.75" customHeight="1" s="1">
+      <c r="A332" s="5" t="n"/>
+      <c r="B332" s="5" t="n"/>
+    </row>
+    <row r="333" ht="87.75" customHeight="1" s="1">
+      <c r="A333" s="5" t="n"/>
+      <c r="B333" s="5" t="n"/>
+    </row>
+    <row r="334" ht="87.75" customHeight="1" s="1">
+      <c r="A334" s="5" t="n"/>
+      <c r="B334" s="5" t="n"/>
+    </row>
+    <row r="335" ht="87.75" customHeight="1" s="1">
+      <c r="A335" s="5" t="n"/>
+      <c r="B335" s="5" t="n"/>
+    </row>
+    <row r="336" ht="87.75" customHeight="1" s="1">
+      <c r="A336" s="5" t="n"/>
+      <c r="B336" s="5" t="n"/>
+    </row>
+    <row r="337" ht="87.75" customHeight="1" s="1">
+      <c r="A337" s="5" t="n"/>
+      <c r="B337" s="5" t="n"/>
+    </row>
+    <row r="338" ht="87.75" customHeight="1" s="1">
+      <c r="A338" s="5" t="n"/>
+      <c r="B338" s="5" t="n"/>
+    </row>
+    <row r="339" ht="87.75" customHeight="1" s="1">
+      <c r="A339" s="5" t="n"/>
+      <c r="B339" s="5" t="n"/>
+    </row>
+    <row r="340" ht="87.75" customHeight="1" s="1">
+      <c r="A340" s="5" t="n"/>
+      <c r="B340" s="5" t="n"/>
+    </row>
+    <row r="341" ht="87.75" customHeight="1" s="1">
+      <c r="A341" s="5" t="n"/>
+      <c r="B341" s="5" t="n"/>
+    </row>
+    <row r="342" ht="87.75" customHeight="1" s="1">
+      <c r="A342" s="5" t="n"/>
+      <c r="B342" s="5" t="n"/>
+    </row>
+    <row r="343" ht="87.75" customHeight="1" s="1">
+      <c r="A343" s="5" t="n"/>
+      <c r="B343" s="5" t="n"/>
+    </row>
+    <row r="344" ht="87.75" customHeight="1" s="1">
+      <c r="A344" s="5" t="n"/>
+      <c r="B344" s="5" t="n"/>
+    </row>
+    <row r="345" ht="87.75" customHeight="1" s="1">
+      <c r="A345" s="5" t="n"/>
+      <c r="B345" s="5" t="n"/>
+    </row>
+    <row r="346" ht="87.75" customHeight="1" s="1">
+      <c r="A346" s="5" t="n"/>
+      <c r="B346" s="5" t="n"/>
+    </row>
+    <row r="347" ht="87.75" customHeight="1" s="1">
+      <c r="A347" s="5" t="n"/>
+      <c r="B347" s="5" t="n"/>
+    </row>
+    <row r="348" ht="87.75" customHeight="1" s="1">
+      <c r="A348" s="5" t="n"/>
+      <c r="B348" s="5" t="n"/>
+    </row>
+    <row r="349" ht="87.75" customHeight="1" s="1">
+      <c r="A349" s="5" t="n"/>
+      <c r="B349" s="5" t="n"/>
+    </row>
+    <row r="350" ht="87.75" customHeight="1" s="1">
+      <c r="A350" s="5" t="n"/>
+      <c r="B350" s="5" t="n"/>
+    </row>
+    <row r="351" ht="87.75" customHeight="1" s="1">
+      <c r="A351" s="5" t="n"/>
+      <c r="B351" s="5" t="n"/>
+    </row>
+    <row r="352" ht="87.75" customHeight="1" s="1">
+      <c r="A352" s="5" t="n"/>
+      <c r="B352" s="5" t="n"/>
+    </row>
+    <row r="353" ht="87.75" customHeight="1" s="1">
+      <c r="A353" s="5" t="n"/>
+      <c r="B353" s="5" t="n"/>
+    </row>
+    <row r="354" ht="87.75" customHeight="1" s="1">
+      <c r="A354" s="5" t="n"/>
+      <c r="B354" s="5" t="n"/>
+    </row>
+    <row r="355" ht="87.75" customHeight="1" s="1">
+      <c r="A355" s="5" t="n"/>
+      <c r="B355" s="5" t="n"/>
+    </row>
+    <row r="356" ht="87.75" customHeight="1" s="1">
+      <c r="A356" s="5" t="n"/>
+      <c r="B356" s="5" t="n"/>
+    </row>
+    <row r="357" ht="87.75" customHeight="1" s="1">
+      <c r="A357" s="5" t="n"/>
+      <c r="B357" s="5" t="n"/>
+    </row>
+    <row r="358" ht="87.75" customHeight="1" s="1">
+      <c r="A358" s="5" t="n"/>
+      <c r="B358" s="5" t="n"/>
+    </row>
+    <row r="359" ht="87.75" customHeight="1" s="1">
+      <c r="A359" s="5" t="n"/>
+      <c r="B359" s="5" t="n"/>
+    </row>
+    <row r="360" ht="87.75" customHeight="1" s="1">
+      <c r="A360" s="5" t="n"/>
+      <c r="B360" s="5" t="n"/>
+    </row>
+    <row r="361" ht="87.75" customHeight="1" s="1">
+      <c r="A361" s="5" t="n"/>
+      <c r="B361" s="5" t="n"/>
+    </row>
+    <row r="362" ht="87.75" customHeight="1" s="1">
+      <c r="A362" s="5" t="n"/>
+      <c r="B362" s="5" t="n"/>
+    </row>
+    <row r="363" ht="87.75" customHeight="1" s="1">
+      <c r="A363" s="5" t="n"/>
+      <c r="B363" s="5" t="n"/>
+    </row>
+    <row r="364" ht="87.75" customHeight="1" s="1">
+      <c r="A364" s="5" t="n"/>
+      <c r="B364" s="5" t="n"/>
+    </row>
+    <row r="365" ht="87.75" customHeight="1" s="1">
+      <c r="A365" s="5" t="n"/>
+      <c r="B365" s="5" t="n"/>
+    </row>
+    <row r="366" ht="87.75" customHeight="1" s="1">
+      <c r="A366" s="5" t="n"/>
+      <c r="B366" s="5" t="n"/>
+    </row>
+    <row r="367" ht="87.75" customHeight="1" s="1">
+      <c r="A367" s="5" t="n"/>
+      <c r="B367" s="5" t="n"/>
+    </row>
+    <row r="368" ht="87.75" customHeight="1" s="1">
+      <c r="A368" s="5" t="n"/>
+      <c r="B368" s="5" t="n"/>
+    </row>
+    <row r="369" ht="87.75" customHeight="1" s="1">
+      <c r="A369" s="5" t="n"/>
+      <c r="B369" s="5" t="n"/>
+    </row>
+    <row r="370" ht="87.75" customHeight="1" s="1">
+      <c r="A370" s="5" t="n"/>
+      <c r="B370" s="5" t="n"/>
+    </row>
+    <row r="371" ht="87.75" customHeight="1" s="1">
+      <c r="A371" s="5" t="n"/>
+      <c r="B371" s="5" t="n"/>
+    </row>
+    <row r="372" ht="87.75" customHeight="1" s="1">
+      <c r="A372" s="5" t="n"/>
+      <c r="B372" s="5" t="n"/>
+    </row>
+    <row r="373" ht="87.75" customHeight="1" s="1">
+      <c r="A373" s="5" t="n"/>
+      <c r="B373" s="5" t="n"/>
+    </row>
+    <row r="374" ht="87.75" customHeight="1" s="1">
+      <c r="A374" s="5" t="n"/>
+      <c r="B374" s="5" t="n"/>
+    </row>
+    <row r="375" ht="87.75" customHeight="1" s="1">
+      <c r="A375" s="5" t="n"/>
+      <c r="B375" s="5" t="n"/>
+    </row>
+    <row r="376" ht="87.75" customHeight="1" s="1">
+      <c r="A376" s="5" t="n"/>
+      <c r="B376" s="5" t="n"/>
+    </row>
+    <row r="377" ht="87.75" customHeight="1" s="1">
+      <c r="A377" s="5" t="n"/>
+      <c r="B377" s="5" t="n"/>
+    </row>
+    <row r="378" ht="87.75" customHeight="1" s="1">
+      <c r="A378" s="5" t="n"/>
+      <c r="B378" s="5" t="n"/>
+    </row>
+    <row r="379" ht="87.75" customHeight="1" s="1">
+      <c r="A379" s="5" t="n"/>
+      <c r="B379" s="5" t="n"/>
+    </row>
+    <row r="380" ht="87.75" customHeight="1" s="1">
+      <c r="A380" s="5" t="n"/>
+      <c r="B380" s="5" t="n"/>
+    </row>
+    <row r="381" ht="87.75" customHeight="1" s="1">
+      <c r="A381" s="5" t="n"/>
+      <c r="B381" s="5" t="n"/>
+    </row>
+    <row r="382" ht="87.75" customHeight="1" s="1">
+      <c r="A382" s="5" t="n"/>
+      <c r="B382" s="5" t="n"/>
+    </row>
+    <row r="383" ht="87.75" customHeight="1" s="1">
+      <c r="A383" s="5" t="n"/>
+      <c r="B383" s="5" t="n"/>
+    </row>
+    <row r="384" ht="87.75" customHeight="1" s="1">
+      <c r="A384" s="5" t="n"/>
+      <c r="B384" s="5" t="n"/>
+    </row>
+    <row r="385" ht="87.75" customHeight="1" s="1">
+      <c r="A385" s="5" t="n"/>
+      <c r="B385" s="5" t="n"/>
+    </row>
+    <row r="386" ht="87.75" customHeight="1" s="1">
+      <c r="A386" s="5" t="n"/>
+      <c r="B386" s="5" t="n"/>
+    </row>
+    <row r="387" ht="87.75" customHeight="1" s="1">
+      <c r="A387" s="5" t="n"/>
+      <c r="B387" s="5" t="n"/>
+    </row>
+    <row r="388" ht="87.75" customHeight="1" s="1">
+      <c r="A388" s="5" t="n"/>
+      <c r="B388" s="5" t="n"/>
+    </row>
+    <row r="389" ht="87.75" customHeight="1" s="1">
+      <c r="A389" s="5" t="n"/>
+      <c r="B389" s="5" t="n"/>
+    </row>
+    <row r="390" ht="87.75" customHeight="1" s="1">
+      <c r="A390" s="5" t="n"/>
+      <c r="B390" s="5" t="n"/>
+    </row>
+    <row r="391" ht="87.75" customHeight="1" s="1">
+      <c r="A391" s="5" t="n"/>
+      <c r="B391" s="5" t="n"/>
+    </row>
+    <row r="392" ht="87.75" customHeight="1" s="1">
+      <c r="A392" s="5" t="n"/>
+      <c r="B392" s="5" t="n"/>
+    </row>
+    <row r="393" ht="87.75" customHeight="1" s="1">
+      <c r="A393" s="5" t="n"/>
+      <c r="B393" s="5" t="n"/>
+    </row>
+    <row r="394" ht="87.75" customHeight="1" s="1">
+      <c r="A394" s="5" t="n"/>
+      <c r="B394" s="5" t="n"/>
+    </row>
+    <row r="395" ht="87.75" customHeight="1" s="1">
+      <c r="A395" s="5" t="n"/>
+      <c r="B395" s="5" t="n"/>
+    </row>
+    <row r="396" ht="87.75" customHeight="1" s="1">
+      <c r="A396" s="5" t="n"/>
+      <c r="B396" s="5" t="n"/>
+    </row>
+    <row r="397" ht="87.75" customHeight="1" s="1">
+      <c r="A397" s="5" t="n"/>
+      <c r="B397" s="5" t="n"/>
+    </row>
+    <row r="398" ht="87.75" customHeight="1" s="1">
+      <c r="A398" s="5" t="n"/>
+      <c r="B398" s="5" t="n"/>
+    </row>
+    <row r="399" ht="87.75" customHeight="1" s="1">
+      <c r="A399" s="5" t="n"/>
+      <c r="B399" s="5" t="n"/>
+    </row>
+    <row r="400" ht="87.75" customHeight="1" s="1">
+      <c r="A400" s="5" t="n"/>
+      <c r="B400" s="5" t="n"/>
+    </row>
+    <row r="401" ht="87.75" customHeight="1" s="1">
+      <c r="A401" s="5" t="n"/>
+      <c r="B401" s="5" t="n"/>
+    </row>
+    <row r="402" ht="87.75" customHeight="1" s="1">
+      <c r="A402" s="5" t="n"/>
+      <c r="B402" s="5" t="n"/>
+    </row>
+    <row r="403" ht="87.75" customHeight="1" s="1">
+      <c r="A403" s="5" t="n"/>
+      <c r="B403" s="5" t="n"/>
+    </row>
+    <row r="404" ht="87.75" customHeight="1" s="1">
+      <c r="A404" s="5" t="n"/>
+      <c r="B404" s="5" t="n"/>
+    </row>
+    <row r="405" ht="87.75" customHeight="1" s="1">
+      <c r="A405" s="5" t="n"/>
+      <c r="B405" s="5" t="n"/>
+    </row>
+    <row r="406" ht="87.75" customHeight="1" s="1">
+      <c r="A406" s="5" t="n"/>
+      <c r="B406" s="5" t="n"/>
+    </row>
+    <row r="407" ht="87.75" customHeight="1" s="1">
+      <c r="A407" s="5" t="n"/>
+      <c r="B407" s="5" t="n"/>
+    </row>
+    <row r="408" ht="87.75" customHeight="1" s="1">
+      <c r="A408" s="5" t="n"/>
+      <c r="B408" s="5" t="n"/>
+    </row>
+    <row r="409" ht="87.75" customHeight="1" s="1">
+      <c r="A409" s="5" t="n"/>
+      <c r="B409" s="5" t="n"/>
+    </row>
+    <row r="410" ht="87.75" customHeight="1" s="1">
+      <c r="A410" s="5" t="n"/>
+      <c r="B410" s="5" t="n"/>
+    </row>
+    <row r="411" ht="87.75" customHeight="1" s="1">
+      <c r="A411" s="5" t="n"/>
+      <c r="B411" s="5" t="n"/>
+    </row>
+    <row r="412" ht="87.75" customHeight="1" s="1">
+      <c r="A412" s="5" t="n"/>
+      <c r="B412" s="5" t="n"/>
+    </row>
+    <row r="413" ht="87.75" customHeight="1" s="1">
+      <c r="A413" s="5" t="n"/>
+      <c r="B413" s="5" t="n"/>
+    </row>
+    <row r="414" ht="87.75" customHeight="1" s="1">
+      <c r="A414" s="5" t="n"/>
+      <c r="B414" s="5" t="n"/>
+    </row>
+    <row r="415" ht="87.75" customHeight="1" s="1">
+      <c r="A415" s="5" t="n"/>
+      <c r="B415" s="5" t="n"/>
+    </row>
+    <row r="416" ht="87.75" customHeight="1" s="1">
+      <c r="A416" s="5" t="n"/>
+      <c r="B416" s="5" t="n"/>
+    </row>
+    <row r="417" ht="87.75" customHeight="1" s="1">
+      <c r="A417" s="5" t="n"/>
+      <c r="B417" s="5" t="n"/>
+    </row>
+    <row r="418" ht="87.75" customHeight="1" s="1">
+      <c r="A418" s="5" t="n"/>
+      <c r="B418" s="5" t="n"/>
+    </row>
+    <row r="419" ht="87.75" customHeight="1" s="1">
+      <c r="A419" s="5" t="n"/>
+      <c r="B419" s="5" t="n"/>
+    </row>
+    <row r="420" ht="87.75" customHeight="1" s="1">
+      <c r="A420" s="5" t="n"/>
+      <c r="B420" s="5" t="n"/>
+    </row>
+    <row r="421" ht="87.75" customHeight="1" s="1">
+      <c r="A421" s="5" t="n"/>
+      <c r="B421" s="5" t="n"/>
+    </row>
+    <row r="422" ht="87.75" customHeight="1" s="1">
+      <c r="A422" s="5" t="n"/>
+      <c r="B422" s="5" t="n"/>
+    </row>
+    <row r="423" ht="87.75" customHeight="1" s="1">
+      <c r="A423" s="5" t="n"/>
+      <c r="B423" s="5" t="n"/>
+    </row>
+    <row r="424" ht="87.75" customHeight="1" s="1">
+      <c r="A424" s="5" t="n"/>
+      <c r="B424" s="5" t="n"/>
+    </row>
+    <row r="425" ht="87.75" customHeight="1" s="1">
+      <c r="A425" s="5" t="n"/>
+      <c r="B425" s="5" t="n"/>
+    </row>
+    <row r="426" ht="87.75" customHeight="1" s="1">
+      <c r="A426" s="5" t="n"/>
+      <c r="B426" s="5" t="n"/>
+    </row>
+    <row r="427" ht="87.75" customHeight="1" s="1">
+      <c r="A427" s="5" t="n"/>
+      <c r="B427" s="5" t="n"/>
+    </row>
+    <row r="428" ht="87.75" customHeight="1" s="1">
+      <c r="A428" s="5" t="n"/>
+      <c r="B428" s="5" t="n"/>
+    </row>
+    <row r="429" ht="87.75" customHeight="1" s="1">
+      <c r="A429" s="5" t="n"/>
+      <c r="B429" s="5" t="n"/>
+    </row>
+    <row r="430" ht="87.75" customHeight="1" s="1">
+      <c r="A430" s="5" t="n"/>
+      <c r="B430" s="5" t="n"/>
+    </row>
+    <row r="431" ht="87.75" customHeight="1" s="1">
+      <c r="A431" s="5" t="n"/>
+      <c r="B431" s="5" t="n"/>
+    </row>
+    <row r="432" ht="87.75" customHeight="1" s="1">
+      <c r="A432" s="5" t="n"/>
+      <c r="B432" s="5" t="n"/>
+    </row>
+    <row r="433" ht="87.75" customHeight="1" s="1">
+      <c r="A433" s="5" t="n"/>
+      <c r="B433" s="5" t="n"/>
+    </row>
+    <row r="434" ht="87.75" customHeight="1" s="1">
+      <c r="A434" s="5" t="n"/>
+      <c r="B434" s="5" t="n"/>
+    </row>
+    <row r="435" ht="87.75" customHeight="1" s="1">
+      <c r="A435" s="5" t="n"/>
+      <c r="B435" s="5" t="n"/>
+    </row>
+    <row r="436" ht="87.75" customHeight="1" s="1">
+      <c r="A436" s="5" t="n"/>
+      <c r="B436" s="5" t="n"/>
+    </row>
+    <row r="437" ht="87.75" customHeight="1" s="1">
+      <c r="A437" s="5" t="n"/>
+      <c r="B437" s="5" t="n"/>
+    </row>
+    <row r="438" ht="87.75" customHeight="1" s="1">
+      <c r="A438" s="5" t="n"/>
+      <c r="B438" s="5" t="n"/>
+    </row>
+    <row r="439" ht="87.75" customHeight="1" s="1">
+      <c r="A439" s="5" t="n"/>
+      <c r="B439" s="5" t="n"/>
+    </row>
+    <row r="440" ht="87.75" customHeight="1" s="1">
+      <c r="A440" s="5" t="n"/>
+      <c r="B440" s="5" t="n"/>
+    </row>
+    <row r="441" ht="87.75" customHeight="1" s="1">
+      <c r="A441" s="5" t="n"/>
+      <c r="B441" s="5" t="n"/>
+    </row>
+    <row r="442" ht="87.75" customHeight="1" s="1">
+      <c r="A442" s="5" t="n"/>
+      <c r="B442" s="5" t="n"/>
+    </row>
+    <row r="443" ht="87.75" customHeight="1" s="1">
+      <c r="A443" s="5" t="n"/>
+      <c r="B443" s="5" t="n"/>
+    </row>
+    <row r="444" ht="87.75" customHeight="1" s="1">
+      <c r="A444" s="5" t="n"/>
+      <c r="B444" s="5" t="n"/>
+    </row>
+    <row r="445" ht="87.75" customHeight="1" s="1">
+      <c r="A445" s="5" t="n"/>
+      <c r="B445" s="5" t="n"/>
+    </row>
+    <row r="446" ht="87.75" customHeight="1" s="1">
+      <c r="A446" s="5" t="n"/>
+      <c r="B446" s="5" t="n"/>
+    </row>
+    <row r="447" ht="87.75" customHeight="1" s="1">
+      <c r="A447" s="5" t="n"/>
+      <c r="B447" s="5" t="n"/>
+    </row>
+    <row r="448" ht="87.75" customHeight="1" s="1">
+      <c r="A448" s="5" t="n"/>
+      <c r="B448" s="5" t="n"/>
+    </row>
+    <row r="449" ht="87.75" customHeight="1" s="1">
+      <c r="A449" s="5" t="n"/>
+      <c r="B449" s="5" t="n"/>
+    </row>
+    <row r="450" ht="87.75" customHeight="1" s="1">
+      <c r="A450" s="5" t="n"/>
+      <c r="B450" s="5" t="n"/>
+    </row>
+    <row r="451" ht="87.75" customHeight="1" s="1">
+      <c r="A451" s="5" t="n"/>
+      <c r="B451" s="5" t="n"/>
+    </row>
+    <row r="452" ht="87.75" customHeight="1" s="1">
+      <c r="A452" s="5" t="n"/>
+      <c r="B452" s="5" t="n"/>
+    </row>
+    <row r="453" ht="87.75" customHeight="1" s="1">
+      <c r="A453" s="5" t="n"/>
+      <c r="B453" s="5" t="n"/>
+    </row>
+    <row r="454" ht="87.75" customHeight="1" s="1">
+      <c r="A454" s="5" t="n"/>
+      <c r="B454" s="5" t="n"/>
+    </row>
+    <row r="455" ht="87.75" customHeight="1" s="1">
+      <c r="A455" s="5" t="n"/>
+      <c r="B455" s="5" t="n"/>
+    </row>
+    <row r="456" ht="87.75" customHeight="1" s="1">
+      <c r="A456" s="5" t="n"/>
+      <c r="B456" s="5" t="n"/>
+    </row>
+    <row r="457" ht="87.75" customHeight="1" s="1">
+      <c r="A457" s="5" t="n"/>
+      <c r="B457" s="5" t="n"/>
+    </row>
+    <row r="458" ht="87.75" customHeight="1" s="1">
+      <c r="A458" s="5" t="n"/>
+      <c r="B458" s="5" t="n"/>
+    </row>
+    <row r="459" ht="87.75" customHeight="1" s="1">
+      <c r="A459" s="5" t="n"/>
+      <c r="B459" s="5" t="n"/>
+    </row>
+    <row r="460" ht="87.75" customHeight="1" s="1">
+      <c r="A460" s="5" t="n"/>
+      <c r="B460" s="5" t="n"/>
+    </row>
+    <row r="461" ht="87.75" customHeight="1" s="1">
+      <c r="A461" s="5" t="n"/>
+      <c r="B461" s="5" t="n"/>
+    </row>
+    <row r="462" ht="87.75" customHeight="1" s="1">
+      <c r="A462" s="5" t="n"/>
+      <c r="B462" s="5" t="n"/>
+    </row>
+    <row r="463" ht="87.75" customHeight="1" s="1">
+      <c r="A463" s="5" t="n"/>
+      <c r="B463" s="5" t="n"/>
+    </row>
+    <row r="464" ht="87.75" customHeight="1" s="1">
+      <c r="A464" s="5" t="n"/>
+      <c r="B464" s="5" t="n"/>
+    </row>
+    <row r="465" ht="87.75" customHeight="1" s="1">
+      <c r="A465" s="5" t="n"/>
+      <c r="B465" s="5" t="n"/>
+    </row>
+    <row r="466" ht="87.75" customHeight="1" s="1">
+      <c r="A466" s="5" t="n"/>
+      <c r="B466" s="5" t="n"/>
+    </row>
+    <row r="467" ht="87.75" customHeight="1" s="1">
+      <c r="A467" s="5" t="n"/>
+      <c r="B467" s="5" t="n"/>
+    </row>
+    <row r="468" ht="87.75" customHeight="1" s="1">
+      <c r="A468" s="5" t="n"/>
+      <c r="B468" s="5" t="n"/>
+    </row>
+    <row r="469" ht="87.75" customHeight="1" s="1">
+      <c r="A469" s="5" t="n"/>
+      <c r="B469" s="5" t="n"/>
+    </row>
+    <row r="470" ht="87.75" customHeight="1" s="1">
+      <c r="A470" s="5" t="n"/>
+      <c r="B470" s="5" t="n"/>
+    </row>
+    <row r="471" ht="87.75" customHeight="1" s="1">
+      <c r="A471" s="5" t="n"/>
+      <c r="B471" s="5" t="n"/>
+    </row>
+    <row r="472" ht="87.75" customHeight="1" s="1">
+      <c r="A472" s="5" t="n"/>
+      <c r="B472" s="5" t="n"/>
+    </row>
+    <row r="473" ht="87.75" customHeight="1" s="1">
+      <c r="A473" s="5" t="n"/>
+      <c r="B473" s="5" t="n"/>
+    </row>
+    <row r="474" ht="87.75" customHeight="1" s="1">
+      <c r="A474" s="5" t="n"/>
+      <c r="B474" s="5" t="n"/>
+    </row>
+    <row r="475" ht="87.75" customHeight="1" s="1">
+      <c r="A475" s="5" t="n"/>
+      <c r="B475" s="5" t="n"/>
+    </row>
+    <row r="476" ht="87.75" customHeight="1" s="1">
+      <c r="A476" s="5" t="n"/>
+      <c r="B476" s="5" t="n"/>
+    </row>
+    <row r="477" ht="87.75" customHeight="1" s="1">
+      <c r="A477" s="5" t="n"/>
+      <c r="B477" s="5" t="n"/>
+    </row>
+    <row r="478" ht="87.75" customHeight="1" s="1">
+      <c r="A478" s="5" t="n"/>
+      <c r="B478" s="5" t="n"/>
+    </row>
+    <row r="479" ht="87.75" customHeight="1" s="1">
+      <c r="A479" s="5" t="n"/>
+      <c r="B479" s="5" t="n"/>
+    </row>
+    <row r="480" ht="87.75" customHeight="1" s="1">
+      <c r="A480" s="5" t="n"/>
+      <c r="B480" s="5" t="n"/>
+    </row>
+    <row r="481" ht="87.75" customHeight="1" s="1">
+      <c r="A481" s="5" t="n"/>
+      <c r="B481" s="5" t="n"/>
+    </row>
+    <row r="482" ht="87.75" customHeight="1" s="1">
+      <c r="A482" s="5" t="n"/>
+      <c r="B482" s="5" t="n"/>
+    </row>
+    <row r="483" ht="87.75" customHeight="1" s="1">
+      <c r="A483" s="5" t="n"/>
+      <c r="B483" s="5" t="n"/>
+    </row>
+    <row r="484" ht="87.75" customHeight="1" s="1">
+      <c r="A484" s="5" t="n"/>
+      <c r="B484" s="5" t="n"/>
+    </row>
+    <row r="485" ht="87.75" customHeight="1" s="1">
+      <c r="A485" s="5" t="n"/>
+      <c r="B485" s="5" t="n"/>
+    </row>
+    <row r="486" ht="87.75" customHeight="1" s="1">
+      <c r="A486" s="5" t="n"/>
+      <c r="B486" s="5" t="n"/>
+    </row>
+    <row r="487" ht="87.75" customHeight="1" s="1">
+      <c r="A487" s="5" t="n"/>
+      <c r="B487" s="5" t="n"/>
+    </row>
+    <row r="488" ht="87.75" customHeight="1" s="1">
+      <c r="A488" s="5" t="n"/>
+      <c r="B488" s="5" t="n"/>
+    </row>
+    <row r="489" ht="87.75" customHeight="1" s="1">
+      <c r="A489" s="5" t="n"/>
+      <c r="B489" s="5" t="n"/>
+    </row>
+    <row r="490" ht="87.75" customHeight="1" s="1">
+      <c r="A490" s="5" t="n"/>
+      <c r="B490" s="5" t="n"/>
+    </row>
+    <row r="491" ht="87.75" customHeight="1" s="1">
+      <c r="A491" s="5" t="n"/>
+      <c r="B491" s="5" t="n"/>
+    </row>
+    <row r="492" ht="87.75" customHeight="1" s="1">
+      <c r="A492" s="5" t="n"/>
+      <c r="B492" s="5" t="n"/>
+    </row>
+    <row r="493" ht="87.75" customHeight="1" s="1">
+      <c r="A493" s="5" t="n"/>
+      <c r="B493" s="5" t="n"/>
+    </row>
+    <row r="494" ht="87.75" customHeight="1" s="1">
+      <c r="A494" s="5" t="n"/>
+      <c r="B494" s="5" t="n"/>
+    </row>
+    <row r="495" ht="87.75" customHeight="1" s="1">
+      <c r="A495" s="5" t="n"/>
+      <c r="B495" s="5" t="n"/>
+    </row>
+    <row r="496" ht="87.75" customHeight="1" s="1">
+      <c r="A496" s="5" t="n"/>
+      <c r="B496" s="5" t="n"/>
+    </row>
+    <row r="497" ht="87.75" customHeight="1" s="1">
+      <c r="A497" s="5" t="n"/>
+      <c r="B497" s="5" t="n"/>
+    </row>
+    <row r="498" ht="87.75" customHeight="1" s="1">
+      <c r="A498" s="5" t="n"/>
+      <c r="B498" s="5" t="n"/>
+    </row>
+    <row r="499" ht="87.75" customHeight="1" s="1">
+      <c r="A499" s="5" t="n"/>
+      <c r="B499" s="5" t="n"/>
+    </row>
+    <row r="500" ht="87.75" customHeight="1" s="1">
+      <c r="A500" s="5" t="n"/>
+      <c r="B500" s="5" t="n"/>
+    </row>
+    <row r="501" ht="87.75" customHeight="1" s="1">
+      <c r="A501" s="5" t="n"/>
+      <c r="B501" s="5" t="n"/>
+    </row>
+    <row r="502" ht="87.75" customHeight="1" s="1">
+      <c r="A502" s="5" t="n"/>
+      <c r="B502" s="5" t="n"/>
+    </row>
+    <row r="503" ht="87.75" customHeight="1" s="1">
+      <c r="A503" s="5" t="n"/>
+      <c r="B503" s="5" t="n"/>
+    </row>
+    <row r="504" ht="87.75" customHeight="1" s="1">
+      <c r="A504" s="5" t="n"/>
+      <c r="B504" s="5" t="n"/>
+    </row>
+    <row r="505" ht="87.75" customHeight="1" s="1">
+      <c r="A505" s="5" t="n"/>
+      <c r="B505" s="5" t="n"/>
+    </row>
+    <row r="506" ht="87.75" customHeight="1" s="1">
+      <c r="A506" s="5" t="n"/>
+      <c r="B506" s="5" t="n"/>
+    </row>
+    <row r="507" ht="87.75" customHeight="1" s="1">
+      <c r="A507" s="5" t="n"/>
+      <c r="B507" s="5" t="n"/>
+    </row>
+    <row r="508" ht="87.75" customHeight="1" s="1">
+      <c r="A508" s="5" t="n"/>
+      <c r="B508" s="5" t="n"/>
+    </row>
+    <row r="509" ht="87.75" customHeight="1" s="1">
+      <c r="A509" s="5" t="n"/>
+      <c r="B509" s="5" t="n"/>
+    </row>
+    <row r="510" ht="87.75" customHeight="1" s="1">
+      <c r="A510" s="5" t="n"/>
+      <c r="B510" s="5" t="n"/>
+    </row>
+    <row r="511" ht="87.75" customHeight="1" s="1">
+      <c r="A511" s="5" t="n"/>
+      <c r="B511" s="5" t="n"/>
+    </row>
+    <row r="512" ht="87.75" customHeight="1" s="1">
+      <c r="A512" s="5" t="n"/>
+      <c r="B512" s="5" t="n"/>
+    </row>
+    <row r="513" ht="87.75" customHeight="1" s="1">
+      <c r="A513" s="5" t="n"/>
+      <c r="B513" s="5" t="n"/>
+    </row>
+    <row r="514" ht="87.75" customHeight="1" s="1">
+      <c r="A514" s="5" t="n"/>
+      <c r="B514" s="5" t="n"/>
+    </row>
+    <row r="515" ht="87.75" customHeight="1" s="1">
+      <c r="A515" s="5" t="n"/>
+      <c r="B515" s="5" t="n"/>
+    </row>
+    <row r="516" ht="87.75" customHeight="1" s="1">
+      <c r="A516" s="5" t="n"/>
+      <c r="B516" s="5" t="n"/>
+    </row>
+    <row r="517" ht="87.75" customHeight="1" s="1">
+      <c r="A517" s="5" t="n"/>
+      <c r="B517" s="5" t="n"/>
+    </row>
+    <row r="518" ht="87.75" customHeight="1" s="1">
+      <c r="A518" s="5" t="n"/>
+      <c r="B518" s="5" t="n"/>
+    </row>
+    <row r="519" ht="87.75" customHeight="1" s="1">
+      <c r="A519" s="5" t="n"/>
+      <c r="B519" s="5" t="n"/>
+    </row>
+    <row r="520" ht="87.75" customHeight="1" s="1">
+      <c r="A520" s="5" t="n"/>
+      <c r="B520" s="5" t="n"/>
+    </row>
+    <row r="521" ht="87.75" customHeight="1" s="1">
+      <c r="A521" s="5" t="n"/>
+      <c r="B521" s="5" t="n"/>
+    </row>
+    <row r="522" ht="87.75" customHeight="1" s="1">
+      <c r="A522" s="5" t="n"/>
+      <c r="B522" s="5" t="n"/>
+    </row>
+    <row r="523" ht="87.75" customHeight="1" s="1">
+      <c r="A523" s="5" t="n"/>
+      <c r="B523" s="5" t="n"/>
+    </row>
+    <row r="524" ht="87.75" customHeight="1" s="1">
+      <c r="A524" s="5" t="n"/>
+      <c r="B524" s="5" t="n"/>
+    </row>
+    <row r="525" ht="87.75" customHeight="1" s="1">
+      <c r="A525" s="5" t="n"/>
+      <c r="B525" s="5" t="n"/>
+    </row>
+    <row r="526" ht="87.75" customHeight="1" s="1">
+      <c r="A526" s="5" t="n"/>
+      <c r="B526" s="5" t="n"/>
+    </row>
+    <row r="527" ht="87.75" customHeight="1" s="1">
+      <c r="A527" s="5" t="n"/>
+      <c r="B527" s="5" t="n"/>
+    </row>
+    <row r="528" ht="87.75" customHeight="1" s="1">
+      <c r="A528" s="5" t="n"/>
+      <c r="B528" s="5" t="n"/>
+    </row>
+    <row r="529" ht="87.75" customHeight="1" s="1">
+      <c r="A529" s="5" t="n"/>
+      <c r="B529" s="5" t="n"/>
+    </row>
+    <row r="530" ht="87.75" customHeight="1" s="1">
+      <c r="A530" s="5" t="n"/>
+      <c r="B530" s="5" t="n"/>
+    </row>
+    <row r="531" ht="87.75" customHeight="1" s="1">
+      <c r="A531" s="5" t="n"/>
+      <c r="B531" s="5" t="n"/>
+    </row>
+    <row r="532" ht="87.75" customHeight="1" s="1">
+      <c r="A532" s="5" t="n"/>
+      <c r="B532" s="5" t="n"/>
+    </row>
+    <row r="533" ht="87.75" customHeight="1" s="1">
+      <c r="A533" s="5" t="n"/>
+      <c r="B533" s="5" t="n"/>
+    </row>
+    <row r="534" ht="87.75" customHeight="1" s="1">
+      <c r="A534" s="5" t="n"/>
+      <c r="B534" s="5" t="n"/>
+    </row>
+    <row r="535" ht="87.75" customHeight="1" s="1">
+      <c r="A535" s="5" t="n"/>
+      <c r="B535" s="5" t="n"/>
+    </row>
+    <row r="536" ht="87.75" customHeight="1" s="1">
+      <c r="A536" s="5" t="n"/>
+      <c r="B536" s="5" t="n"/>
+    </row>
+    <row r="537" ht="87.75" customHeight="1" s="1">
+      <c r="A537" s="5" t="n"/>
+      <c r="B537" s="5" t="n"/>
+    </row>
+    <row r="538" ht="87.75" customHeight="1" s="1">
+      <c r="A538" s="5" t="n"/>
+      <c r="B538" s="5" t="n"/>
+    </row>
+    <row r="539" ht="87.75" customHeight="1" s="1">
+      <c r="A539" s="5" t="n"/>
+      <c r="B539" s="5" t="n"/>
+    </row>
+    <row r="540" ht="87.75" customHeight="1" s="1">
+      <c r="A540" s="5" t="n"/>
+      <c r="B540" s="5" t="n"/>
+    </row>
+    <row r="541" ht="87.75" customHeight="1" s="1">
+      <c r="A541" s="5" t="n"/>
+      <c r="B541" s="5" t="n"/>
+    </row>
+    <row r="542" ht="87.75" customHeight="1" s="1">
+      <c r="A542" s="5" t="n"/>
+      <c r="B542" s="5" t="n"/>
+    </row>
+    <row r="543" ht="87.75" customHeight="1" s="1">
+      <c r="A543" s="5" t="n"/>
+      <c r="B543" s="5" t="n"/>
+    </row>
+    <row r="544" ht="87.75" customHeight="1" s="1">
+      <c r="A544" s="5" t="n"/>
+      <c r="B544" s="5" t="n"/>
+    </row>
+    <row r="545" ht="87.75" customHeight="1" s="1">
+      <c r="A545" s="5" t="n"/>
+      <c r="B545" s="5" t="n"/>
+    </row>
+    <row r="546" ht="87.75" customHeight="1" s="1">
+      <c r="A546" s="5" t="n"/>
+      <c r="B546" s="5" t="n"/>
+    </row>
+    <row r="547" ht="87.75" customHeight="1" s="1">
+      <c r="A547" s="5" t="n"/>
+      <c r="B547" s="5" t="n"/>
+    </row>
+    <row r="548" ht="87.75" customHeight="1" s="1">
+      <c r="A548" s="5" t="n"/>
+      <c r="B548" s="5" t="n"/>
+    </row>
+    <row r="549" ht="87.75" customHeight="1" s="1">
+      <c r="A549" s="5" t="n"/>
+      <c r="B549" s="5" t="n"/>
+    </row>
+    <row r="550" ht="87.75" customHeight="1" s="1">
+      <c r="A550" s="5" t="n"/>
+      <c r="B550" s="5" t="n"/>
+    </row>
+    <row r="551" ht="87.75" customHeight="1" s="1">
+      <c r="A551" s="5" t="n"/>
+      <c r="B551" s="5" t="n"/>
+    </row>
+    <row r="552" ht="87.75" customHeight="1" s="1">
+      <c r="A552" s="5" t="n"/>
+      <c r="B552" s="5" t="n"/>
+    </row>
+    <row r="553" ht="87.75" customHeight="1" s="1">
+      <c r="A553" s="5" t="n"/>
+      <c r="B553" s="5" t="n"/>
+    </row>
+    <row r="554" ht="87.75" customHeight="1" s="1">
+      <c r="A554" s="5" t="n"/>
+      <c r="B554" s="5" t="n"/>
+    </row>
+    <row r="555" ht="87.75" customHeight="1" s="1">
+      <c r="A555" s="5" t="n"/>
+      <c r="B555" s="5" t="n"/>
+    </row>
+    <row r="556" ht="87.75" customHeight="1" s="1">
+      <c r="A556" s="5" t="n"/>
+      <c r="B556" s="5" t="n"/>
+    </row>
+    <row r="557" ht="87.75" customHeight="1" s="1">
+      <c r="A557" s="5" t="n"/>
+      <c r="B557" s="5" t="n"/>
+    </row>
+    <row r="558" ht="87.75" customHeight="1" s="1">
+      <c r="A558" s="5" t="n"/>
+      <c r="B558" s="5" t="n"/>
+    </row>
+    <row r="559" ht="87.75" customHeight="1" s="1">
+      <c r="A559" s="5" t="n"/>
+      <c r="B559" s="5" t="n"/>
+    </row>
+    <row r="560" ht="87.75" customHeight="1" s="1">
+      <c r="A560" s="5" t="n"/>
+      <c r="B560" s="5" t="n"/>
+    </row>
+    <row r="561" ht="87.75" customHeight="1" s="1">
+      <c r="A561" s="5" t="n"/>
+      <c r="B561" s="5" t="n"/>
+    </row>
+    <row r="562" ht="87.75" customHeight="1" s="1">
+      <c r="A562" s="5" t="n"/>
+      <c r="B562" s="5" t="n"/>
+    </row>
+    <row r="563" ht="87.75" customHeight="1" s="1">
+      <c r="A563" s="5" t="n"/>
+      <c r="B563" s="5" t="n"/>
+    </row>
+    <row r="564" ht="87.75" customHeight="1" s="1">
+      <c r="A564" s="5" t="n"/>
+      <c r="B564" s="5" t="n"/>
+    </row>
+    <row r="565" ht="87.75" customHeight="1" s="1">
+      <c r="A565" s="5" t="n"/>
+      <c r="B565" s="5" t="n"/>
+    </row>
+    <row r="566" ht="87.75" customHeight="1" s="1">
+      <c r="A566" s="5" t="n"/>
+      <c r="B566" s="5" t="n"/>
+    </row>
+    <row r="567" ht="87.75" customHeight="1" s="1">
+      <c r="A567" s="5" t="n"/>
+      <c r="B567" s="5" t="n"/>
+    </row>
+    <row r="568" ht="87.75" customHeight="1" s="1">
+      <c r="A568" s="5" t="n"/>
+      <c r="B568" s="5" t="n"/>
+    </row>
+    <row r="569" ht="87.75" customHeight="1" s="1">
+      <c r="A569" s="5" t="n"/>
+      <c r="B569" s="5" t="n"/>
+    </row>
+    <row r="570" ht="87.75" customHeight="1" s="1">
+      <c r="A570" s="5" t="n"/>
+      <c r="B570" s="5" t="n"/>
+    </row>
+    <row r="571" ht="87.75" customHeight="1" s="1">
+      <c r="A571" s="5" t="n"/>
+      <c r="B571" s="5" t="n"/>
+    </row>
+    <row r="572" ht="87.75" customHeight="1" s="1">
+      <c r="A572" s="5" t="n"/>
+      <c r="B572" s="5" t="n"/>
+    </row>
+    <row r="573" ht="87.75" customHeight="1" s="1">
+      <c r="A573" s="5" t="n"/>
+      <c r="B573" s="5" t="n"/>
+    </row>
+    <row r="574" ht="87.75" customHeight="1" s="1">
+      <c r="A574" s="5" t="n"/>
+      <c r="B574" s="5" t="n"/>
+    </row>
+    <row r="575" ht="87.75" customHeight="1" s="1">
+      <c r="A575" s="5" t="n"/>
+      <c r="B575" s="5" t="n"/>
+    </row>
+    <row r="576" ht="87.75" customHeight="1" s="1">
+      <c r="A576" s="5" t="n"/>
+      <c r="B576" s="5" t="n"/>
+    </row>
+    <row r="577" ht="87.75" customHeight="1" s="1">
+      <c r="A577" s="5" t="n"/>
+      <c r="B577" s="5" t="n"/>
+    </row>
+    <row r="578" ht="87.75" customHeight="1" s="1">
+      <c r="A578" s="5" t="n"/>
+      <c r="B578" s="5" t="n"/>
+    </row>
+    <row r="579" ht="87.75" customHeight="1" s="1">
+      <c r="A579" s="5" t="n"/>
+      <c r="B579" s="5" t="n"/>
+    </row>
+    <row r="580" ht="87.75" customHeight="1" s="1">
+      <c r="A580" s="5" t="n"/>
+      <c r="B580" s="5" t="n"/>
+    </row>
+    <row r="581" ht="87.75" customHeight="1" s="1">
+      <c r="A581" s="5" t="n"/>
+      <c r="B581" s="5" t="n"/>
+    </row>
+    <row r="582" ht="87.75" customHeight="1" s="1">
+      <c r="A582" s="5" t="n"/>
+      <c r="B582" s="5" t="n"/>
+    </row>
+    <row r="583" ht="87.75" customHeight="1" s="1">
+      <c r="A583" s="5" t="n"/>
+      <c r="B583" s="5" t="n"/>
+    </row>
+    <row r="584" ht="87.75" customHeight="1" s="1">
+      <c r="A584" s="5" t="n"/>
+      <c r="B584" s="5" t="n"/>
+    </row>
+    <row r="585" ht="87.75" customHeight="1" s="1">
+      <c r="A585" s="5" t="n"/>
+      <c r="B585" s="5" t="n"/>
+    </row>
+    <row r="586" ht="87.75" customHeight="1" s="1">
+      <c r="A586" s="5" t="n"/>
+      <c r="B586" s="5" t="n"/>
+    </row>
+    <row r="587" ht="87.75" customHeight="1" s="1">
+      <c r="A587" s="5" t="n"/>
+      <c r="B587" s="5" t="n"/>
+    </row>
+    <row r="588" ht="87.75" customHeight="1" s="1">
+      <c r="A588" s="5" t="n"/>
+      <c r="B588" s="5" t="n"/>
+    </row>
+    <row r="589" ht="87.75" customHeight="1" s="1">
+      <c r="A589" s="5" t="n"/>
+      <c r="B589" s="5" t="n"/>
+    </row>
+    <row r="590" ht="87.75" customHeight="1" s="1">
+      <c r="A590" s="5" t="n"/>
+      <c r="B590" s="5" t="n"/>
+    </row>
+    <row r="591" ht="87.75" customHeight="1" s="1">
+      <c r="A591" s="5" t="n"/>
+      <c r="B591" s="5" t="n"/>
+    </row>
+    <row r="592" ht="87.75" customHeight="1" s="1">
+      <c r="A592" s="5" t="n"/>
+      <c r="B592" s="5" t="n"/>
+    </row>
+    <row r="593" ht="87.75" customHeight="1" s="1">
+      <c r="A593" s="5" t="n"/>
+      <c r="B593" s="5" t="n"/>
+    </row>
+    <row r="594" ht="87.75" customHeight="1" s="1">
+      <c r="A594" s="5" t="n"/>
+      <c r="B594" s="5" t="n"/>
+    </row>
+    <row r="595" ht="87.75" customHeight="1" s="1">
+      <c r="A595" s="5" t="n"/>
+      <c r="B595" s="5" t="n"/>
+    </row>
+    <row r="596" ht="87.75" customHeight="1" s="1">
+      <c r="A596" s="5" t="n"/>
+      <c r="B596" s="5" t="n"/>
+    </row>
+    <row r="597" ht="87.75" customHeight="1" s="1">
+      <c r="A597" s="5" t="n"/>
+      <c r="B597" s="5" t="n"/>
+    </row>
+    <row r="598" ht="87.75" customHeight="1" s="1">
+      <c r="A598" s="5" t="n"/>
+      <c r="B598" s="5" t="n"/>
+    </row>
+    <row r="599" ht="87.75" customHeight="1" s="1">
+      <c r="A599" s="5" t="n"/>
+      <c r="B599" s="5" t="n"/>
+    </row>
+    <row r="600" ht="87.75" customHeight="1" s="1">
+      <c r="A600" s="5" t="n"/>
+      <c r="B600" s="5" t="n"/>
+    </row>
+    <row r="601" ht="87.75" customHeight="1" s="1">
+      <c r="A601" s="5" t="n"/>
+      <c r="B601" s="5" t="n"/>
+    </row>
+    <row r="602" ht="87.75" customHeight="1" s="1">
+      <c r="A602" s="5" t="n"/>
+      <c r="B602" s="5" t="n"/>
+    </row>
+    <row r="603" ht="87.75" customHeight="1" s="1">
+      <c r="A603" s="5" t="n"/>
+      <c r="B603" s="5" t="n"/>
+    </row>
+    <row r="604" ht="87.75" customHeight="1" s="1">
+      <c r="A604" s="5" t="n"/>
+      <c r="B604" s="5" t="n"/>
+    </row>
+    <row r="605" ht="87.75" customHeight="1" s="1">
+      <c r="A605" s="5" t="n"/>
+      <c r="B605" s="5" t="n"/>
+    </row>
+    <row r="606" ht="87.75" customHeight="1" s="1">
+      <c r="A606" s="5" t="n"/>
+      <c r="B606" s="5" t="n"/>
+    </row>
+    <row r="607" ht="87.75" customHeight="1" s="1">
+      <c r="A607" s="5" t="n"/>
+      <c r="B607" s="5" t="n"/>
+    </row>
+    <row r="608" ht="87.75" customHeight="1" s="1">
+      <c r="A608" s="5" t="n"/>
+      <c r="B608" s="5" t="n"/>
+    </row>
+    <row r="609" ht="87.75" customHeight="1" s="1">
+      <c r="A609" s="5" t="n"/>
+      <c r="B609" s="5" t="n"/>
+    </row>
+    <row r="610" ht="87.75" customHeight="1" s="1">
+      <c r="A610" s="5" t="n"/>
+      <c r="B610" s="5" t="n"/>
+    </row>
+    <row r="611" ht="87.75" customHeight="1" s="1">
+      <c r="A611" s="5" t="n"/>
+      <c r="B611" s="5" t="n"/>
+    </row>
+    <row r="612" ht="87.75" customHeight="1" s="1">
+      <c r="A612" s="5" t="n"/>
+      <c r="B612" s="5" t="n"/>
+    </row>
+    <row r="613" ht="87.75" customHeight="1" s="1">
+      <c r="A613" s="5" t="n"/>
+      <c r="B613" s="5" t="n"/>
+    </row>
+    <row r="614" ht="87.75" customHeight="1" s="1">
+      <c r="A614" s="5" t="n"/>
+      <c r="B614" s="5" t="n"/>
+    </row>
+    <row r="615" ht="87.75" customHeight="1" s="1">
+      <c r="A615" s="5" t="n"/>
+      <c r="B615" s="5" t="n"/>
+    </row>
+    <row r="616" ht="87.75" customHeight="1" s="1">
+      <c r="A616" s="5" t="n"/>
+      <c r="B616" s="5" t="n"/>
+    </row>
+    <row r="617" ht="87.75" customHeight="1" s="1">
+      <c r="A617" s="5" t="n"/>
+      <c r="B617" s="5" t="n"/>
+    </row>
+    <row r="618" ht="87.75" customHeight="1" s="1">
+      <c r="A618" s="5" t="n"/>
+      <c r="B618" s="5" t="n"/>
+    </row>
+    <row r="619" ht="87.75" customHeight="1" s="1">
+      <c r="A619" s="5" t="n"/>
+      <c r="B619" s="5" t="n"/>
+    </row>
+    <row r="620" ht="87.75" customHeight="1" s="1">
+      <c r="A620" s="5" t="n"/>
+      <c r="B620" s="5" t="n"/>
+    </row>
+    <row r="621" ht="87.75" customHeight="1" s="1">
+      <c r="A621" s="5" t="n"/>
+      <c r="B621" s="5" t="n"/>
+    </row>
+    <row r="622" ht="87.75" customHeight="1" s="1">
+      <c r="A622" s="5" t="n"/>
+      <c r="B622" s="5" t="n"/>
+    </row>
+    <row r="623" ht="87.75" customHeight="1" s="1">
+      <c r="A623" s="5" t="n"/>
+      <c r="B623" s="5" t="n"/>
+    </row>
+    <row r="624" ht="87.75" customHeight="1" s="1">
+      <c r="A624" s="5" t="n"/>
+      <c r="B624" s="5" t="n"/>
+    </row>
+    <row r="625" ht="87.75" customHeight="1" s="1">
+      <c r="A625" s="5" t="n"/>
+      <c r="B625" s="5" t="n"/>
+    </row>
+    <row r="626" ht="87.75" customHeight="1" s="1">
+      <c r="A626" s="5" t="n"/>
+      <c r="B626" s="5" t="n"/>
+    </row>
+    <row r="627" ht="87.75" customHeight="1" s="1">
+      <c r="A627" s="5" t="n"/>
+      <c r="B627" s="5" t="n"/>
+    </row>
+    <row r="628" ht="87.75" customHeight="1" s="1">
+      <c r="A628" s="5" t="n"/>
+      <c r="B628" s="5" t="n"/>
+    </row>
+    <row r="629" ht="87.75" customHeight="1" s="1">
+      <c r="A629" s="5" t="n"/>
+      <c r="B629" s="5" t="n"/>
+    </row>
+    <row r="630" ht="87.75" customHeight="1" s="1">
+      <c r="A630" s="5" t="n"/>
+      <c r="B630" s="5" t="n"/>
+    </row>
+    <row r="631" ht="87.75" customHeight="1" s="1">
+      <c r="A631" s="5" t="n"/>
+      <c r="B631" s="5" t="n"/>
+    </row>
+    <row r="632" ht="87.75" customHeight="1" s="1">
+      <c r="A632" s="5" t="n"/>
+      <c r="B632" s="5" t="n"/>
+    </row>
+    <row r="633" ht="87.75" customHeight="1" s="1">
+      <c r="A633" s="5" t="n"/>
+      <c r="B633" s="5" t="n"/>
+    </row>
+    <row r="634" ht="87.75" customHeight="1" s="1">
+      <c r="A634" s="5" t="n"/>
+      <c r="B634" s="5" t="n"/>
+    </row>
+    <row r="635" ht="87.75" customHeight="1" s="1">
+      <c r="A635" s="5" t="n"/>
+      <c r="B635" s="5" t="n"/>
+    </row>
+    <row r="636" ht="87.75" customHeight="1" s="1">
+      <c r="A636" s="5" t="n"/>
+      <c r="B636" s="5" t="n"/>
+    </row>
+    <row r="637" ht="87.75" customHeight="1" s="1">
+      <c r="A637" s="5" t="n"/>
+      <c r="B637" s="5" t="n"/>
+    </row>
+    <row r="638" ht="87.75" customHeight="1" s="1">
+      <c r="A638" s="5" t="n"/>
+      <c r="B638" s="5" t="n"/>
+    </row>
+    <row r="639" ht="87.75" customHeight="1" s="1">
+      <c r="A639" s="5" t="n"/>
+      <c r="B639" s="5" t="n"/>
+    </row>
+    <row r="640" ht="87.75" customHeight="1" s="1">
+      <c r="A640" s="5" t="n"/>
+      <c r="B640" s="5" t="n"/>
+    </row>
+    <row r="641" ht="87.75" customHeight="1" s="1">
+      <c r="A641" s="5" t="n"/>
+      <c r="B641" s="5" t="n"/>
+    </row>
+    <row r="642" ht="87.75" customHeight="1" s="1">
+      <c r="A642" s="5" t="n"/>
+      <c r="B642" s="5" t="n"/>
+    </row>
+    <row r="643" ht="87.75" customHeight="1" s="1">
+      <c r="A643" s="5" t="n"/>
+      <c r="B643" s="5" t="n"/>
+    </row>
+    <row r="644" ht="87.75" customHeight="1" s="1">
+      <c r="A644" s="5" t="n"/>
+      <c r="B644" s="5" t="n"/>
+    </row>
+    <row r="645" ht="87.75" customHeight="1" s="1">
+      <c r="A645" s="5" t="n"/>
+      <c r="B645" s="5" t="n"/>
+    </row>
+    <row r="646" ht="87.75" customHeight="1" s="1">
+      <c r="A646" s="5" t="n"/>
+      <c r="B646" s="5" t="n"/>
+    </row>
+    <row r="647" ht="87.75" customHeight="1" s="1">
+      <c r="A647" s="5" t="n"/>
+      <c r="B647" s="5" t="n"/>
+    </row>
+    <row r="648" ht="87.75" customHeight="1" s="1">
+      <c r="A648" s="5" t="n"/>
+      <c r="B648" s="5" t="n"/>
+    </row>
+    <row r="649" ht="87.75" customHeight="1" s="1">
+      <c r="A649" s="5" t="n"/>
+      <c r="B649" s="5" t="n"/>
+    </row>
+    <row r="650" ht="87.75" customHeight="1" s="1">
+      <c r="A650" s="5" t="n"/>
+      <c r="B650" s="5" t="n"/>
+    </row>
+    <row r="651" ht="87.75" customHeight="1" s="1">
+      <c r="A651" s="5" t="n"/>
+      <c r="B651" s="5" t="n"/>
+    </row>
+    <row r="652" ht="87.75" customHeight="1" s="1">
+      <c r="A652" s="5" t="n"/>
+      <c r="B652" s="5" t="n"/>
+    </row>
+    <row r="653" ht="87.75" customHeight="1" s="1">
+      <c r="A653" s="5" t="n"/>
+      <c r="B653" s="5" t="n"/>
+    </row>
+    <row r="654" ht="87.75" customHeight="1" s="1">
+      <c r="A654" s="5" t="n"/>
+      <c r="B654" s="5" t="n"/>
+    </row>
+    <row r="655" ht="87.75" customHeight="1" s="1">
+      <c r="A655" s="5" t="n"/>
+      <c r="B655" s="5" t="n"/>
+    </row>
+    <row r="656" ht="87.75" customHeight="1" s="1">
+      <c r="A656" s="5" t="n"/>
+      <c r="B656" s="5" t="n"/>
+    </row>
+    <row r="657" ht="87.75" customHeight="1" s="1">
+      <c r="A657" s="5" t="n"/>
+      <c r="B657" s="5" t="n"/>
+    </row>
+    <row r="658" ht="87.75" customHeight="1" s="1">
+      <c r="A658" s="5" t="n"/>
+      <c r="B658" s="5" t="n"/>
+    </row>
+    <row r="659" ht="87.75" customHeight="1" s="1">
+      <c r="A659" s="5" t="n"/>
+      <c r="B659" s="5" t="n"/>
+    </row>
+    <row r="660" ht="87.75" customHeight="1" s="1">
+      <c r="A660" s="5" t="n"/>
+      <c r="B660" s="5" t="n"/>
+    </row>
+    <row r="661" ht="87.75" customHeight="1" s="1">
+      <c r="A661" s="5" t="n"/>
+      <c r="B661" s="5" t="n"/>
+    </row>
+    <row r="662" ht="87.75" customHeight="1" s="1">
+      <c r="A662" s="5" t="n"/>
+      <c r="B662" s="5" t="n"/>
+    </row>
+    <row r="663" ht="87.75" customHeight="1" s="1">
+      <c r="A663" s="5" t="n"/>
+      <c r="B663" s="5" t="n"/>
+    </row>
+    <row r="664" ht="87.75" customHeight="1" s="1">
+      <c r="A664" s="5" t="n"/>
+      <c r="B664" s="5" t="n"/>
+    </row>
+    <row r="665" ht="87.75" customHeight="1" s="1">
+      <c r="A665" s="5" t="n"/>
+      <c r="B665" s="5" t="n"/>
+    </row>
+    <row r="666" ht="87.75" customHeight="1" s="1">
+      <c r="A666" s="5" t="n"/>
+      <c r="B666" s="5" t="n"/>
+    </row>
+    <row r="667" ht="87.75" customHeight="1" s="1">
+      <c r="A667" s="5" t="n"/>
+      <c r="B667" s="5" t="n"/>
+    </row>
+    <row r="668" ht="87.75" customHeight="1" s="1">
+      <c r="A668" s="5" t="n"/>
+      <c r="B668" s="5" t="n"/>
+    </row>
+    <row r="669" ht="87.75" customHeight="1" s="1">
+      <c r="A669" s="5" t="n"/>
+      <c r="B669" s="5" t="n"/>
+    </row>
+    <row r="670" ht="87.75" customHeight="1" s="1">
+      <c r="A670" s="5" t="n"/>
+      <c r="B670" s="5" t="n"/>
+    </row>
+    <row r="671" ht="87.75" customHeight="1" s="1">
+      <c r="A671" s="5" t="n"/>
+      <c r="B671" s="5" t="n"/>
+    </row>
+    <row r="672" ht="87.75" customHeight="1" s="1">
+      <c r="A672" s="5" t="n"/>
+      <c r="B672" s="5" t="n"/>
+    </row>
+    <row r="673" ht="87.75" customHeight="1" s="1">
+      <c r="A673" s="5" t="n"/>
+      <c r="B673" s="5" t="n"/>
+    </row>
+    <row r="674" ht="87.75" customHeight="1" s="1">
+      <c r="A674" s="5" t="n"/>
+      <c r="B674" s="5" t="n"/>
+    </row>
+    <row r="675" ht="87.75" customHeight="1" s="1">
+      <c r="A675" s="5" t="n"/>
+      <c r="B675" s="5" t="n"/>
+    </row>
+    <row r="676" ht="87.75" customHeight="1" s="1">
+      <c r="A676" s="5" t="n"/>
+      <c r="B676" s="5" t="n"/>
+    </row>
+    <row r="677" ht="87.75" customHeight="1" s="1">
+      <c r="A677" s="5" t="n"/>
+      <c r="B677" s="5" t="n"/>
+    </row>
+    <row r="678" ht="87.75" customHeight="1" s="1">
+      <c r="A678" s="5" t="n"/>
+      <c r="B678" s="5" t="n"/>
+    </row>
+    <row r="679" ht="87.75" customHeight="1" s="1">
+      <c r="A679" s="5" t="n"/>
+      <c r="B679" s="5" t="n"/>
+    </row>
+    <row r="680" ht="87.75" customHeight="1" s="1">
+      <c r="A680" s="5" t="n"/>
+      <c r="B680" s="5" t="n"/>
+    </row>
+    <row r="681" ht="87.75" customHeight="1" s="1">
+      <c r="A681" s="5" t="n"/>
+      <c r="B681" s="5" t="n"/>
+    </row>
+    <row r="682" ht="87.75" customHeight="1" s="1">
+      <c r="A682" s="5" t="n"/>
+      <c r="B682" s="5" t="n"/>
+    </row>
+    <row r="683" ht="87.75" customHeight="1" s="1">
+      <c r="A683" s="5" t="n"/>
+      <c r="B683" s="5" t="n"/>
+    </row>
+    <row r="684" ht="87.75" customHeight="1" s="1">
+      <c r="A684" s="5" t="n"/>
+      <c r="B684" s="5" t="n"/>
+    </row>
+    <row r="685" ht="87.75" customHeight="1" s="1">
+      <c r="A685" s="5" t="n"/>
+      <c r="B685" s="5" t="n"/>
+    </row>
+    <row r="686" ht="87.75" customHeight="1" s="1">
+      <c r="A686" s="5" t="n"/>
+      <c r="B686" s="5" t="n"/>
+    </row>
+    <row r="687" ht="87.75" customHeight="1" s="1">
+      <c r="A687" s="5" t="n"/>
+      <c r="B687" s="5" t="n"/>
+    </row>
+    <row r="688" ht="87.75" customHeight="1" s="1">
+      <c r="A688" s="5" t="n"/>
+      <c r="B688" s="5" t="n"/>
+    </row>
+    <row r="689" ht="87.75" customHeight="1" s="1">
+      <c r="A689" s="5" t="n"/>
+      <c r="B689" s="5" t="n"/>
+    </row>
+    <row r="690" ht="87.75" customHeight="1" s="1">
+      <c r="A690" s="5" t="n"/>
+      <c r="B690" s="5" t="n"/>
+    </row>
+    <row r="691" ht="87.75" customHeight="1" s="1">
+      <c r="A691" s="5" t="n"/>
+      <c r="B691" s="5" t="n"/>
+    </row>
+    <row r="692" ht="87.75" customHeight="1" s="1">
+      <c r="A692" s="5" t="n"/>
+      <c r="B692" s="5" t="n"/>
+    </row>
+    <row r="693" ht="87.75" customHeight="1" s="1">
+      <c r="A693" s="5" t="n"/>
+      <c r="B693" s="5" t="n"/>
+    </row>
+    <row r="694" ht="87.75" customHeight="1" s="1">
+      <c r="A694" s="5" t="n"/>
+      <c r="B694" s="5" t="n"/>
+    </row>
+    <row r="695" ht="87.75" customHeight="1" s="1">
+      <c r="A695" s="5" t="n"/>
+      <c r="B695" s="5" t="n"/>
+    </row>
+    <row r="696" ht="87.75" customHeight="1" s="1">
+      <c r="A696" s="5" t="n"/>
+      <c r="B696" s="5" t="n"/>
+    </row>
+    <row r="697" ht="87.75" customHeight="1" s="1">
+      <c r="A697" s="5" t="n"/>
+      <c r="B697" s="5" t="n"/>
+    </row>
+    <row r="698" ht="87.75" customHeight="1" s="1">
+      <c r="A698" s="5" t="n"/>
+      <c r="B698" s="5" t="n"/>
+    </row>
+    <row r="699" ht="87.75" customHeight="1" s="1">
+      <c r="A699" s="5" t="n"/>
+      <c r="B699" s="5" t="n"/>
+    </row>
+    <row r="700" ht="87.75" customHeight="1" s="1">
+      <c r="A700" s="5" t="n"/>
+      <c r="B700" s="5" t="n"/>
+    </row>
+    <row r="701" ht="87.75" customHeight="1" s="1">
+      <c r="A701" s="5" t="n"/>
+      <c r="B701" s="5" t="n"/>
+    </row>
+    <row r="702" ht="87.75" customHeight="1" s="1">
+      <c r="A702" s="5" t="n"/>
+      <c r="B702" s="5" t="n"/>
+    </row>
+    <row r="703" ht="87.75" customHeight="1" s="1">
+      <c r="A703" s="5" t="n"/>
+      <c r="B703" s="5" t="n"/>
+    </row>
+    <row r="704" ht="87.75" customHeight="1" s="1">
+      <c r="A704" s="5" t="n"/>
+      <c r="B704" s="5" t="n"/>
+    </row>
+    <row r="705" ht="87.75" customHeight="1" s="1">
+      <c r="A705" s="5" t="n"/>
+      <c r="B705" s="5" t="n"/>
+    </row>
+    <row r="706" ht="87.75" customHeight="1" s="1">
+      <c r="A706" s="5" t="n"/>
+      <c r="B706" s="5" t="n"/>
+    </row>
+    <row r="707" ht="87.75" customHeight="1" s="1">
+      <c r="A707" s="5" t="n"/>
+      <c r="B707" s="5" t="n"/>
+    </row>
+    <row r="708" ht="87.75" customHeight="1" s="1">
+      <c r="A708" s="5" t="n"/>
+      <c r="B708" s="5" t="n"/>
+    </row>
+    <row r="709" ht="87.75" customHeight="1" s="1">
+      <c r="A709" s="5" t="n"/>
+      <c r="B709" s="5" t="n"/>
+    </row>
+    <row r="710" ht="87.75" customHeight="1" s="1">
+      <c r="A710" s="5" t="n"/>
+      <c r="B710" s="5" t="n"/>
+    </row>
+    <row r="711" ht="87.75" customHeight="1" s="1">
+      <c r="A711" s="5" t="n"/>
+      <c r="B711" s="5" t="n"/>
+    </row>
+    <row r="712" ht="87.75" customHeight="1" s="1">
+      <c r="A712" s="5" t="n"/>
+      <c r="B712" s="5" t="n"/>
+    </row>
+    <row r="713" ht="87.75" customHeight="1" s="1">
+      <c r="A713" s="5" t="n"/>
+      <c r="B713" s="5" t="n"/>
+    </row>
+    <row r="714" ht="87.75" customHeight="1" s="1">
+      <c r="A714" s="5" t="n"/>
+      <c r="B714" s="5" t="n"/>
+    </row>
+    <row r="715" ht="87.75" customHeight="1" s="1">
+      <c r="A715" s="5" t="n"/>
+      <c r="B715" s="5" t="n"/>
+    </row>
+    <row r="716" ht="87.75" customHeight="1" s="1">
+      <c r="A716" s="5" t="n"/>
+      <c r="B716" s="5" t="n"/>
+    </row>
+    <row r="717" ht="87.75" customHeight="1" s="1">
+      <c r="A717" s="5" t="n"/>
+      <c r="B717" s="5" t="n"/>
+    </row>
+    <row r="718" ht="87.75" customHeight="1" s="1">
+      <c r="A718" s="5" t="n"/>
+      <c r="B718" s="5" t="n"/>
+    </row>
+    <row r="719" ht="87.75" customHeight="1" s="1">
+      <c r="A719" s="5" t="n"/>
+      <c r="B719" s="5" t="n"/>
+    </row>
+    <row r="720" ht="87.75" customHeight="1" s="1">
+      <c r="A720" s="5" t="n"/>
+      <c r="B720" s="5" t="n"/>
+    </row>
+    <row r="721" ht="87.75" customHeight="1" s="1">
+      <c r="A721" s="5" t="n"/>
+      <c r="B721" s="5" t="n"/>
+    </row>
+    <row r="722" ht="87.75" customHeight="1" s="1">
+      <c r="A722" s="5" t="n"/>
+      <c r="B722" s="5" t="n"/>
+    </row>
+    <row r="723" ht="87.75" customHeight="1" s="1">
+      <c r="A723" s="5" t="n"/>
+      <c r="B723" s="5" t="n"/>
+    </row>
+    <row r="724" ht="87.75" customHeight="1" s="1">
+      <c r="A724" s="5" t="n"/>
+      <c r="B724" s="5" t="n"/>
+    </row>
+    <row r="725" ht="87.75" customHeight="1" s="1">
+      <c r="A725" s="5" t="n"/>
+      <c r="B725" s="5" t="n"/>
+    </row>
+    <row r="726" ht="87.75" customHeight="1" s="1">
+      <c r="A726" s="5" t="n"/>
+      <c r="B726" s="5" t="n"/>
+    </row>
+    <row r="727" ht="87.75" customHeight="1" s="1">
+      <c r="A727" s="5" t="n"/>
+      <c r="B727" s="5" t="n"/>
+    </row>
+    <row r="728" ht="87.75" customHeight="1" s="1">
+      <c r="A728" s="5" t="n"/>
+      <c r="B728" s="5" t="n"/>
+    </row>
+    <row r="729" ht="87.75" customHeight="1" s="1">
+      <c r="A729" s="5" t="n"/>
+      <c r="B729" s="5" t="n"/>
+    </row>
+    <row r="730" ht="87.75" customHeight="1" s="1">
+      <c r="A730" s="5" t="n"/>
+      <c r="B730" s="5" t="n"/>
+    </row>
+    <row r="731" ht="87.75" customHeight="1" s="1">
+      <c r="A731" s="5" t="n"/>
+      <c r="B731" s="5" t="n"/>
+    </row>
+    <row r="732" ht="87.75" customHeight="1" s="1">
+      <c r="A732" s="5" t="n"/>
+      <c r="B732" s="5" t="n"/>
+    </row>
+    <row r="733" ht="87.75" customHeight="1" s="1">
+      <c r="A733" s="5" t="n"/>
+      <c r="B733" s="5" t="n"/>
+    </row>
+    <row r="734" ht="87.75" customHeight="1" s="1">
+      <c r="A734" s="5" t="n"/>
+      <c r="B734" s="5" t="n"/>
+    </row>
+    <row r="735" ht="87.75" customHeight="1" s="1">
+      <c r="A735" s="5" t="n"/>
+      <c r="B735" s="5" t="n"/>
+    </row>
+    <row r="736" ht="87.75" customHeight="1" s="1">
+      <c r="A736" s="5" t="n"/>
+      <c r="B736" s="5" t="n"/>
+    </row>
+    <row r="737" ht="87.75" customHeight="1" s="1">
+      <c r="A737" s="5" t="n"/>
+      <c r="B737" s="5" t="n"/>
+    </row>
+    <row r="738" ht="87.75" customHeight="1" s="1">
+      <c r="A738" s="5" t="n"/>
+      <c r="B738" s="5" t="n"/>
+    </row>
+    <row r="739" ht="87.75" customHeight="1" s="1">
+      <c r="A739" s="5" t="n"/>
+      <c r="B739" s="5" t="n"/>
+    </row>
+    <row r="740" ht="87.75" customHeight="1" s="1">
+      <c r="A740" s="5" t="n"/>
+      <c r="B740" s="5" t="n"/>
+    </row>
+    <row r="741" ht="87.75" customHeight="1" s="1">
+      <c r="A741" s="5" t="n"/>
+      <c r="B741" s="5" t="n"/>
+    </row>
+    <row r="742" ht="87.75" customHeight="1" s="1">
+      <c r="A742" s="5" t="n"/>
+      <c r="B742" s="5" t="n"/>
+    </row>
+    <row r="743" ht="87.75" customHeight="1" s="1">
+      <c r="A743" s="5" t="n"/>
+      <c r="B743" s="5" t="n"/>
+    </row>
+    <row r="744" ht="87.75" customHeight="1" s="1">
+      <c r="A744" s="5" t="n"/>
+      <c r="B744" s="5" t="n"/>
+    </row>
+    <row r="745" ht="87.75" customHeight="1" s="1">
+      <c r="A745" s="5" t="n"/>
+      <c r="B745" s="5" t="n"/>
+    </row>
+    <row r="746" ht="87.75" customHeight="1" s="1">
+      <c r="A746" s="5" t="n"/>
+      <c r="B746" s="5" t="n"/>
+    </row>
+    <row r="747" ht="87.75" customHeight="1" s="1">
+      <c r="A747" s="5" t="n"/>
+      <c r="B747" s="5" t="n"/>
+    </row>
+    <row r="748" ht="87.75" customHeight="1" s="1">
+      <c r="A748" s="5" t="n"/>
+      <c r="B748" s="5" t="n"/>
+    </row>
+    <row r="749" ht="87.75" customHeight="1" s="1">
+      <c r="A749" s="5" t="n"/>
+      <c r="B749" s="5" t="n"/>
+    </row>
+    <row r="750" ht="87.75" customHeight="1" s="1">
+      <c r="A750" s="5" t="n"/>
+      <c r="B750" s="5" t="n"/>
+    </row>
+    <row r="751" ht="87.75" customHeight="1" s="1">
+      <c r="A751" s="5" t="n"/>
+      <c r="B751" s="5" t="n"/>
+    </row>
+    <row r="752" ht="87.75" customHeight="1" s="1">
+      <c r="A752" s="5" t="n"/>
+      <c r="B752" s="5" t="n"/>
+    </row>
+    <row r="753" ht="87.75" customHeight="1" s="1">
+      <c r="A753" s="5" t="n"/>
+      <c r="B753" s="5" t="n"/>
+    </row>
+    <row r="754" ht="87.75" customHeight="1" s="1">
+      <c r="A754" s="5" t="n"/>
+      <c r="B754" s="5" t="n"/>
+    </row>
+    <row r="755" ht="87.75" customHeight="1" s="1">
+      <c r="A755" s="5" t="n"/>
+      <c r="B755" s="5" t="n"/>
+    </row>
+    <row r="756" ht="87.75" customHeight="1" s="1">
+      <c r="A756" s="5" t="n"/>
+      <c r="B756" s="5" t="n"/>
+    </row>
+    <row r="757" ht="87.75" customHeight="1" s="1">
+      <c r="A757" s="5" t="n"/>
+      <c r="B757" s="5" t="n"/>
+    </row>
+    <row r="758" ht="87.75" customHeight="1" s="1">
+      <c r="A758" s="5" t="n"/>
+      <c r="B758" s="5" t="n"/>
+    </row>
+    <row r="759" ht="87.75" customHeight="1" s="1">
+      <c r="A759" s="5" t="n"/>
+      <c r="B759" s="5" t="n"/>
+    </row>
+    <row r="760" ht="87.75" customHeight="1" s="1">
+      <c r="A760" s="5" t="n"/>
+      <c r="B760" s="5" t="n"/>
+    </row>
+    <row r="761" ht="87.75" customHeight="1" s="1">
+      <c r="A761" s="5" t="n"/>
+      <c r="B761" s="5" t="n"/>
+    </row>
+    <row r="762" ht="87.75" customHeight="1" s="1">
+      <c r="A762" s="5" t="n"/>
+      <c r="B762" s="5" t="n"/>
+    </row>
+    <row r="763" ht="87.75" customHeight="1" s="1">
+      <c r="A763" s="5" t="n"/>
+      <c r="B763" s="5" t="n"/>
+    </row>
+    <row r="764" ht="87.75" customHeight="1" s="1">
+      <c r="A764" s="5" t="n"/>
+      <c r="B764" s="5" t="n"/>
+    </row>
+    <row r="765" ht="87.75" customHeight="1" s="1">
+      <c r="A765" s="5" t="n"/>
+      <c r="B765" s="5" t="n"/>
+    </row>
+    <row r="766" ht="87.75" customHeight="1" s="1">
+      <c r="A766" s="5" t="n"/>
+      <c r="B766" s="5" t="n"/>
+    </row>
+    <row r="767" ht="87.75" customHeight="1" s="1">
+      <c r="A767" s="5" t="n"/>
+      <c r="B767" s="5" t="n"/>
+    </row>
+    <row r="768" ht="87.75" customHeight="1" s="1">
+      <c r="A768" s="5" t="n"/>
+      <c r="B768" s="5" t="n"/>
+    </row>
+    <row r="769" ht="87.75" customHeight="1" s="1">
+      <c r="A769" s="5" t="n"/>
+      <c r="B769" s="5" t="n"/>
+    </row>
+    <row r="770" ht="87.75" customHeight="1" s="1">
+      <c r="A770" s="5" t="n"/>
+      <c r="B770" s="5" t="n"/>
+    </row>
+    <row r="771" ht="87.75" customHeight="1" s="1">
+      <c r="A771" s="5" t="n"/>
+      <c r="B771" s="5" t="n"/>
+    </row>
+    <row r="772" ht="87.75" customHeight="1" s="1">
+      <c r="A772" s="5" t="n"/>
+      <c r="B772" s="5" t="n"/>
+    </row>
+    <row r="773" ht="87.75" customHeight="1" s="1">
+      <c r="A773" s="5" t="n"/>
+      <c r="B773" s="5" t="n"/>
+    </row>
+    <row r="774" ht="87.75" customHeight="1" s="1">
+      <c r="A774" s="5" t="n"/>
+      <c r="B774" s="5" t="n"/>
+    </row>
+    <row r="775" ht="87.75" customHeight="1" s="1">
+      <c r="A775" s="5" t="n"/>
+      <c r="B775" s="5" t="n"/>
+    </row>
+    <row r="776" ht="87.75" customHeight="1" s="1">
+      <c r="A776" s="5" t="n"/>
+      <c r="B776" s="5" t="n"/>
+    </row>
+    <row r="777" ht="87.75" customHeight="1" s="1">
+      <c r="A777" s="5" t="n"/>
+      <c r="B777" s="5" t="n"/>
+    </row>
+    <row r="778" ht="87.75" customHeight="1" s="1">
+      <c r="A778" s="5" t="n"/>
+      <c r="B778" s="5" t="n"/>
+    </row>
+    <row r="779" ht="87.75" customHeight="1" s="1">
+      <c r="A779" s="5" t="n"/>
+      <c r="B779" s="5" t="n"/>
+    </row>
+    <row r="780" ht="87.75" customHeight="1" s="1">
+      <c r="A780" s="5" t="n"/>
+      <c r="B780" s="5" t="n"/>
     </row>
     <row r="781"/>
     <row r="782"/>
@@ -24461,8 +23261,8 @@
     <row r="21064"/>
     <row r="21065"/>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.7875000000000001" right="0.7875000000000001" top="0.7875000000000001" bottom="0.7875000000000001" header="0.5118110236220469" footer="0.5118110236220469"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="1" useFirstPageNumber="1" pageOrder="downThenOver" usePrinterDefaults="1" blackAndWhite="0" draft="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>